--- a/Results/inputSankey.xlsx
+++ b/Results/inputSankey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Engines indvidual" sheetId="1" r:id="rId1"/>
@@ -1043,6 +1043,58 @@
           </cell>
           <cell r="I510">
             <v>6646624.1092834296</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="B511">
+            <v>9209779.40822828</v>
+          </cell>
+          <cell r="C511">
+            <v>11135.7406014689</v>
+          </cell>
+          <cell r="D511">
+            <v>7595977.0701070698</v>
+          </cell>
+          <cell r="E511">
+            <v>917890.22436719202</v>
+          </cell>
+          <cell r="F511">
+            <v>684776.37315257394</v>
+          </cell>
+          <cell r="G511">
+            <v>3759692.36293749</v>
+          </cell>
+          <cell r="H511">
+            <v>3885055.5792032699</v>
+          </cell>
+          <cell r="I511">
+            <v>1565031.4660875199</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="B516">
+            <v>5346591.5287048398</v>
+          </cell>
+          <cell r="C516">
+            <v>1054770.9976613901</v>
+          </cell>
+          <cell r="D516">
+            <v>3533576.9180950401</v>
+          </cell>
+          <cell r="E516">
+            <v>637641.81908801198</v>
+          </cell>
+          <cell r="F516">
+            <v>120601.79386038599</v>
+          </cell>
+          <cell r="G516">
+            <v>2621863.07579407</v>
+          </cell>
+          <cell r="H516">
+            <v>1976826.4544802899</v>
+          </cell>
+          <cell r="I516">
+            <v>747901.99843046197</v>
           </cell>
         </row>
         <row r="563">
@@ -1654,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6174,7 +6226,7 @@
         <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -7301,7 +7353,7 @@
         <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -8428,7 +8480,7 @@
         <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E139" t="s">
         <v>9</v>
@@ -9555,7 +9607,7 @@
         <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
@@ -10496,10 +10548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11290,7 +11342,7 @@
         <v>3.7931316737477028</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -11339,7 +11391,7 @@
         <v>3.7931316737477294</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -11388,7 +11440,7 @@
         <v>0.39574909999999036</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -11437,7 +11489,7 @@
         <v>2.1630539166691496</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -11486,7 +11538,7 @@
         <v>5.3827150716573202</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -11535,7 +11587,7 @@
         <v>19.232512930815332</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -11584,7 +11636,7 @@
         <v>43.972791217206698</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -11633,7 +11685,7 @@
         <v>0.17447475996506639</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -11682,7 +11734,7 @@
         <v>7.6829654234064695E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -11731,7 +11783,7 @@
         <v>1.7641898090956221</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -11780,7 +11832,7 @@
         <v>1.37545427690338</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -11829,7 +11881,7 @@
         <v>0.672051401162578</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -11878,7 +11930,7 @@
         <v>1.6873601548615587</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -11927,7 +11979,7 @@
         <v>10.573836598503268</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -11944,39 +11996,40 @@
         <v>9</v>
       </c>
       <c r="F31" s="2">
-        <f>SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
+        <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>56.898913014863979</v>
       </c>
       <c r="G31" s="2">
-        <f>SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
+        <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>17.206177905817341</v>
       </c>
       <c r="H31" s="2">
-        <f>SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
+        <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>32.127025533129022</v>
       </c>
       <c r="I31" s="2">
-        <f>SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
+        <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>5.9988718867336548</v>
       </c>
       <c r="J31" s="2">
-        <f>SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
+        <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>1.5668376891840965</v>
       </c>
       <c r="K31" s="2">
-        <f>SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
+        <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>24.419063814279976</v>
       </c>
       <c r="L31" s="2">
-        <f>SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
+        <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>24.175314205604916</v>
       </c>
       <c r="M31" s="2">
-        <f>SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
+        <v>8.3045349949793295</v>
+      </c>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -12760,7 +12813,7 @@
         <v>6.8410081318315219E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -12781,35 +12834,35 @@
         <v>31.838105112742277</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" ref="G50:M50" ca="1" si="0">G12+G16+G35+G39-G51</f>
+        <f ca="1">G12+G16+G35+G39-G51</f>
         <v>3.4802682336300714</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">H12+H16+H35+H39-H51</f>
         <v>21.937898706236098</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">I12+I16+I35+I39-I51</f>
         <v>3.5678535710238473</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">J12+J16+J35+J39-J51</f>
         <v>2.8520846018488433</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">K12+K16+K35+K39-K51</f>
         <v>12.294694038761454</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">L12+L16+L35+L39-L51</f>
         <v>13.619022693812809</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">M12+M16+M35+M39-M51</f>
         <v>5.9243883801649035</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -12858,7 +12911,7 @@
         <v>2.1712957199004999</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -12907,7 +12960,7 @@
         <v>1.6576476469404362</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -12924,39 +12977,39 @@
         <v>9</v>
       </c>
       <c r="F53" s="2">
-        <f>([1]aggregated_flows_energy!B$510-[1]aggregated_flows_energy!B$509)*0.000001</f>
-        <v>57.461326076434041</v>
+        <f>([1]aggregated_flows_energy!B$510-[1]aggregated_flows_energy!B$509-SUM([1]aggregated_flows_energy!B$511:'[1]aggregated_flows_energy'!B$516))*0.000001</f>
+        <v>16.223689498073899</v>
       </c>
       <c r="G53" s="2">
-        <f>([1]aggregated_flows_energy!C$510-[1]aggregated_flows_energy!C$509)*0.000001</f>
-        <v>20.647999929695739</v>
+        <f>([1]aggregated_flows_energy!C$510-[1]aggregated_flows_energy!C$509-SUM([1]aggregated_flows_energy!C$511:'[1]aggregated_flows_energy'!C$516))*0.000001</f>
+        <v>13.564514394067455</v>
       </c>
       <c r="H53" s="2">
-        <f>([1]aggregated_flows_energy!D$510-[1]aggregated_flows_energy!D$509)*0.000001</f>
-        <v>30.379609150441496</v>
+        <f>([1]aggregated_flows_energy!D$510-[1]aggregated_flows_energy!D$509-SUM([1]aggregated_flows_energy!D$511:'[1]aggregated_flows_energy'!D$516))*0.000001</f>
+        <v>2.3207068922933116</v>
       </c>
       <c r="I53" s="2">
-        <f>([1]aggregated_flows_energy!E$510-[1]aggregated_flows_energy!E$509)*0.000001</f>
-        <v>4.67094627625454</v>
+        <f>([1]aggregated_flows_energy!E$510-[1]aggregated_flows_energy!E$509-SUM([1]aggregated_flows_energy!E$511:'[1]aggregated_flows_energy'!E$516))*0.000001</f>
+        <v>0.4308742097303504</v>
       </c>
       <c r="J53" s="2">
-        <f>([1]aggregated_flows_energy!F$510-[1]aggregated_flows_energy!F$509)*0.000001</f>
-        <v>1.7627707200416494</v>
+        <f>([1]aggregated_flows_energy!F$510-[1]aggregated_flows_energy!F$509-SUM([1]aggregated_flows_energy!F$511:'[1]aggregated_flows_energy'!F$516))*0.000001</f>
+        <v>-9.2405998017871985E-2</v>
       </c>
       <c r="K53" s="2">
-        <f>([1]aggregated_flows_energy!G$510-[1]aggregated_flows_energy!G$509)*0.000001</f>
-        <v>28.723581090606718</v>
+        <f>([1]aggregated_flows_energy!G$510-[1]aggregated_flows_energy!G$509-SUM([1]aggregated_flows_energy!G$511:'[1]aggregated_flows_energy'!G$516))*0.000001</f>
+        <v>10.502661937346</v>
       </c>
       <c r="L53" s="2">
-        <f>([1]aggregated_flows_energy!H$510-[1]aggregated_flows_energy!H$509)*0.000001</f>
-        <v>22.174279995219187</v>
+        <f>([1]aggregated_flows_energy!H$510-[1]aggregated_flows_energy!H$509-SUM([1]aggregated_flows_energy!H$511:'[1]aggregated_flows_energy'!H$516))*0.000001</f>
+        <v>5.4240741368454692</v>
       </c>
       <c r="M53" s="2">
-        <f>([1]aggregated_flows_energy!I$510-[1]aggregated_flows_energy!I$509)*0.000001</f>
-        <v>6.563464990607689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+        <f>([1]aggregated_flows_energy!I$510-[1]aggregated_flows_energy!I$509-SUM([1]aggregated_flows_energy!I$511:'[1]aggregated_flows_energy'!I$516))*0.000001</f>
+        <v>0.29695342388197965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -13005,7 +13058,7 @@
         <v>7.4836994693588996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -13054,7 +13107,7 @@
         <v>0.37298137770409889</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -13103,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -13152,7 +13205,7 @@
         <v>1.8309407060685099</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -13201,7 +13254,7 @@
         <v>1.9981513588141797</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -13250,7 +13303,7 @@
         <v>0.27775093849879201</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -13298,8 +13351,12 @@
         <f>[1]aggregated_flows_energy!I$575*0.000001</f>
         <v>0.26783126212383496</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N60" s="2">
+        <f>F59+F60+F61+F62+F63+F64</f>
+        <v>15.28257332092033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -13348,7 +13405,7 @@
         <v>0.21415501681757798</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -13397,7 +13454,7 @@
         <v>0.20831320387409399</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -13446,7 +13503,7 @@
         <v>0.95400965763433598</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -13712,31 +13769,31 @@
         <v>3.2001051351615928</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:M69" ca="1" si="1">G21-G68</f>
+        <f ca="1">G21-G68</f>
         <v>4.1960818436018732E-3</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">H21-H68</f>
         <v>2.5376972550375854</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">I21-I68</f>
         <v>0.30219772255845889</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">J21-J68</f>
         <v>0.35601407572180044</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">K21-K68</f>
         <v>1.2586804498197068</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">L21-L68</f>
         <v>1.3682958000033096</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">M21-M68</f>
         <v>0.57312888533829209</v>
       </c>
     </row>

--- a/Results/inputSankey.xlsx
+++ b/Results/inputSankey.xlsx
@@ -10550,8 +10550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12830,35 +12830,35 @@
         <v>12</v>
       </c>
       <c r="F50" s="2">
-        <f ca="1">F12+F16+F35+F39-F51</f>
+        <f t="shared" ref="F50:M50" ca="1" si="0">F12+F16+F35+F39-F51</f>
         <v>31.838105112742277</v>
       </c>
       <c r="G50" s="2">
-        <f ca="1">G12+G16+G35+G39-G51</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.4802682336300714</v>
       </c>
       <c r="H50" s="2">
-        <f ca="1">H12+H16+H35+H39-H51</f>
+        <f t="shared" ca="1" si="0"/>
         <v>21.937898706236098</v>
       </c>
       <c r="I50" s="2">
-        <f ca="1">I12+I16+I35+I39-I51</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.5678535710238473</v>
       </c>
       <c r="J50" s="2">
-        <f ca="1">J12+J16+J35+J39-J51</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.8520846018488433</v>
       </c>
       <c r="K50" s="2">
-        <f ca="1">K12+K16+K35+K39-K51</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12.294694038761454</v>
       </c>
       <c r="L50" s="2">
-        <f ca="1">L12+L16+L35+L39-L51</f>
+        <f t="shared" ca="1" si="0"/>
         <v>13.619022693812809</v>
       </c>
       <c r="M50" s="2">
-        <f ca="1">M12+M16+M35+M39-M51</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5.9243883801649035</v>
       </c>
     </row>
@@ -13765,35 +13765,35 @@
         <v>12</v>
       </c>
       <c r="F69" s="2">
-        <f ca="1">F21-F68</f>
+        <f t="shared" ref="F69:M69" ca="1" si="1">F21-F68</f>
         <v>3.2001051351615928</v>
       </c>
       <c r="G69" s="2">
-        <f ca="1">G21-G68</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4.1960818436018732E-3</v>
       </c>
       <c r="H69" s="2">
-        <f ca="1">H21-H68</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5376972550375854</v>
       </c>
       <c r="I69" s="2">
-        <f ca="1">I21-I68</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.30219772255845889</v>
       </c>
       <c r="J69" s="2">
-        <f ca="1">J21-J68</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35601407572180044</v>
       </c>
       <c r="K69" s="2">
-        <f ca="1">K21-K68</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2586804498197068</v>
       </c>
       <c r="L69" s="2">
-        <f ca="1">L21-L68</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.3682958000033096</v>
       </c>
       <c r="M69" s="2">
-        <f ca="1">M21-M68</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.57312888533829209</v>
       </c>
     </row>

--- a/Results/inputSankey.xlsx
+++ b/Results/inputSankey.xlsx
@@ -296,19 +296,19 @@
             <v>1101669.14881961</v>
           </cell>
           <cell r="C2">
-            <v>1374.4339820872401</v>
+            <v>1374.4339820872499</v>
           </cell>
           <cell r="D2">
-            <v>907476.94869734405</v>
+            <v>907476.94869734102</v>
           </cell>
           <cell r="E2">
-            <v>99128.936695533601</v>
+            <v>99128.936695533805</v>
           </cell>
           <cell r="F2">
             <v>93688.829444647898</v>
           </cell>
           <cell r="G2">
-            <v>558531.73753161705</v>
+            <v>558531.73753161903</v>
           </cell>
           <cell r="H2">
             <v>406892.35535050801</v>
@@ -340,7 +340,7 @@
             <v>2024021.1974754799</v>
           </cell>
           <cell r="I4">
-            <v>984942.18240609404</v>
+            <v>984942.18240609497</v>
           </cell>
         </row>
         <row r="6">
@@ -351,19 +351,19 @@
             <v>22474.266110033099</v>
           </cell>
           <cell r="D6">
-            <v>16088252.1259064</v>
+            <v>16088252.1259063</v>
           </cell>
           <cell r="E6">
             <v>1982481.8149556799</v>
           </cell>
           <cell r="F6">
-            <v>2312578.0752032702</v>
+            <v>2312578.07520328</v>
           </cell>
           <cell r="G6">
             <v>8171022.8995782798</v>
           </cell>
           <cell r="H6">
-            <v>8639446.8270302992</v>
+            <v>8639446.8270302806</v>
           </cell>
           <cell r="I6">
             <v>3595316.5555668101</v>
@@ -371,22 +371,22 @@
         </row>
         <row r="8">
           <cell r="B8">
-            <v>6028631.5152129401</v>
+            <v>6028631.5152129503</v>
           </cell>
           <cell r="C8">
             <v>2995.1966769175201</v>
           </cell>
           <cell r="D8">
-            <v>4538998.4131356804</v>
+            <v>4538998.4131356701</v>
           </cell>
           <cell r="E8">
-            <v>544229.61467117304</v>
+            <v>544229.61467117397</v>
           </cell>
           <cell r="F8">
             <v>942408.29072918405</v>
           </cell>
           <cell r="G8">
-            <v>2476530.7240433898</v>
+            <v>2476530.72404338</v>
           </cell>
           <cell r="H8">
             <v>2430913.5528259901</v>
@@ -409,7 +409,7 @@
             <v>431964.34003777901</v>
           </cell>
           <cell r="F9">
-            <v>832857.87819109403</v>
+            <v>832857.87819109298</v>
           </cell>
           <cell r="G9">
             <v>1850812.6026516201</v>
@@ -423,7 +423,7 @@
         </row>
         <row r="10">
           <cell r="B10">
-            <v>1378103.14084356</v>
+            <v>1378103.14084357</v>
           </cell>
           <cell r="C10">
             <v>443.51690557313299</v>
@@ -432,16 +432,16 @@
             <v>1155843.9367665099</v>
           </cell>
           <cell r="E10">
-            <v>112265.27463339501</v>
+            <v>112265.274633394</v>
           </cell>
           <cell r="F10">
             <v>109550.41253808999</v>
           </cell>
           <cell r="G10">
-            <v>625718.12139175995</v>
+            <v>625718.121391761</v>
           </cell>
           <cell r="H10">
-            <v>580627.77287246694</v>
+            <v>580627.77287246799</v>
           </cell>
           <cell r="I10">
             <v>171757.24657934601</v>
@@ -449,7 +449,7 @@
         </row>
         <row r="11">
           <cell r="B11">
-            <v>24783272.588095501</v>
+            <v>24783272.588095602</v>
           </cell>
           <cell r="C11">
             <v>24353.9936880614</v>
@@ -461,7 +461,7 @@
             <v>2392964.3879362298</v>
           </cell>
           <cell r="F11">
-            <v>3153189.3981957398</v>
+            <v>3153189.3981957301</v>
           </cell>
           <cell r="G11">
             <v>9790442.0391863994</v>
@@ -475,7 +475,7 @@
         </row>
         <row r="18">
           <cell r="B18">
-            <v>3301541.1447767601</v>
+            <v>3301541.1447767499</v>
           </cell>
           <cell r="C18">
             <v>2551.6797713443898</v>
@@ -487,16 +487,16 @@
             <v>303738.08657448</v>
           </cell>
           <cell r="F18">
-            <v>480481.48427198798</v>
+            <v>480481.48427198699</v>
           </cell>
           <cell r="G18">
-            <v>1368969.0401167001</v>
+            <v>1368969.0401167099</v>
           </cell>
           <cell r="H18">
             <v>1330878.02203111</v>
           </cell>
           <cell r="I18">
-            <v>601694.08262892696</v>
+            <v>601694.08262892801</v>
           </cell>
         </row>
         <row r="22">
@@ -519,7 +519,7 @@
             <v>806750.27383316297</v>
           </cell>
           <cell r="H22">
-            <v>711758.20052894903</v>
+            <v>711758.20052894601</v>
           </cell>
           <cell r="I22">
             <v>254856.77378705901</v>
@@ -527,7 +527,7 @@
         </row>
         <row r="32">
           <cell r="B32">
-            <v>251171.87040172401</v>
+            <v>251171.87040172299</v>
           </cell>
           <cell r="C32">
             <v>386.463400940197</v>
@@ -542,7 +542,7 @@
             <v>28182.752087580098</v>
           </cell>
           <cell r="G32">
-            <v>104406.895504174</v>
+            <v>104406.895504175</v>
           </cell>
           <cell r="H32">
             <v>105173.94600778</v>
@@ -556,22 +556,22 @@
             <v>57841989.850672103</v>
           </cell>
           <cell r="C33">
-            <v>87583.740924113401</v>
+            <v>87583.740924113503</v>
           </cell>
           <cell r="D33">
             <v>45040887.617486998</v>
           </cell>
           <cell r="E33">
-            <v>5887092.7987737097</v>
+            <v>5887092.7987737199</v>
           </cell>
           <cell r="F33">
-            <v>6826425.6934871897</v>
+            <v>6826425.6934872</v>
           </cell>
           <cell r="G33">
-            <v>22668463.619424202</v>
+            <v>22668463.619424101</v>
           </cell>
           <cell r="H33">
-            <v>24720275.277158901</v>
+            <v>24720275.277159002</v>
           </cell>
           <cell r="I33">
             <v>10453250.9540889</v>
@@ -594,7 +594,7 @@
             <v>3093979.5789466901</v>
           </cell>
           <cell r="G35">
-            <v>9613780.9673187993</v>
+            <v>9613780.96731879</v>
           </cell>
           <cell r="H35">
             <v>10508388.5042601</v>
@@ -611,10 +611,10 @@
             <v>15453.544428302601</v>
           </cell>
           <cell r="D36">
-            <v>4256481.2173071997</v>
+            <v>4256481.2173071802</v>
           </cell>
           <cell r="E36">
-            <v>604397.06586457603</v>
+            <v>604397.06586457498</v>
           </cell>
           <cell r="F36">
             <v>430472.63961992902</v>
@@ -631,39 +631,39 @@
         </row>
         <row r="37">
           <cell r="B37">
-            <v>611794.30000011995</v>
+            <v>611794.299999999</v>
           </cell>
           <cell r="C37">
             <v>1767</v>
           </cell>
           <cell r="D37">
-            <v>496350.30000007403</v>
+            <v>496350.299999999</v>
           </cell>
           <cell r="E37">
-            <v>68795.200000000797</v>
+            <v>68795.199999999997</v>
           </cell>
           <cell r="F37">
-            <v>44881.8000000006</v>
+            <v>44881.799999999901</v>
           </cell>
           <cell r="G37">
-            <v>249677.09999998199</v>
+            <v>249677.09999999899</v>
           </cell>
           <cell r="H37">
-            <v>268819.59999998403</v>
+            <v>268819.59999999998</v>
           </cell>
           <cell r="I37">
-            <v>93297.599999998303</v>
+            <v>93297.599999999904</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>33331150.2152538</v>
+            <v>33331150.2152537</v>
           </cell>
           <cell r="C38">
             <v>96145.252668889298</v>
           </cell>
           <cell r="D38">
-            <v>27340530.250262801</v>
+            <v>27340530.2502627</v>
           </cell>
           <cell r="E38">
             <v>3611803.2293415</v>
@@ -672,13 +672,13 @@
             <v>2282671.4829806001</v>
           </cell>
           <cell r="G38">
-            <v>15039010.626845401</v>
+            <v>15039010.6268455</v>
           </cell>
           <cell r="H38">
             <v>13950286.4434401</v>
           </cell>
           <cell r="I38">
-            <v>4341853.1449681204</v>
+            <v>4341853.1449681297</v>
           </cell>
         </row>
         <row r="39">
@@ -692,7 +692,7 @@
             <v>31597011.467569899</v>
           </cell>
           <cell r="E39">
-            <v>4216200.2952060699</v>
+            <v>4216200.2952060802</v>
           </cell>
           <cell r="F39">
             <v>2713144.1226005298</v>
@@ -712,22 +712,22 @@
             <v>800545.11067639396</v>
           </cell>
           <cell r="C48">
-            <v>703.00923433927301</v>
+            <v>703.00923433927403</v>
           </cell>
           <cell r="D48">
-            <v>623362.47335526301</v>
+            <v>623362.47335526405</v>
           </cell>
           <cell r="E48">
-            <v>75436.817791361595</v>
+            <v>75436.817791361507</v>
           </cell>
           <cell r="F48">
             <v>101042.81029542899</v>
           </cell>
           <cell r="G48">
-            <v>317694.75002746901</v>
+            <v>317694.75002746802</v>
           </cell>
           <cell r="H48">
-            <v>338575.28263011097</v>
+            <v>338575.28263010998</v>
           </cell>
           <cell r="I48">
             <v>144275.07801881401</v>
@@ -735,19 +735,19 @@
         </row>
         <row r="54">
           <cell r="B54">
-            <v>5913328.1486983597</v>
+            <v>5913328.14869837</v>
           </cell>
           <cell r="C54">
             <v>1903.2842146630201</v>
           </cell>
           <cell r="D54">
-            <v>4496054.8969572196</v>
+            <v>4496054.8969572103</v>
           </cell>
           <cell r="E54">
-            <v>529298.60657545296</v>
+            <v>529298.606575454</v>
           </cell>
           <cell r="F54">
-            <v>886071.36095103703</v>
+            <v>886071.36095103796</v>
           </cell>
           <cell r="G54">
             <v>2283658.8161976999</v>
@@ -761,13 +761,13 @@
         </row>
         <row r="55">
           <cell r="B55">
-            <v>6237712.9494046997</v>
+            <v>6237712.9494046597</v>
           </cell>
           <cell r="C55">
             <v>2553.22657974404</v>
           </cell>
           <cell r="D55">
-            <v>4800093.2487690402</v>
+            <v>4800093.24876903</v>
           </cell>
           <cell r="E55">
             <v>554858.96726586204</v>
@@ -779,7 +779,7 @@
             <v>2540178.7998011801</v>
           </cell>
           <cell r="H55">
-            <v>2511758.67207227</v>
+            <v>2511758.6720722802</v>
           </cell>
           <cell r="I55">
             <v>1185775.4775312</v>
@@ -802,39 +802,39 @@
             <v>1736101.08011896</v>
           </cell>
           <cell r="G97">
-            <v>6438434.5921279704</v>
+            <v>6438434.5921279602</v>
           </cell>
           <cell r="H97">
             <v>6696831.32913958</v>
           </cell>
           <cell r="I97">
-            <v>2699471.4602672802</v>
+            <v>2699471.46026729</v>
           </cell>
         </row>
         <row r="479">
           <cell r="B479">
-            <v>226056304.46747801</v>
+            <v>226058544.76348099</v>
           </cell>
           <cell r="C479">
-            <v>75716265.676737607</v>
+            <v>75717267.272555202</v>
           </cell>
           <cell r="D479">
-            <v>127501192.968198</v>
+            <v>127502347.786419</v>
           </cell>
           <cell r="E479">
-            <v>17906426.903237</v>
+            <v>17906508.381167699</v>
           </cell>
           <cell r="F479">
-            <v>4932418.9193078</v>
+            <v>4932421.3233395899</v>
           </cell>
           <cell r="G479">
-            <v>126563549.490227</v>
+            <v>126563552.571151</v>
           </cell>
           <cell r="H479">
-            <v>83079104.735872895</v>
+            <v>83079357.303185493</v>
           </cell>
           <cell r="I479">
-            <v>16413650.2413815</v>
+            <v>16415634.8891447</v>
           </cell>
         </row>
         <row r="482">
@@ -842,10 +842,10 @@
             <v>209727991.31449199</v>
           </cell>
           <cell r="C482">
-            <v>73327253.732320398</v>
+            <v>73327253.732320294</v>
           </cell>
           <cell r="D482">
-            <v>115903488.46918</v>
+            <v>115903488.469181</v>
           </cell>
           <cell r="E482">
             <v>16316409.558852199</v>
@@ -854,10 +854,10 @@
             <v>4180839.5541383498</v>
           </cell>
           <cell r="G482">
-            <v>119412740.91397101</v>
+            <v>119412740.91396999</v>
           </cell>
           <cell r="H482">
-            <v>76072895.879040301</v>
+            <v>76072895.879040197</v>
           </cell>
           <cell r="I482">
             <v>14242354.521481</v>
@@ -865,54 +865,54 @@
         </row>
         <row r="498">
           <cell r="B498">
-            <v>40496128.0231473</v>
+            <v>40493246.606092401</v>
           </cell>
           <cell r="C498">
-            <v>18437838.614992499</v>
+            <v>18436550.0598998</v>
           </cell>
           <cell r="D498">
-            <v>18913762.2756624</v>
+            <v>18912277.530390698</v>
           </cell>
           <cell r="E498">
-            <v>2806419.7545809201</v>
+            <v>2806314.7499078698</v>
           </cell>
           <cell r="F498">
-            <v>338107.37791112397</v>
+            <v>338104.26589398499</v>
           </cell>
           <cell r="G498">
-            <v>23810354.476052899</v>
+            <v>23810350.441304199</v>
           </cell>
           <cell r="H498">
-            <v>14563062.0038624</v>
+            <v>14562734.9072932</v>
           </cell>
           <cell r="I498">
-            <v>2122711.5432317602</v>
+            <v>2120161.2574950201</v>
           </cell>
         </row>
         <row r="499">
           <cell r="B499">
-            <v>9436465.5017442796</v>
+            <v>9435824.3806901108</v>
           </cell>
           <cell r="C499">
-            <v>4289796.3429609798</v>
+            <v>4289509.3836861802</v>
           </cell>
           <cell r="D499">
-            <v>4416409.0119818496</v>
+            <v>4416079.0849301498</v>
           </cell>
           <cell r="E499">
-            <v>651805.84576567402</v>
+            <v>651782.31902334397</v>
           </cell>
           <cell r="F499">
-            <v>78454.301035792305</v>
+            <v>78453.593050429801</v>
           </cell>
           <cell r="G499">
-            <v>5653981.2919127</v>
+            <v>5653980.3380881399</v>
           </cell>
           <cell r="H499">
-            <v>3317420.3135402501</v>
+            <v>3317345.7842842201</v>
           </cell>
           <cell r="I499">
-            <v>465063.896291324</v>
+            <v>464498.25831774098</v>
           </cell>
         </row>
         <row r="506">
@@ -932,7 +932,7 @@
             <v>1262.7799105766101</v>
           </cell>
           <cell r="G506">
-            <v>2623768.8790731099</v>
+            <v>2623768.8790731202</v>
           </cell>
           <cell r="H506">
             <v>1352673.2946214001</v>
@@ -943,28 +943,28 @@
         </row>
         <row r="507">
           <cell r="B507">
-            <v>20262652.6169383</v>
+            <v>20262652.616937499</v>
           </cell>
           <cell r="C507">
-            <v>14158825.363625299</v>
+            <v>14158825.363624999</v>
           </cell>
           <cell r="D507">
-            <v>5019130.2966250004</v>
+            <v>5019130.2966249902</v>
           </cell>
           <cell r="E507">
-            <v>1078278.6314999899</v>
+            <v>1078278.6314999999</v>
           </cell>
           <cell r="F507">
             <v>6418.3251874999996</v>
           </cell>
           <cell r="G507">
-            <v>13093383.3825002</v>
+            <v>13093383.3825</v>
           </cell>
           <cell r="H507">
-            <v>6797006.37356239</v>
+            <v>6797006.3735624999</v>
           </cell>
           <cell r="I507">
-            <v>372262.86087499902</v>
+            <v>372262.86087500001</v>
           </cell>
         </row>
         <row r="508">
@@ -984,7 +984,7 @@
             <v>19.5880058747588</v>
           </cell>
           <cell r="G508">
-            <v>36311.050988079201</v>
+            <v>36311.0509880791</v>
           </cell>
           <cell r="H508">
             <v>16288.740532480901</v>
@@ -1010,7 +1010,7 @@
             <v>1492.4666306506199</v>
           </cell>
           <cell r="G509">
-            <v>3263264.0149337798</v>
+            <v>3263264.0149337901</v>
           </cell>
           <cell r="H509">
             <v>1605616.58995781</v>
@@ -1021,28 +1021,28 @@
         </row>
         <row r="510">
           <cell r="B510">
-            <v>62413365.800001398</v>
+            <v>62413233.725654699</v>
           </cell>
           <cell r="C510">
-            <v>24104879.445906501</v>
+            <v>24103604.348313201</v>
           </cell>
           <cell r="D510">
-            <v>31611332.279702399</v>
+            <v>31612210.736623</v>
           </cell>
           <cell r="E510">
-            <v>4932890.8877195697</v>
+            <v>4933155.09447945</v>
           </cell>
           <cell r="F510">
-            <v>1764263.1866723001</v>
+            <v>1764263.54623895</v>
           </cell>
           <cell r="G510">
-            <v>31986845.105540499</v>
+            <v>31986845.101430401</v>
           </cell>
           <cell r="H510">
-            <v>23779896.585177001</v>
+            <v>23779896.593358099</v>
           </cell>
           <cell r="I510">
-            <v>6646624.1092834296</v>
+            <v>6646492.0308661098</v>
           </cell>
         </row>
         <row r="511">
@@ -1053,10 +1053,10 @@
             <v>11135.7406014689</v>
           </cell>
           <cell r="D511">
-            <v>7595977.0701070698</v>
+            <v>7595977.0701070502</v>
           </cell>
           <cell r="E511">
-            <v>917890.22436719202</v>
+            <v>917890.22436719097</v>
           </cell>
           <cell r="F511">
             <v>684776.37315257394</v>
@@ -1065,7 +1065,7 @@
             <v>3759692.36293749</v>
           </cell>
           <cell r="H511">
-            <v>3885055.5792032699</v>
+            <v>3885055.5792032601</v>
           </cell>
           <cell r="I511">
             <v>1565031.4660875199</v>
@@ -1073,33 +1073,33 @@
         </row>
         <row r="516">
           <cell r="B516">
-            <v>5346591.5287048398</v>
+            <v>5346458.6791076502</v>
           </cell>
           <cell r="C516">
-            <v>1054770.9976613901</v>
+            <v>1054734.2634010899</v>
           </cell>
           <cell r="D516">
-            <v>3533576.9180950401</v>
+            <v>3533492.3126386502</v>
           </cell>
           <cell r="E516">
-            <v>637641.81908801198</v>
+            <v>637630.84603425895</v>
           </cell>
           <cell r="F516">
-            <v>120601.79386038599</v>
+            <v>120601.257033644</v>
           </cell>
           <cell r="G516">
-            <v>2621863.07579407</v>
+            <v>2621863.0757940598</v>
           </cell>
           <cell r="H516">
             <v>1976826.4544802899</v>
           </cell>
           <cell r="I516">
-            <v>747901.99843046197</v>
+            <v>747769.14883329906</v>
           </cell>
         </row>
         <row r="563">
           <cell r="B563">
-            <v>937505.87795543496</v>
+            <v>937505.87795543601</v>
           </cell>
           <cell r="C563">
             <v>0</v>
@@ -1108,7 +1108,7 @@
             <v>0</v>
           </cell>
           <cell r="E563">
-            <v>937505.87795543496</v>
+            <v>937505.87795543601</v>
           </cell>
           <cell r="F563">
             <v>0</v>
@@ -1125,16 +1125,16 @@
         </row>
         <row r="564">
           <cell r="B564">
-            <v>1791044.33624467</v>
+            <v>1791044.33624468</v>
           </cell>
           <cell r="C564">
             <v>587557.87633946899</v>
           </cell>
           <cell r="D564">
-            <v>845245.01221639803</v>
+            <v>845245.01221640303</v>
           </cell>
           <cell r="E564">
-            <v>181935.03635617101</v>
+            <v>181935.036356172</v>
           </cell>
           <cell r="F564">
             <v>176306.41133263501</v>
@@ -1151,7 +1151,7 @@
         </row>
         <row r="565">
           <cell r="B565">
-            <v>59286510.499086604</v>
+            <v>59286510.499086797</v>
           </cell>
           <cell r="C565">
             <v>19991299.900900301</v>
@@ -1169,24 +1169,24 @@
             <v>26055225.100767899</v>
           </cell>
           <cell r="H565">
-            <v>25448506.615958098</v>
+            <v>25448506.615958001</v>
           </cell>
           <cell r="I565">
-            <v>7782778.7823608201</v>
+            <v>7782778.7823607903</v>
           </cell>
         </row>
         <row r="567">
           <cell r="B567">
-            <v>51329034.525149599</v>
+            <v>51329034.525149703</v>
           </cell>
           <cell r="C567">
-            <v>61818.414956391403</v>
+            <v>61818.414956391498</v>
           </cell>
           <cell r="D567">
             <v>40264227.078664899</v>
           </cell>
           <cell r="E567">
-            <v>5080877.6947905403</v>
+            <v>5080877.6947905496</v>
           </cell>
           <cell r="F567">
             <v>5922111.33673786</v>
@@ -1198,7 +1198,7 @@
             <v>21850702.581558902</v>
           </cell>
           <cell r="I567">
-            <v>9304378.2858479694</v>
+            <v>9304378.28584796</v>
           </cell>
         </row>
         <row r="568">
@@ -1212,42 +1212,42 @@
             <v>42355701.674271099</v>
           </cell>
           <cell r="E568">
-            <v>4757787.75575341</v>
+            <v>4757787.7557534203</v>
           </cell>
           <cell r="F568">
-            <v>5668655.6520302603</v>
+            <v>5668655.6520302696</v>
           </cell>
           <cell r="G568">
-            <v>20804964.8796748</v>
+            <v>20804964.8796749</v>
           </cell>
           <cell r="H568">
-            <v>22696968.061508</v>
+            <v>22696968.061507899</v>
           </cell>
           <cell r="I568">
-            <v>9355005.7596290708</v>
+            <v>9355005.7596290801</v>
           </cell>
         </row>
         <row r="570">
           <cell r="B570">
-            <v>11046835.138506699</v>
+            <v>11046835.138508599</v>
           </cell>
           <cell r="C570">
-            <v>3603521.5804590001</v>
+            <v>3603521.5804590401</v>
           </cell>
           <cell r="D570">
-            <v>6115331.5482555199</v>
+            <v>6115331.5482547302</v>
           </cell>
           <cell r="E570">
-            <v>1001532.50685008</v>
+            <v>1001532.50685009</v>
           </cell>
           <cell r="F570">
-            <v>326449.502944746</v>
+            <v>326449.50294474699</v>
           </cell>
           <cell r="G570">
-            <v>4288079.5164293498</v>
+            <v>4288079.5164297903</v>
           </cell>
           <cell r="H570">
-            <v>4760604.2632643804</v>
+            <v>4760604.26326463</v>
           </cell>
           <cell r="I570">
             <v>1998151.3588141799</v>
@@ -1255,25 +1255,25 @@
         </row>
         <row r="571">
           <cell r="B571">
-            <v>34510539.841249198</v>
+            <v>34510539.841250598</v>
           </cell>
           <cell r="C571">
-            <v>12332886.626736199</v>
+            <v>12332886.626736101</v>
           </cell>
           <cell r="D571">
-            <v>19115776.2514771</v>
+            <v>19115776.251477301</v>
           </cell>
           <cell r="E571">
-            <v>2557153.1809157198</v>
+            <v>2557153.1809157101</v>
           </cell>
           <cell r="F571">
             <v>504723.78212143498</v>
           </cell>
           <cell r="G571">
-            <v>21019102.243966501</v>
+            <v>21019102.243966799</v>
           </cell>
           <cell r="H571">
-            <v>13491437.5972837</v>
+            <v>13491437.597283799</v>
           </cell>
           <cell r="I571">
             <v>0</v>
@@ -1281,13 +1281,13 @@
         </row>
         <row r="572">
           <cell r="B572">
-            <v>1830940.70606851</v>
+            <v>1830940.70606854</v>
           </cell>
           <cell r="C572">
-            <v>600646.00925331295</v>
+            <v>600646.00925331505</v>
           </cell>
           <cell r="D572">
-            <v>864073.24941675505</v>
+            <v>864073.249416754</v>
           </cell>
           <cell r="E572">
             <v>185987.72636919699</v>
@@ -1302,7 +1302,7 @@
             <v>0</v>
           </cell>
           <cell r="I572">
-            <v>1830940.70606851</v>
+            <v>1830940.70606854</v>
           </cell>
         </row>
         <row r="573">
@@ -1310,22 +1310,22 @@
             <v>1491142.51829774</v>
           </cell>
           <cell r="C573">
-            <v>519762.72756717203</v>
+            <v>519762.727567175</v>
           </cell>
           <cell r="D573">
-            <v>802560.40514841501</v>
+            <v>802560.40514841897</v>
           </cell>
           <cell r="E573">
             <v>126090.49934839099</v>
           </cell>
           <cell r="F573">
-            <v>42728.8862337596</v>
+            <v>42728.886233759702</v>
           </cell>
           <cell r="G573">
-            <v>610849.89541761996</v>
+            <v>610849.89541762602</v>
           </cell>
           <cell r="H573">
-            <v>671979.41900601995</v>
+            <v>671979.41900602495</v>
           </cell>
           <cell r="I573">
             <v>208313.203874094</v>
@@ -1333,13 +1333,13 @@
         </row>
         <row r="575">
           <cell r="B575">
-            <v>1917183.2378113901</v>
+            <v>1917183.2378113801</v>
           </cell>
           <cell r="C575">
-            <v>668266.36401493999</v>
+            <v>668266.36401493906</v>
           </cell>
           <cell r="D575">
-            <v>1031863.37804797</v>
+            <v>1031863.37804796</v>
           </cell>
           <cell r="E575">
             <v>162116.356305074</v>
@@ -1348,10 +1348,10 @@
             <v>54937.1394434053</v>
           </cell>
           <cell r="G575">
-            <v>785378.43696552597</v>
+            <v>785378.43696551898</v>
           </cell>
           <cell r="H575">
-            <v>863973.53872204002</v>
+            <v>863973.53872203198</v>
           </cell>
           <cell r="I575">
             <v>267831.26212383498</v>
@@ -1359,10 +1359,10 @@
         </row>
         <row r="576">
           <cell r="B576">
-            <v>1988190.02439701</v>
+            <v>1988190.02439699</v>
           </cell>
           <cell r="C576">
-            <v>693016.97008956806</v>
+            <v>693016.97008956596</v>
           </cell>
           <cell r="D576">
             <v>1070080.54019789</v>
@@ -1371,13 +1371,13 @@
             <v>168120.66579785501</v>
           </cell>
           <cell r="F576">
-            <v>56971.8483116797</v>
+            <v>56971.848311679598</v>
           </cell>
           <cell r="G576">
-            <v>814466.52722349297</v>
+            <v>814466.52722350101</v>
           </cell>
           <cell r="H576">
-            <v>895972.55867470102</v>
+            <v>895972.55867469998</v>
           </cell>
           <cell r="I576">
             <v>277750.93849879201</v>
@@ -1385,54 +1385,54 @@
         </row>
         <row r="577">
           <cell r="B577">
-            <v>1288516.5519838701</v>
+            <v>1288551.3354963199</v>
           </cell>
           <cell r="C577">
-            <v>161267.54491599501</v>
+            <v>161277.163018272</v>
           </cell>
           <cell r="D577">
-            <v>903242.51169260696</v>
+            <v>903265.11430619995</v>
           </cell>
           <cell r="E577">
-            <v>127542.579489678</v>
+            <v>127544.930659064</v>
           </cell>
           <cell r="F577">
-            <v>96463.915885605806</v>
+            <v>96464.127512790903</v>
           </cell>
           <cell r="G577">
-            <v>524541.63666947896</v>
+            <v>524541.63563093997</v>
           </cell>
           <cell r="H577">
             <v>549819.89849683503</v>
           </cell>
           <cell r="I577">
-            <v>214155.016817578</v>
+            <v>214189.80136855299</v>
           </cell>
         </row>
         <row r="578">
           <cell r="B578">
-            <v>7106398.47013258</v>
+            <v>7106398.47013319</v>
           </cell>
           <cell r="C578">
-            <v>1962787.7482805999</v>
+            <v>1962787.74828065</v>
           </cell>
           <cell r="D578">
-            <v>4331941.7265643096</v>
+            <v>4331941.7265646104</v>
           </cell>
           <cell r="E578">
-            <v>642373.59257190698</v>
+            <v>642373.59257189895</v>
           </cell>
           <cell r="F578">
-            <v>169295.40271602201</v>
+            <v>169295.40271601899</v>
           </cell>
           <cell r="G578">
-            <v>2967148.3700953699</v>
+            <v>2967148.3700955501</v>
           </cell>
           <cell r="H578">
-            <v>3185240.4424031102</v>
+            <v>3185240.44240331</v>
           </cell>
           <cell r="I578">
-            <v>954009.65763433604</v>
+            <v>954009.65763431997</v>
           </cell>
         </row>
       </sheetData>
@@ -1790,15 +1790,15 @@
       </c>
       <c r="G2" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$2,0,0)</f>
-        <v>1374.4339820872401</v>
+        <v>1374.4339820872499</v>
       </c>
       <c r="H2" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$2,0,0)</f>
-        <v>907476.94869734405</v>
+        <v>907476.94869734102</v>
       </c>
       <c r="I2" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$2,0,0)</f>
-        <v>99128.936695533601</v>
+        <v>99128.936695533805</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$2,0,0)</f>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K2" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$2,0,0)</f>
-        <v>558531.73753161705</v>
+        <v>558531.73753161903</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$2,0,0)</f>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="J3" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$9,0,0)</f>
-        <v>832857.87819109403</v>
+        <v>832857.87819109298</v>
       </c>
       <c r="K3" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$9,0,0)</f>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="F4" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$18,0,0)</f>
-        <v>3301541.1447767601</v>
+        <v>3301541.1447767499</v>
       </c>
       <c r="G4" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$18,0,0)</f>
@@ -1904,11 +1904,11 @@
       </c>
       <c r="J4" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$18,0,0)</f>
-        <v>480481.48427198798</v>
+        <v>480481.48427198699</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$18,0,0)</f>
-        <v>1368969.0401167001</v>
+        <v>1368969.0401167099</v>
       </c>
       <c r="L4" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$18,0,0)</f>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="M4" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$18,0,0)</f>
-        <v>601694.08262892696</v>
+        <v>601694.08262892801</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="L5" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$22,0,0)</f>
-        <v>711758.20052894903</v>
+        <v>711758.20052894601</v>
       </c>
       <c r="M5" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$22,0,0)</f>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="M6" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$4,0,0)</f>
-        <v>984942.18240609404</v>
+        <v>984942.18240609497</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F7" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$11,0,0)</f>
-        <v>24783272.588095501</v>
+        <v>24783272.588095602</v>
       </c>
       <c r="G7" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,0,0)</f>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="J7" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$11,0,0)</f>
-        <v>3153189.3981957398</v>
+        <v>3153189.3981957301</v>
       </c>
       <c r="K7" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$11,0,0)</f>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H8" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$6,0,0)</f>
-        <v>16088252.1259064</v>
+        <v>16088252.1259063</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$6,0,0)</f>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="J8" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$6,0,0)</f>
-        <v>2312578.0752032702</v>
+        <v>2312578.07520328</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$6,0,0)</f>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="L8" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,0,0)</f>
-        <v>8639446.8270302992</v>
+        <v>8639446.8270302806</v>
       </c>
       <c r="M8" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,0,0)</f>
@@ -2147,15 +2147,15 @@
       </c>
       <c r="G9" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$48,0,0)</f>
-        <v>703.00923433927301</v>
+        <v>703.00923433927403</v>
       </c>
       <c r="H9" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$48,0,0)</f>
-        <v>623362.47335526301</v>
+        <v>623362.47335526405</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$48,0,0)</f>
-        <v>75436.817791361595</v>
+        <v>75436.817791361507</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$48,0,0)</f>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="K9" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$48,0,0)</f>
-        <v>317694.75002746901</v>
+        <v>317694.75002746802</v>
       </c>
       <c r="L9" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,0,0)</f>
-        <v>338575.28263011097</v>
+        <v>338575.28263010998</v>
       </c>
       <c r="M9" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$48,0,0)</f>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="F10" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$8,0,0)</f>
-        <v>6028631.5152129401</v>
+        <v>6028631.5152129503</v>
       </c>
       <c r="G10" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$8,0,0)</f>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="H10" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$8,0,0)</f>
-        <v>4538998.4131356804</v>
+        <v>4538998.4131356701</v>
       </c>
       <c r="I10" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$8,0,0)</f>
-        <v>544229.61467117304</v>
+        <v>544229.61467117397</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$8,0,0)</f>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="K10" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$8,0,0)</f>
-        <v>2476530.7240433898</v>
+        <v>2476530.72404338</v>
       </c>
       <c r="L10" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$8,0,0)</f>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="F11" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$10,0,0)</f>
-        <v>1378103.14084356</v>
+        <v>1378103.14084357</v>
       </c>
       <c r="G11" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$10,0,0)</f>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="I11" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$10,0,0)</f>
-        <v>112265.27463339501</v>
+        <v>112265.274633394</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$10,0,0)</f>
@@ -2265,11 +2265,11 @@
       </c>
       <c r="K11" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$10,0,0)</f>
-        <v>625718.12139175995</v>
+        <v>625718.121391761</v>
       </c>
       <c r="L11" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$10,0,0)</f>
-        <v>580627.77287246694</v>
+        <v>580627.77287246799</v>
       </c>
       <c r="M11" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$10,0,0)</f>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="F12" s="1">
         <f ca="1">F3-F4</f>
-        <v>1348987.2295926097</v>
+        <v>1348987.2295926199</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ref="G12:M12" ca="1" si="0">G3-G4</f>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>352376.39391910605</v>
+        <v>352376.39391910599</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>481843.56253491994</v>
+        <v>481843.56253491016</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>347735.90913530404</v>
+        <v>347735.90913530299</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F13" s="1">
         <f ca="1">F4-F5</f>
-        <v>1528175.8966275901</v>
+        <v>1528175.8966275798</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13:M13" ca="1" si="1">G4-G5</f>
@@ -2363,19 +2363,19 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>286960.75517719198</v>
+        <v>286960.75517719099</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>562218.76628353714</v>
+        <v>562218.76628354692</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>619119.82150216098</v>
+        <v>619119.82150216401</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>346837.30884186795</v>
+        <v>346837.308841869</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$39,0,0)-OFFSET([1]aggregated_flows_energy!B$38,0,0)</f>
-        <v>5306804.4672198966</v>
+        <v>5306804.4672199972</v>
       </c>
       <c r="G14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$39,0,0)-OFFSET([1]aggregated_flows_energy!C$38,0,0)</f>
@@ -2406,11 +2406,11 @@
       </c>
       <c r="H14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$39,0,0)-OFFSET([1]aggregated_flows_energy!D$38,0,0)</f>
-        <v>4256481.2173070982</v>
+        <v>4256481.2173071988</v>
       </c>
       <c r="I14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$39,0,0)-OFFSET([1]aggregated_flows_energy!E$38,0,0)</f>
-        <v>604397.06586456997</v>
+        <v>604397.06586458022</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$39,0,0)-OFFSET([1]aggregated_flows_energy!F$38,0,0)</f>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="K14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$39,0,0)-OFFSET([1]aggregated_flows_energy!G$38,0,0)</f>
-        <v>2127774.0126235001</v>
+        <v>2127774.0126234014</v>
       </c>
       <c r="L14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$39,0,0)-OFFSET([1]aggregated_flows_energy!H$38,0,0)</f>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="M14" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$39,0,0)-OFFSET([1]aggregated_flows_energy!I$38,0,0)</f>
-        <v>838904.99519525934</v>
+        <v>838904.99519525003</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2457,11 +2457,11 @@
       </c>
       <c r="H15" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,0,0)</f>
-        <v>4256481.2173071997</v>
+        <v>4256481.2173071802</v>
       </c>
       <c r="I15" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$36,0,0)</f>
-        <v>604397.06586457603</v>
+        <v>604397.06586457498</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$36,0,0)</f>
@@ -2508,11 +2508,11 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4256481.2173071997</v>
+        <v>4256481.2173071802</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>604397.06586457603</v>
+        <v>604397.06586457498</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F17" s="1">
         <f ca="1">F14</f>
-        <v>5306804.4672198966</v>
+        <v>5306804.4672199972</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:M17" ca="1" si="3">G14</f>
@@ -2557,11 +2557,11 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4256481.2173070982</v>
+        <v>4256481.2173071988</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>604397.06586456997</v>
+        <v>604397.06586458022</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2127774.0126235001</v>
+        <v>2127774.0126234014</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>838904.99519525934</v>
+        <v>838904.99519525003</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,0,0)</f>
-        <v>611794.30000011995</v>
+        <v>611794.299999999</v>
       </c>
       <c r="G18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,0,0)</f>
@@ -2606,27 +2606,27 @@
       </c>
       <c r="H18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,0,0)</f>
-        <v>496350.30000007403</v>
+        <v>496350.299999999</v>
       </c>
       <c r="I18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,0,0)</f>
-        <v>68795.200000000797</v>
+        <v>68795.199999999997</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,0,0)</f>
-        <v>44881.8000000006</v>
+        <v>44881.799999999901</v>
       </c>
       <c r="K18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,0,0)</f>
-        <v>249677.09999998199</v>
+        <v>249677.09999999899</v>
       </c>
       <c r="L18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,0,0)</f>
-        <v>268819.59999998403</v>
+        <v>268819.59999999998</v>
       </c>
       <c r="M18" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,0,0)</f>
-        <v>93297.599999998303</v>
+        <v>93297.599999999904</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="K19" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$35,0,0)</f>
-        <v>9613780.9673187993</v>
+        <v>9613780.96731879</v>
       </c>
       <c r="L19" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$35,0,0)</f>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="G20" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$33,0,0)</f>
-        <v>87583.740924113401</v>
+        <v>87583.740924113503</v>
       </c>
       <c r="H20" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$33,0,0)</f>
@@ -2708,19 +2708,19 @@
       </c>
       <c r="I20" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$33,0,0)</f>
-        <v>5887092.7987737097</v>
+        <v>5887092.7987737199</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$33,0,0)</f>
-        <v>6826425.6934871897</v>
+        <v>6826425.6934872</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$33,0,0)</f>
-        <v>22668463.619424202</v>
+        <v>22668463.619424101</v>
       </c>
       <c r="L20" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$33,0,0)</f>
-        <v>24720275.277158901</v>
+        <v>24720275.277159002</v>
       </c>
       <c r="M20" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$33,0,0)</f>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F21" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$32,0,0)</f>
-        <v>251171.87040172401</v>
+        <v>251171.87040172299</v>
       </c>
       <c r="G21" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$32,0,0)</f>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="K21" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$32,0,0)</f>
-        <v>104406.895504174</v>
+        <v>104406.895504175</v>
       </c>
       <c r="L21" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$32,0,0)</f>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$2,47,0)</f>
-        <v>1191410.81825039</v>
+        <v>1191410.8182504</v>
       </c>
       <c r="G22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$2,47,0)</f>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="H22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$2,47,0)</f>
-        <v>993523.82194763899</v>
+        <v>993523.821947644</v>
       </c>
       <c r="I22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$2,47,0)</f>
@@ -2810,15 +2810,15 @@
       </c>
       <c r="J22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$2,47,0)</f>
-        <v>91691.232922106996</v>
+        <v>91691.232922106894</v>
       </c>
       <c r="K22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$2,47,0)</f>
-        <v>601811.28116842196</v>
+        <v>601811.28116842394</v>
       </c>
       <c r="L22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$2,47,0)</f>
-        <v>437832.42876531399</v>
+        <v>437832.42876531498</v>
       </c>
       <c r="M22" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$2,47,0)</f>
@@ -2859,11 +2859,11 @@
       </c>
       <c r="J23" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$9,47,0)</f>
-        <v>762994.32813079399</v>
+        <v>762994.32813079504</v>
       </c>
       <c r="K23" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$9,47,0)</f>
-        <v>1894591.37515973</v>
+        <v>1894591.37515972</v>
       </c>
       <c r="L23" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$9,47,0)</f>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="M23" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$9,47,0)</f>
-        <v>971862.77981648396</v>
+        <v>971862.77981648303</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="F24" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$18,47,0)</f>
-        <v>3552090.5876380499</v>
+        <v>3552090.5876380298</v>
       </c>
       <c r="G24" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$18,47,0)</f>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="H24" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$18,47,0)</f>
-        <v>2780919.5147918402</v>
+        <v>2780919.51479183</v>
       </c>
       <c r="I24" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$18,47,0)</f>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="M24" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$18,47,0)</f>
-        <v>634589.90388133901</v>
+        <v>634589.90388133796</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F25" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$22,47,0)</f>
-        <v>1859141.3061241701</v>
+        <v>1859141.3061241801</v>
       </c>
       <c r="G25" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$22,47,0)</f>
@@ -2961,11 +2961,11 @@
       </c>
       <c r="K25" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$22,47,0)</f>
-        <v>860522.34656157403</v>
+        <v>860522.34656157496</v>
       </c>
       <c r="L25" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$22,47,0)</f>
-        <v>740498.92672109499</v>
+        <v>740498.92672109394</v>
       </c>
       <c r="M25" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$22,47,0)</f>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="F26" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$4,47,0)</f>
-        <v>5046302.1311542504</v>
+        <v>5046302.1311542597</v>
       </c>
       <c r="G26" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$4,47,0)</f>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H26" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$4,47,0)</f>
-        <v>3806569.4268213999</v>
+        <v>3806569.4268213902</v>
       </c>
       <c r="I26" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$4,47,0)</f>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="L26" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$4,47,0)</f>
-        <v>2073926.24330697</v>
+        <v>2073926.24330696</v>
       </c>
       <c r="M26" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$4,47,0)</f>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="F27" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$11,47,0)</f>
-        <v>27419905.148655701</v>
+        <v>27419905.148655798</v>
       </c>
       <c r="G27" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,47,0)</f>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H27" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$11,47,0)</f>
-        <v>21810711.655598801</v>
+        <v>21810711.655598901</v>
       </c>
       <c r="I27" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$11,47,0)</f>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="M27" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$11,47,0)</f>
-        <v>4903542.43653112</v>
+        <v>4903542.4365311302</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H28" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$6,47,0)</f>
-        <v>18501928.421691399</v>
+        <v>18501928.4216915</v>
       </c>
       <c r="I28" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$6,47,0)</f>
@@ -3104,15 +3104,15 @@
       </c>
       <c r="J28" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$6,47,0)</f>
-        <v>2267839.2779133702</v>
+        <v>2267839.2779133599</v>
       </c>
       <c r="K28" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$6,47,0)</f>
-        <v>9306114.3385419194</v>
+        <v>9306114.3385419305</v>
       </c>
       <c r="L28" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,47,0)</f>
-        <v>9698841.3254856803</v>
+        <v>9698841.3254856691</v>
       </c>
       <c r="M28" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,47,0)</f>
@@ -3137,11 +3137,11 @@
       </c>
       <c r="F29" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$48,47,0)</f>
-        <v>867026.01754410495</v>
+        <v>867026.017544106</v>
       </c>
       <c r="G29" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$48,47,0)</f>
-        <v>568.607999919348</v>
+        <v>568.60799991934505</v>
       </c>
       <c r="H29" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$48,47,0)</f>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="J29" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$48,47,0)</f>
-        <v>97555.087083119302</v>
+        <v>97555.087083119201</v>
       </c>
       <c r="K29" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$48,47,0)</f>
-        <v>345291.29756494699</v>
+        <v>345291.29756494798</v>
       </c>
       <c r="L29" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,47,0)</f>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="M29" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$48,47,0)</f>
-        <v>155559.631112765</v>
+        <v>155559.63111276599</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="F30" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$8,47,0)</f>
-        <v>6237712.9494046997</v>
+        <v>6237712.9494046597</v>
       </c>
       <c r="G30" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$8,47,0)</f>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="H30" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$8,47,0)</f>
-        <v>4800093.2487690402</v>
+        <v>4800093.24876903</v>
       </c>
       <c r="I30" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$8,47,0)</f>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="L30" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$8,47,0)</f>
-        <v>2511758.67207227</v>
+        <v>2511758.6720722802</v>
       </c>
       <c r="M30" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$8,47,0)</f>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="F31" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$10,47,0)</f>
-        <v>1475994.16649358</v>
+        <v>1475994.16649357</v>
       </c>
       <c r="G31" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$10,47,0)</f>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="L31" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$10,47,0)</f>
-        <v>616494.04413740197</v>
+        <v>616494.04413740395</v>
       </c>
       <c r="M31" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$10,47,0)</f>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="F32" s="1">
         <f ca="1">F23-F24</f>
-        <v>1209628.1952730403</v>
+        <v>1209628.1952730604</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" ref="G32:M32" ca="1" si="4">G23-G24</f>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>780253.9612714299</v>
+        <v>780253.96127144014</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -3300,11 +3300,11 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>312322.78413908998</v>
+        <v>312322.78413909103</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>415886.07144496986</v>
+        <v>415886.07144495985</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>337272.87593514496</v>
+        <v>337272.87593514507</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F33" s="1">
         <f ca="1">F24-F25</f>
-        <v>1692949.2815138798</v>
+        <v>1692949.2815138497</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" ref="G33:M33" ca="1" si="5">G24-G25</f>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1274331.4590181003</v>
+        <v>1274331.45901809</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -3353,15 +3353,15 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>618182.95715318609</v>
+        <v>618182.95715318515</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>698296.4533208349</v>
+        <v>698296.45332083595</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>376469.87103982305</v>
+        <v>376469.871039822</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -3386,11 +3386,11 @@
       </c>
       <c r="G34" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$39,47,0)-OFFSET([1]aggregated_flows_energy!C$38,47,0)</f>
-        <v>13089.096464215196</v>
+        <v>13089.096464215108</v>
       </c>
       <c r="H34" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$39,47,0)-OFFSET([1]aggregated_flows_energy!D$38,47,0)</f>
-        <v>5063950.3581985012</v>
+        <v>5063950.3581986986</v>
       </c>
       <c r="I34" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$39,47,0)-OFFSET([1]aggregated_flows_energy!E$38,47,0)</f>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="J34" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$39,47,0)-OFFSET([1]aggregated_flows_energy!F$38,47,0)</f>
-        <v>423055.19830386993</v>
+        <v>423055.19830388017</v>
       </c>
       <c r="K34" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$39,47,0)-OFFSET([1]aggregated_flows_energy!G$38,47,0)</f>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H35" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,47,0)</f>
-        <v>5063950.3581986204</v>
+        <v>5063950.3581986399</v>
       </c>
       <c r="I35" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$36,47,0)</f>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="K35" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$36,47,0)</f>
-        <v>2518950.7816809402</v>
+        <v>2518950.7816809299</v>
       </c>
       <c r="L35" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$36,47,0)</f>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="M35" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$36,47,0)</f>
-        <v>949200.398008905</v>
+        <v>949200.39800890698</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5063950.3581986204</v>
+        <v>5063950.3581986399</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2518950.7816809402</v>
+        <v>2518950.7816809299</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>949200.398008905</v>
+        <v>949200.39800890698</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -3533,11 +3533,11 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" ref="G37:M37" ca="1" si="7">G34</f>
-        <v>13089.096464215196</v>
+        <v>13089.096464215108</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5063950.3581985012</v>
+        <v>5063950.3581986986</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>423055.19830386993</v>
+        <v>423055.19830388017</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="F38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,47,0)</f>
-        <v>663567.40000013995</v>
+        <v>663567.39999999898</v>
       </c>
       <c r="G38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,47,0)</f>
@@ -3586,27 +3586,27 @@
       </c>
       <c r="H38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,47,0)</f>
-        <v>546356.40000009397</v>
+        <v>546356.39999999898</v>
       </c>
       <c r="I38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,47,0)</f>
-        <v>72093.600000000399</v>
+        <v>72093.599999999904</v>
       </c>
       <c r="J38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,47,0)</f>
-        <v>43762.700000000601</v>
+        <v>43762.7</v>
       </c>
       <c r="K38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,47,0)</f>
-        <v>270174.29999998398</v>
+        <v>270174.3</v>
       </c>
       <c r="L38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,47,0)</f>
-        <v>290671.49999999302</v>
+        <v>290671.5</v>
       </c>
       <c r="M38" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,47,0)</f>
-        <v>102721.59999999699</v>
+        <v>102721.599999999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5842040.1004218999</v>
+        <v>5842040.1004220005</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -3643,19 +3643,19 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>531738.19779441017</v>
+        <v>531738.19779439992</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2867679.7464139489</v>
+        <v>2867679.7464139704</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3002009.9963461002</v>
+        <v>3002009.9963460891</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1221370.8403994199</v>
+        <v>1221370.8403994101</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="K40" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$97,0,0)</f>
-        <v>6438434.5921279704</v>
+        <v>6438434.5921279602</v>
       </c>
       <c r="L40" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$97,0,0)</f>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="M40" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$97,0,0)</f>
-        <v>2699471.4602672802</v>
+        <v>2699471.46026729</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="L41" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$35,47,0)</f>
-        <v>12013465.321300499</v>
+        <v>12013465.3213004</v>
       </c>
       <c r="M41" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$35,47,0)</f>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="F42" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$33,47,0)</f>
-        <v>65588315.344595402</v>
+        <v>65588315.344595604</v>
       </c>
       <c r="G42" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$33,47,0)</f>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="H42" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$33,47,0)</f>
-        <v>52429034.290080197</v>
+        <v>52429034.2900801</v>
       </c>
       <c r="I42" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$33,47,0)</f>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="L42" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$33,47,0)</f>
-        <v>28029435.270266701</v>
+        <v>28029435.2702666</v>
       </c>
       <c r="M42" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$33,47,0)</f>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F43" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$32,47,0)</f>
-        <v>282158.94213379797</v>
+        <v>282158.94213379599</v>
       </c>
       <c r="G43" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$32,47,0)</f>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H43" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$32,47,0)</f>
-        <v>227612.696603588</v>
+        <v>227612.69660358701</v>
       </c>
       <c r="I43" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$32,47,0)</f>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="M43" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$32,47,0)</f>
-        <v>44659.103042590097</v>
+        <v>44659.103042590003</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="F44" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$2,98,0)</f>
-        <v>1171699.6334274099</v>
+        <v>1171699.6334273999</v>
       </c>
       <c r="G44" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$2,98,0)</f>
@@ -3884,19 +3884,19 @@
       </c>
       <c r="I44" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$2,98,0)</f>
-        <v>93116.375806182303</v>
+        <v>93116.375806182405</v>
       </c>
       <c r="J44" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$2,98,0)</f>
-        <v>88327.033934692605</v>
+        <v>88327.033934692503</v>
       </c>
       <c r="K44" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$2,98,0)</f>
-        <v>592660.01367752103</v>
+        <v>592660.01367751998</v>
       </c>
       <c r="L44" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$2,98,0)</f>
-        <v>430192.458762297</v>
+        <v>430192.45876229601</v>
       </c>
       <c r="M44" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$2,98,0)</f>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="J45" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$9,98,0)</f>
-        <v>808039.68817404099</v>
+        <v>808039.68817403901</v>
       </c>
       <c r="K45" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$9,98,0)</f>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="F46" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$18,98,0)</f>
-        <v>3605943.24530432</v>
+        <v>3605943.2453043102</v>
       </c>
       <c r="G46" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$18,98,0)</f>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="H46" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$18,98,0)</f>
-        <v>2842687.3310818002</v>
+        <v>2842687.3310817899</v>
       </c>
       <c r="I46" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$18,98,0)</f>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="J46" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$18,98,0)</f>
-        <v>475432.37540944701</v>
+        <v>475432.37540944602</v>
       </c>
       <c r="K46" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$18,98,0)</f>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="M46" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$18,98,0)</f>
-        <v>669682.78556602402</v>
+        <v>669682.78556602297</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="F47" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$22,98,0)</f>
-        <v>1925202.17973456</v>
+        <v>1925202.17973457</v>
       </c>
       <c r="G47" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$22,98,0)</f>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="H47" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$22,98,0)</f>
-        <v>1572807.37384498</v>
+        <v>1572807.37384499</v>
       </c>
       <c r="I47" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$22,98,0)</f>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="F48" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$4,98,0)</f>
-        <v>5142551.4881852502</v>
+        <v>5142551.48818524</v>
       </c>
       <c r="G48" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$4,98,0)</f>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="F49" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$11,98,0)</f>
-        <v>26501664.746843599</v>
+        <v>26501664.746843699</v>
       </c>
       <c r="G49" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,98,0)</f>
@@ -4141,11 +4141,11 @@
       </c>
       <c r="L49" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$11,98,0)</f>
-        <v>11168729.809451601</v>
+        <v>11168729.809451699</v>
       </c>
       <c r="M49" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$11,98,0)</f>
-        <v>4680926.3506634301</v>
+        <v>4680926.3506634198</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F50" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$6,98,0)</f>
-        <v>21843432.0492207</v>
+        <v>21843432.049220599</v>
       </c>
       <c r="G50" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$6,98,0)</f>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="L50" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,98,0)</f>
-        <v>9141399.5962735992</v>
+        <v>9141399.5962736104</v>
       </c>
       <c r="M50" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,98,0)</f>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="F51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$48,98,0)</f>
-        <v>862226.62967044604</v>
+        <v>862226.62967044895</v>
       </c>
       <c r="G51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$48,98,0)</f>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="H51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$48,98,0)</f>
-        <v>700258.20815725299</v>
+        <v>700258.20815725497</v>
       </c>
       <c r="I51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$48,98,0)</f>
@@ -4231,15 +4231,15 @@
       </c>
       <c r="J51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$48,98,0)</f>
-        <v>91631.825578481701</v>
+        <v>91631.825578481803</v>
       </c>
       <c r="K51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$48,98,0)</f>
-        <v>331890.66403314401</v>
+        <v>331890.664033145</v>
       </c>
       <c r="L51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,98,0)</f>
-        <v>377239.455148115</v>
+        <v>377239.45514811599</v>
       </c>
       <c r="M51" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$48,98,0)</f>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="F52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$8,98,0)</f>
-        <v>6314251.1216126597</v>
+        <v>6314251.1216126503</v>
       </c>
       <c r="G52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$8,98,0)</f>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="H52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$8,98,0)</f>
-        <v>4948941.8800470904</v>
+        <v>4948941.8800470801</v>
       </c>
       <c r="I52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$8,98,0)</f>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="J52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$8,98,0)</f>
-        <v>884191.85240620095</v>
+        <v>884191.852406202</v>
       </c>
       <c r="K52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$8,98,0)</f>
@@ -4288,11 +4288,11 @@
       </c>
       <c r="L52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$8,98,0)</f>
-        <v>2722078.6950649298</v>
+        <v>2722078.69506494</v>
       </c>
       <c r="M52" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$8,98,0)</f>
-        <v>1236238.3914667</v>
+        <v>1236238.39146669</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="K53" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$10,98,0)</f>
-        <v>546156.96193034796</v>
+        <v>546156.96193034702</v>
       </c>
       <c r="L53" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$10,98,0)</f>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="F54" s="1">
         <f ca="1">F45-F46</f>
-        <v>1324325.3257013699</v>
+        <v>1324325.3257013797</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" ref="G54:M54" ca="1" si="9">G45-G46</f>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>890402.72878594976</v>
+        <v>890402.72878596</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>332607.31276459398</v>
+        <v>332607.31276459299</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>379118.84506569593</v>
+        <v>379118.84506569698</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="F55" s="1">
         <f ca="1">F46-F47</f>
-        <v>1680741.06556976</v>
+        <v>1680741.0655697403</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" ref="G55:M55" ca="1" si="10">G46-G47</f>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1269879.9572368201</v>
+        <v>1269879.9572367999</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>287562.77511983097</v>
+        <v>287562.77511983004</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>386193.50711396703</v>
+        <v>386193.50711396598</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="F56" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$39,98,0)-OFFSET([1]aggregated_flows_energy!B$38,98,0)</f>
-        <v>7106703.065888904</v>
+        <v>7106703.065888606</v>
       </c>
       <c r="G56" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$39,98,0)-OFFSET([1]aggregated_flows_energy!C$38,98,0)</f>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H56" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$39,98,0)-OFFSET([1]aggregated_flows_energy!D$38,98,0)</f>
-        <v>5839212.7334630005</v>
+        <v>5839212.7334628999</v>
       </c>
       <c r="I56" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$39,98,0)-OFFSET([1]aggregated_flows_energy!E$38,98,0)</f>
@@ -4517,15 +4517,15 @@
       </c>
       <c r="H57" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,98,0)</f>
-        <v>5839212.73346298</v>
+        <v>5839212.7334629698</v>
       </c>
       <c r="I57" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$36,98,0)</f>
-        <v>746976.04294826998</v>
+        <v>746976.04294826905</v>
       </c>
       <c r="J57" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$36,98,0)</f>
-        <v>499142.02692437201</v>
+        <v>499142.026924373</v>
       </c>
       <c r="K57" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$36,98,0)</f>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="L57" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$36,98,0)</f>
-        <v>3138564.54887971</v>
+        <v>3138564.5488797198</v>
       </c>
       <c r="M57" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$36,98,0)</f>
@@ -4566,15 +4566,15 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5839212.73346298</v>
+        <v>5839212.7334629698</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>746976.04294826998</v>
+        <v>746976.04294826905</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>499142.02692437201</v>
+        <v>499142.026924373</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3138564.54887971</v>
+        <v>3138564.5488797198</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F59" s="1">
         <f ca="1">F56</f>
-        <v>7106703.065888904</v>
+        <v>7106703.065888606</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" ref="G59:M59" ca="1" si="12">G56</f>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5839212.7334630005</v>
+        <v>5839212.7334628999</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="F60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,98,0)</f>
-        <v>685065.90000014799</v>
+        <v>685065.9</v>
       </c>
       <c r="G60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,98,0)</f>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="H60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,98,0)</f>
-        <v>569916.40000010305</v>
+        <v>569916.39999999898</v>
       </c>
       <c r="I60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,98,0)</f>
-        <v>70974.500000000597</v>
+        <v>70974.5</v>
       </c>
       <c r="J60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,98,0)</f>
-        <v>42172.400000000503</v>
+        <v>42172.3999999999</v>
       </c>
       <c r="K60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,98,0)</f>
-        <v>279892.799999988</v>
+        <v>279892.8</v>
       </c>
       <c r="L60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,98,0)</f>
-        <v>301744.69999999698</v>
+        <v>301744.69999999902</v>
       </c>
       <c r="M60" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,98,0)</f>
-        <v>103428.399999997</v>
+        <v>103428.4</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="F61" s="1">
         <f ca="1">F50-F62</f>
-        <v>6320690.2286171</v>
+        <v>6320690.2286169995</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" ref="G61:M61" ca="1" si="13">G50-G62</f>
@@ -4729,11 +4729,11 @@
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2436559.3042536089</v>
+        <v>2436559.3042536108</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>941683.07626972999</v>
+        <v>941683.07626973977</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="L62" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$97,51,0)</f>
-        <v>6704840.2920199903</v>
+        <v>6704840.2920199996</v>
       </c>
       <c r="M62" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$97,51,0)</f>
-        <v>2683243.6113900398</v>
+        <v>2683243.61139003</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="F63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$35,98,0)</f>
-        <v>28718888.443801198</v>
+        <v>28718888.443801101</v>
       </c>
       <c r="G63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$35,98,0)</f>
-        <v>43476.859558140699</v>
+        <v>43476.859558140801</v>
       </c>
       <c r="H63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$35,98,0)</f>
-        <v>23130589.945955001</v>
+        <v>23130589.9459549</v>
       </c>
       <c r="I63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$35,98,0)</f>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="J63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$35,98,0)</f>
-        <v>2987168.5441898601</v>
+        <v>2987168.5441898499</v>
       </c>
       <c r="K63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$35,98,0)</f>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="L63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$35,98,0)</f>
-        <v>12244671.6356941</v>
+        <v>12244671.6356942</v>
       </c>
       <c r="M63" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$35,98,0)</f>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="F64" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$33,98,0)</f>
-        <v>66992218.356714197</v>
+        <v>66992218.356713898</v>
       </c>
       <c r="G64" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$33,98,0)</f>
@@ -4860,11 +4860,11 @@
       </c>
       <c r="H64" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$33,98,0)</f>
-        <v>54238886.213155299</v>
+        <v>54238886.213155203</v>
       </c>
       <c r="I64" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$33,98,0)</f>
-        <v>6064161.1536979098</v>
+        <v>6064161.15369792</v>
       </c>
       <c r="J64" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$33,98,0)</f>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="H65" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$32,98,0)</f>
-        <v>239030.27512325099</v>
+        <v>239030.27512325</v>
       </c>
       <c r="I65" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$32,98,0)</f>
@@ -4921,11 +4921,11 @@
       </c>
       <c r="K65" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$32,98,0)</f>
-        <v>123978.146221751</v>
+        <v>123978.14622174999</v>
       </c>
       <c r="L65" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$32,98,0)</f>
-        <v>122372.714342234</v>
+        <v>122372.714342233</v>
       </c>
       <c r="M65" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$32,98,0)</f>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="F66" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$2,149,0)</f>
-        <v>1104003.2083876799</v>
+        <v>1104003.2083876701</v>
       </c>
       <c r="G66" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$2,149,0)</f>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="K66" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$2,149,0)</f>
-        <v>573966.39056318696</v>
+        <v>573966.390563188</v>
       </c>
       <c r="L66" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$2,149,0)</f>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="F67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$9,149,0)</f>
-        <v>4932231.3595501604</v>
+        <v>4932231.3595501296</v>
       </c>
       <c r="G67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$9,149,0)</f>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="H67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$9,149,0)</f>
-        <v>3734484.72786676</v>
+        <v>3734484.7278667502</v>
       </c>
       <c r="I67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$9,149,0)</f>
@@ -5015,19 +5015,19 @@
       </c>
       <c r="J67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$9,149,0)</f>
-        <v>803818.69061002403</v>
+        <v>803818.69061002496</v>
       </c>
       <c r="K67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$9,149,0)</f>
-        <v>1939244.59801573</v>
+        <v>1939244.59801572</v>
       </c>
       <c r="L67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$9,149,0)</f>
-        <v>2004678.7197309199</v>
+        <v>2004678.7197309299</v>
       </c>
       <c r="M67" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$9,149,0)</f>
-        <v>988308.04180347698</v>
+        <v>988308.04180347896</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="F68" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$18,149,0)</f>
-        <v>3525226.21816864</v>
+        <v>3525226.2181686298</v>
       </c>
       <c r="G68" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$18,149,0)</f>
@@ -5056,11 +5056,11 @@
       </c>
       <c r="H68" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$18,149,0)</f>
-        <v>2761531.10494832</v>
+        <v>2761531.1049483302</v>
       </c>
       <c r="I68" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$18,149,0)</f>
-        <v>283378.16809771</v>
+        <v>283378.16809771099</v>
       </c>
       <c r="J68" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$18,149,0)</f>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="L68" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$18,149,0)</f>
-        <v>1451747.2573727199</v>
+        <v>1451747.2573727299</v>
       </c>
       <c r="M68" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$18,149,0)</f>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="H69" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$22,149,0)</f>
-        <v>1463231.4007912599</v>
+        <v>1463231.4007912499</v>
       </c>
       <c r="I69" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$22,149,0)</f>
@@ -5117,15 +5117,15 @@
       </c>
       <c r="K69" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$22,149,0)</f>
-        <v>823377.38202712405</v>
+        <v>823377.38202712301</v>
       </c>
       <c r="L69" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$22,149,0)</f>
-        <v>724255.72664973</v>
+        <v>724255.72664973105</v>
       </c>
       <c r="M69" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$22,149,0)</f>
-        <v>246854.61159702699</v>
+        <v>246854.61159702801</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -5154,15 +5154,15 @@
       </c>
       <c r="H70" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$4,149,0)</f>
-        <v>3889180.07952965</v>
+        <v>3889180.0795296398</v>
       </c>
       <c r="I70" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$4,149,0)</f>
-        <v>379868.663738598</v>
+        <v>379868.66373859701</v>
       </c>
       <c r="J70" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$4,149,0)</f>
-        <v>774393.48563067801</v>
+        <v>774393.48563067697</v>
       </c>
       <c r="K70" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$4,149,0)</f>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="M70" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$4,149,0)</f>
-        <v>991944.71627757302</v>
+        <v>991944.71627757198</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="F71" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$11,149,0)</f>
-        <v>25141236.0895456</v>
+        <v>25141236.089545701</v>
       </c>
       <c r="G71" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,149,0)</f>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="K71" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$11,149,0)</f>
-        <v>9864151.2885365505</v>
+        <v>9864151.2885365598</v>
       </c>
       <c r="L71" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$11,149,0)</f>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="F72" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$6,149,0)</f>
-        <v>20503657.599351902</v>
+        <v>20503657.599351998</v>
       </c>
       <c r="G72" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$6,149,0)</f>
@@ -5264,11 +5264,11 @@
       </c>
       <c r="K72" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$6,149,0)</f>
-        <v>8179290.12082153</v>
+        <v>8179290.1208215598</v>
       </c>
       <c r="L72" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,149,0)</f>
-        <v>8864620.9232503306</v>
+        <v>8864620.9232503492</v>
       </c>
       <c r="M72" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,149,0)</f>
@@ -5293,31 +5293,31 @@
       </c>
       <c r="F73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$48,149,0)</f>
-        <v>791386.306126068</v>
+        <v>791386.30612606904</v>
       </c>
       <c r="G73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$48,149,0)</f>
-        <v>535.55817275387096</v>
+        <v>535.55817275386903</v>
       </c>
       <c r="H73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$48,149,0)</f>
-        <v>638658.96968598</v>
+        <v>638658.96968598303</v>
       </c>
       <c r="I73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$48,149,0)</f>
-        <v>64239.969230423601</v>
+        <v>64239.969230423703</v>
       </c>
       <c r="J73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$48,149,0)</f>
-        <v>87951.809036907798</v>
+        <v>87951.809036907696</v>
       </c>
       <c r="K73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$48,149,0)</f>
-        <v>311659.764567876</v>
+        <v>311659.76456787798</v>
       </c>
       <c r="L73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,149,0)</f>
-        <v>342553.82297058002</v>
+        <v>342553.82297057903</v>
       </c>
       <c r="M73" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$48,149,0)</f>
@@ -5350,15 +5350,15 @@
       </c>
       <c r="H74" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$8,149,0)</f>
-        <v>4818137.4201087998</v>
+        <v>4818137.4201088203</v>
       </c>
       <c r="I74" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$8,149,0)</f>
-        <v>467983.34290836501</v>
+        <v>467983.342908366</v>
       </c>
       <c r="J74" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$8,149,0)</f>
-        <v>860139.80507398502</v>
+        <v>860139.80507398397</v>
       </c>
       <c r="K74" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$8,149,0)</f>
@@ -5395,19 +5395,19 @@
       </c>
       <c r="G75" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$10,149,0)</f>
-        <v>71.986506698555999</v>
+        <v>71.986506698556099</v>
       </c>
       <c r="H75" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$10,149,0)</f>
-        <v>1083652.6922420701</v>
+        <v>1083652.6922420601</v>
       </c>
       <c r="I75" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$10,149,0)</f>
-        <v>76384.092127941505</v>
+        <v>76384.092127941301</v>
       </c>
       <c r="J75" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$10,149,0)</f>
-        <v>56321.1144639595</v>
+        <v>56321.114463959602</v>
       </c>
       <c r="K75" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$10,149,0)</f>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="L75" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$10,149,0)</f>
-        <v>524506.70968283003</v>
+        <v>524506.70968282898</v>
       </c>
       <c r="M75" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$10,149,0)</f>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="F76" s="1">
         <f ca="1">F67-F68</f>
-        <v>1407005.1413815203</v>
+        <v>1407005.1413814998</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" ref="G76:M76" ca="1" si="14">G67-G68</f>
@@ -5448,19 +5448,19 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>972953.62291844003</v>
+        <v>972953.62291842001</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>108221.08268271398</v>
+        <v>108221.08268271299</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>325830.43578035804</v>
+        <v>325830.43578035897</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>500398.40580194001</v>
+        <v>500398.40580193</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="M76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>353675.27322136797</v>
+        <v>353675.27322136995</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="F77" s="1">
         <f ca="1">F68-F69</f>
-        <v>1730738.49789476</v>
+        <v>1730738.4978947497</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" ref="G77:M77" ca="1" si="15">G68-G69</f>
@@ -5497,11 +5497,11 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1298299.70415706</v>
+        <v>1298299.7041570803</v>
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>131350.40875848199</v>
+        <v>131350.40875848298</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="15"/>
@@ -5509,15 +5509,15 @@
       </c>
       <c r="K77" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>615468.81018666597</v>
+        <v>615468.81018666702</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>727491.53072298993</v>
+        <v>727491.5307229989</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>387778.15698508202</v>
+        <v>387778.15698508103</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="M78" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$39,149,0)-OFFSET([1]aggregated_flows_energy!I$38,149,0)</f>
-        <v>886202.36339327972</v>
+        <v>886202.36339326948</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="G79" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$36,149,0)</f>
-        <v>16729.042510036001</v>
+        <v>16729.042510035899</v>
       </c>
       <c r="H79" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,149,0)</f>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="G80" s="1">
         <f t="shared" ref="G80:M80" ca="1" si="16">G79</f>
-        <v>16729.042510036001</v>
+        <v>16729.042510035899</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="16"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="M81" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>886202.36339327972</v>
+        <v>886202.36339326948</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="F82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,149,0)</f>
-        <v>631938.10000012699</v>
+        <v>631938.1</v>
       </c>
       <c r="G82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,149,0)</f>
@@ -5742,27 +5742,27 @@
       </c>
       <c r="H82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,149,0)</f>
-        <v>520734.90000008303</v>
+        <v>520734.89999999898</v>
       </c>
       <c r="I82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,149,0)</f>
-        <v>67793.900000000896</v>
+        <v>67793.899999999994</v>
       </c>
       <c r="J82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,149,0)</f>
-        <v>41642.300000000498</v>
+        <v>41642.299999999901</v>
       </c>
       <c r="K82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,149,0)</f>
-        <v>254094.59999998199</v>
+        <v>254094.6</v>
       </c>
       <c r="L82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,149,0)</f>
-        <v>281541.999999989</v>
+        <v>281542</v>
       </c>
       <c r="M82" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,149,0)</f>
-        <v>96301.499999998094</v>
+        <v>96301.5</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="J83" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$35,149,0)</f>
-        <v>2855601.6599229602</v>
+        <v>2855601.65992297</v>
       </c>
       <c r="K83" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$35,149,0)</f>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="F84" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$33,149,0)</f>
-        <v>60193823.210357003</v>
+        <v>60193823.210356802</v>
       </c>
       <c r="G84" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$33,149,0)</f>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H84" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$33,149,0)</f>
-        <v>48240050.297609501</v>
+        <v>48240050.297609299</v>
       </c>
       <c r="I84" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$33,149,0)</f>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="M84" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$33,149,0)</f>
-        <v>10458728.702563901</v>
+        <v>10458728.7025638</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F85" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$32,149,0)</f>
-        <v>260763.75757498699</v>
+        <v>260763.757574986</v>
       </c>
       <c r="G85" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$32,149,0)</f>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="F87" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$2,196,0)</f>
-        <v>145692.782856331</v>
+        <v>145692.78285633001</v>
       </c>
       <c r="G87" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$2,196,0)</f>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="K87" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$2,196,0)</f>
-        <v>91621.123731004205</v>
+        <v>91621.123731004001</v>
       </c>
       <c r="L87" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$2,196,0)</f>
@@ -5988,11 +5988,11 @@
       </c>
       <c r="F88" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$9,196,0)</f>
-        <v>3199448.9506214</v>
+        <v>3199448.9506214098</v>
       </c>
       <c r="G88" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$9,196,0)</f>
-        <v>755105.90334927698</v>
+        <v>755105.90334927896</v>
       </c>
       <c r="H88" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$9,196,0)</f>
@@ -6012,11 +6012,11 @@
       </c>
       <c r="L88" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$9,196,0)</f>
-        <v>1076386.30611338</v>
+        <v>1076386.30611339</v>
       </c>
       <c r="M88" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$9,196,0)</f>
-        <v>597588.08414963703</v>
+        <v>597588.08414963796</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -6037,11 +6037,11 @@
       </c>
       <c r="F89" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$18,196,0)</f>
-        <v>2911293.7288242602</v>
+        <v>2911293.7288242802</v>
       </c>
       <c r="G89" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$18,196,0)</f>
-        <v>669321.56186315999</v>
+        <v>669321.56186315895</v>
       </c>
       <c r="H89" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$18,196,0)</f>
@@ -6102,15 +6102,15 @@
       </c>
       <c r="J90" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$22,196,0)</f>
-        <v>58907.594681884002</v>
+        <v>58907.594681884097</v>
       </c>
       <c r="K90" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$22,196,0)</f>
-        <v>1039938.40436715</v>
+        <v>1039938.40436714</v>
       </c>
       <c r="L90" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$22,196,0)</f>
-        <v>664354.026882165</v>
+        <v>664354.02688216604</v>
       </c>
       <c r="M90" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$22,196,0)</f>
@@ -6139,15 +6139,15 @@
       </c>
       <c r="G91" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$4,196,0)</f>
-        <v>729642.78775803198</v>
+        <v>729642.78775803302</v>
       </c>
       <c r="H91" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$4,196,0)</f>
-        <v>1912548.8243818399</v>
+        <v>1912548.8243818299</v>
       </c>
       <c r="I91" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$4,196,0)</f>
-        <v>277699.995305499</v>
+        <v>277699.99530549801</v>
       </c>
       <c r="J91" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$4,196,0)</f>
@@ -6159,11 +6159,11 @@
       </c>
       <c r="L91" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$4,196,0)</f>
-        <v>1047318.53695291</v>
+        <v>1047318.53695292</v>
       </c>
       <c r="M91" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$4,196,0)</f>
-        <v>572584.19418478198</v>
+        <v>572584.19418478105</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
@@ -6184,11 +6184,11 @@
       </c>
       <c r="F92" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$11,196,0)</f>
-        <v>23849344.046967499</v>
+        <v>23849344.0469676</v>
       </c>
       <c r="G92" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,196,0)</f>
-        <v>4635822.15988201</v>
+        <v>4635822.1598819997</v>
       </c>
       <c r="H92" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$11,196,0)</f>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="J92" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$11,196,0)</f>
-        <v>800536.978609193</v>
+        <v>800536.97860919195</v>
       </c>
       <c r="K92" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$11,196,0)</f>
@@ -6208,11 +6208,11 @@
       </c>
       <c r="L92" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$11,196,0)</f>
-        <v>8875716.1224535201</v>
+        <v>8875716.1224535294</v>
       </c>
       <c r="M92" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$11,196,0)</f>
-        <v>3755087.0719095501</v>
+        <v>3755087.0719095399</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F93" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$6,196,0)</f>
-        <v>19035876.342597801</v>
+        <v>19035876.342597902</v>
       </c>
       <c r="G93" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$6,196,0)</f>
@@ -6253,11 +6253,11 @@
       </c>
       <c r="K93" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$6,196,0)</f>
-        <v>9023773.1446298491</v>
+        <v>9023773.1446298398</v>
       </c>
       <c r="L93" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,196,0)</f>
-        <v>7101001.0292977598</v>
+        <v>7101001.0292977504</v>
       </c>
       <c r="M93" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,196,0)</f>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="F94" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$48,196,0)</f>
-        <v>670129.14469688002</v>
+        <v>670129.14469688397</v>
       </c>
       <c r="G94" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$48,196,0)</f>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="I94" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$48,196,0)</f>
-        <v>77659.182020076798</v>
+        <v>77659.1820200769</v>
       </c>
       <c r="J94" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$48,196,0)</f>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="L94" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,196,0)</f>
-        <v>264688.32853808103</v>
+        <v>264688.32853808202</v>
       </c>
       <c r="M94" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$48,196,0)</f>
@@ -6331,11 +6331,11 @@
       </c>
       <c r="F95" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$8,196,0)</f>
-        <v>3199448.9506214</v>
+        <v>3199448.9506214098</v>
       </c>
       <c r="G95" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$8,196,0)</f>
-        <v>755105.90334927698</v>
+        <v>755105.90334927896</v>
       </c>
       <c r="H95" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$8,196,0)</f>
@@ -6355,11 +6355,11 @@
       </c>
       <c r="L95" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$8,196,0)</f>
-        <v>1076386.30611338</v>
+        <v>1076386.30611339</v>
       </c>
       <c r="M95" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$8,196,0)</f>
-        <v>597588.08414963703</v>
+        <v>597588.08414963796</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -6429,11 +6429,11 @@
       </c>
       <c r="F97" s="1">
         <f ca="1">F88-F89</f>
-        <v>288155.22179713985</v>
+        <v>288155.2217971296</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" ref="G97:M97" ca="1" si="18">G88-G89</f>
-        <v>85784.341486116988</v>
+        <v>85784.341486120014</v>
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="18"/>
@@ -6453,11 +6453,11 @@
       </c>
       <c r="L97" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>70917.712021589978</v>
+        <v>70917.712021599989</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>115390.60479773401</v>
+        <v>115390.60479773494</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
@@ -6478,11 +6478,11 @@
       </c>
       <c r="F98" s="1">
         <f ca="1">F89-F90</f>
-        <v>972482.01116290013</v>
+        <v>972482.01116292016</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" ref="G98:M98" ca="1" si="19">G89-G90</f>
-        <v>279885.67811482697</v>
+        <v>279885.67811482592</v>
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -6494,15 +6494,15 @@
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>48734.230984915004</v>
+        <v>48734.23098491491</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>383689.25101343007</v>
+        <v>383689.25101344008</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>341114.56720962503</v>
+        <v>341114.56720962399</v>
       </c>
       <c r="M98" s="1">
         <f t="shared" ca="1" si="19"/>
@@ -6527,35 +6527,35 @@
       </c>
       <c r="F99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$39,196,0)-OFFSET([1]aggregated_flows_energy!B$38,196,0)</f>
-        <v>6121973.2395360991</v>
+        <v>6122654.4790361971</v>
       </c>
       <c r="G99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$39,196,0)-OFFSET([1]aggregated_flows_energy!C$38,196,0)</f>
-        <v>1148855.7486228393</v>
+        <v>1149312.8380200006</v>
       </c>
       <c r="H99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$39,196,0)-OFFSET([1]aggregated_flows_energy!D$38,196,0)</f>
-        <v>4148540.0564152002</v>
+        <v>4148665.9426274002</v>
       </c>
       <c r="I99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$39,196,0)-OFFSET([1]aggregated_flows_energy!E$38,196,0)</f>
-        <v>636322.63370320993</v>
+        <v>636404.9287756104</v>
       </c>
       <c r="J99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$39,196,0)-OFFSET([1]aggregated_flows_energy!F$38,196,0)</f>
-        <v>188254.80079489213</v>
+        <v>188270.76961323305</v>
       </c>
       <c r="K99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$39,196,0)-OFFSET([1]aggregated_flows_energy!G$38,196,0)</f>
-        <v>2906843.5038865991</v>
+        <v>2906843.5038866997</v>
       </c>
       <c r="L99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$39,196,0)-OFFSET([1]aggregated_flows_energy!H$38,196,0)</f>
-        <v>2315110.0694823004</v>
+        <v>2315760.9595151991</v>
       </c>
       <c r="M99" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$39,196,0)-OFFSET([1]aggregated_flows_energy!I$38,196,0)</f>
-        <v>900019.66616721079</v>
+        <v>900050.01563438028</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
@@ -6576,23 +6576,23 @@
       </c>
       <c r="F100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$36,196,0)</f>
-        <v>6121973.2395360796</v>
+        <v>6122654.4790362399</v>
       </c>
       <c r="G100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$36,196,0)</f>
-        <v>1148855.74862282</v>
+        <v>1149312.8380199999</v>
       </c>
       <c r="H100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,196,0)</f>
-        <v>4148540.0564151998</v>
+        <v>4148665.9426273899</v>
       </c>
       <c r="I100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$36,196,0)</f>
-        <v>636322.63370319398</v>
+        <v>636404.92877561098</v>
       </c>
       <c r="J100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$36,196,0)</f>
-        <v>188254.80079489201</v>
+        <v>188270.76961323299</v>
       </c>
       <c r="K100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$36,196,0)</f>
@@ -6600,11 +6600,11 @@
       </c>
       <c r="L100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$36,196,0)</f>
-        <v>2315110.0694822501</v>
+        <v>2315760.9595152298</v>
       </c>
       <c r="M100" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$36,196,0)</f>
-        <v>900019.66616720497</v>
+        <v>900050.01563437399</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
@@ -6625,23 +6625,23 @@
       </c>
       <c r="F101" s="1">
         <f ca="1">F100</f>
-        <v>6121973.2395360796</v>
+        <v>6122654.4790362399</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" ref="G101:M101" ca="1" si="20">G100</f>
-        <v>1148855.74862282</v>
+        <v>1149312.8380199999</v>
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>4148540.0564151998</v>
+        <v>4148665.9426273899</v>
       </c>
       <c r="I101" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>636322.63370319398</v>
+        <v>636404.92877561098</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>188254.80079489201</v>
+        <v>188270.76961323299</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -6649,11 +6649,11 @@
       </c>
       <c r="L101" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>2315110.0694822501</v>
+        <v>2315760.9595152298</v>
       </c>
       <c r="M101" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>900019.66616720497</v>
+        <v>900050.01563437399</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
@@ -6674,35 +6674,35 @@
       </c>
       <c r="F102" s="1">
         <f ca="1">F99</f>
-        <v>6121973.2395360991</v>
+        <v>6122654.4790361971</v>
       </c>
       <c r="G102" s="1">
         <f t="shared" ref="G102:M102" ca="1" si="21">G99</f>
-        <v>1148855.7486228393</v>
+        <v>1149312.8380200006</v>
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4148540.0564152002</v>
+        <v>4148665.9426274002</v>
       </c>
       <c r="I102" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>636322.63370320993</v>
+        <v>636404.9287756104</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>188254.80079489213</v>
+        <v>188270.76961323305</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2906843.5038865991</v>
+        <v>2906843.5038866997</v>
       </c>
       <c r="L102" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2315110.0694823004</v>
+        <v>2315760.9595151991</v>
       </c>
       <c r="M102" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>900019.66616721079</v>
+        <v>900050.01563438028</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
@@ -6723,35 +6723,35 @@
       </c>
       <c r="F103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,196,0)</f>
-        <v>519321.59999982198</v>
+        <v>519321.59999999998</v>
       </c>
       <c r="G103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,196,0)</f>
-        <v>86995.200000002005</v>
+        <v>86995.199999999997</v>
       </c>
       <c r="H103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,196,0)</f>
-        <v>357557.99999995797</v>
+        <v>357558</v>
       </c>
       <c r="I103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,196,0)</f>
-        <v>60526.799999997798</v>
+        <v>60526.799999999901</v>
       </c>
       <c r="J103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,196,0)</f>
-        <v>14241.6000000001</v>
+        <v>14241.6</v>
       </c>
       <c r="K103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,196,0)</f>
-        <v>243100.800000035</v>
+        <v>243100.79999999999</v>
       </c>
       <c r="L103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,196,0)</f>
-        <v>204433.200000026</v>
+        <v>204433.2</v>
       </c>
       <c r="M103" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,196,0)</f>
-        <v>71787.599999998798</v>
+        <v>71787.600000000006</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>4408915.6382303908</v>
+        <v>4408915.6382304002</v>
       </c>
       <c r="I104" s="1">
         <f t="shared" ca="1" si="22"/>
@@ -6792,11 +6792,11 @@
       </c>
       <c r="K104" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>3154202.8815126289</v>
+        <v>3154202.8815126298</v>
       </c>
       <c r="L104" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>2153769.5345873395</v>
+        <v>2153769.5345873404</v>
       </c>
       <c r="M104" s="1">
         <f t="shared" ca="1" si="22"/>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="F105" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$97,149,0)</f>
-        <v>12701145.8482382</v>
+        <v>12701145.848238301</v>
       </c>
       <c r="G105" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$97,149,0)</f>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="H105" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$97,149,0)</f>
-        <v>8465114.0740114097</v>
+        <v>8465114.0740114003</v>
       </c>
       <c r="I105" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$97,149,0)</f>
@@ -6841,11 +6841,11 @@
       </c>
       <c r="K105" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$97,149,0)</f>
-        <v>5869570.2631172203</v>
+        <v>5869570.26311721</v>
       </c>
       <c r="L105" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$97,149,0)</f>
-        <v>4947231.4947104203</v>
+        <v>4947231.49471041</v>
       </c>
       <c r="M105" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$97,149,0)</f>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="G106" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$35,196,0)</f>
-        <v>4463809.8095454797</v>
+        <v>4463809.80954549</v>
       </c>
       <c r="H106" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$35,196,0)</f>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="L106" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$35,196,0)</f>
-        <v>8029972.2491027704</v>
+        <v>8029972.2491027797</v>
       </c>
       <c r="M106" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$35,196,0)</f>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="F107" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$55,196,0)</f>
-        <v>1194819.89222891</v>
+        <v>1194819.89222892</v>
       </c>
       <c r="G107" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$55,196,0)</f>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="H107" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$55,196,0)</f>
-        <v>822611.40333219594</v>
+        <v>822611.40333219699</v>
       </c>
       <c r="I107" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$55,196,0)</f>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="K107" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$55,196,0)</f>
-        <v>560085.03871191002</v>
+        <v>560085.03871191095</v>
       </c>
       <c r="L107" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$55,196,0)</f>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="F108" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$33,196,0)</f>
-        <v>54519703.929235801</v>
+        <v>54519703.9292356</v>
       </c>
       <c r="G108" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$33,196,0)</f>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="K108" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$33,196,0)</f>
-        <v>25613768.370145399</v>
+        <v>25613768.3701455</v>
       </c>
       <c r="L108" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$33,196,0)</f>
@@ -7017,23 +7017,23 @@
       </c>
       <c r="F109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$32,196,0)</f>
-        <v>237563.873614924</v>
+        <v>238926.35261523101</v>
       </c>
       <c r="G109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$32,196,0)</f>
-        <v>45993.0943583267</v>
+        <v>46907.273152685499</v>
       </c>
       <c r="H109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$32,196,0)</f>
-        <v>160332.46272653501</v>
+        <v>160584.235150964</v>
       </c>
       <c r="I109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$32,196,0)</f>
-        <v>23489.0262500522</v>
+        <v>23653.616394886802</v>
       </c>
       <c r="J109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$32,196,0)</f>
-        <v>7749.2902800112197</v>
+        <v>7781.2279166941298</v>
       </c>
       <c r="K109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$32,196,0)</f>
@@ -7041,11 +7041,11 @@
       </c>
       <c r="L109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$32,196,0)</f>
-        <v>84530.492420975497</v>
+        <v>85832.272486937698</v>
       </c>
       <c r="M109" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$32,196,0)</f>
-        <v>34267.498383218401</v>
+        <v>34328.197317560996</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="K110" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$2,250,0)</f>
-        <v>62139.036143574602</v>
+        <v>62139.0361435745</v>
       </c>
       <c r="L110" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$2,250,0)</f>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="G111" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$9,250,0)</f>
-        <v>772335.27496852505</v>
+        <v>772335.27496852295</v>
       </c>
       <c r="H111" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$9,250,0)</f>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="K111" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$9,250,0)</f>
-        <v>1182090.2584317301</v>
+        <v>1182090.2584317401</v>
       </c>
       <c r="L111" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$9,250,0)</f>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="M111" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$9,250,0)</f>
-        <v>519527.88920630002</v>
+        <v>519527.88920629898</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
@@ -7164,11 +7164,11 @@
       </c>
       <c r="F112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$18,250,0)</f>
-        <v>2677198.4216000601</v>
+        <v>2677198.4216000699</v>
       </c>
       <c r="G112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$18,250,0)</f>
-        <v>662221.676332745</v>
+        <v>662221.67633274395</v>
       </c>
       <c r="H112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$18,250,0)</f>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="I112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$18,250,0)</f>
-        <v>264607.78185234399</v>
+        <v>264607.781852343</v>
       </c>
       <c r="J112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$18,250,0)</f>
@@ -7184,11 +7184,11 @@
       </c>
       <c r="K112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$18,250,0)</f>
-        <v>1083533.26303491</v>
+        <v>1083533.26303492</v>
       </c>
       <c r="L112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$18,250,0)</f>
-        <v>1201065.4910158401</v>
+        <v>1201065.4910158501</v>
       </c>
       <c r="M112" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$18,250,0)</f>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="G113" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$22,250,0)</f>
-        <v>367241.526580918</v>
+        <v>367241.52658091701</v>
       </c>
       <c r="H113" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$22,250,0)</f>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="L114" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$4,250,0)</f>
-        <v>1303486.91751136</v>
+        <v>1303486.91751135</v>
       </c>
       <c r="M114" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$4,250,0)</f>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="F115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$11,250,0)</f>
-        <v>20455553.3844884</v>
+        <v>20455553.391269598</v>
       </c>
       <c r="G115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,250,0)</f>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="H115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$11,250,0)</f>
-        <v>12791486.453519501</v>
+        <v>12791486.4603006</v>
       </c>
       <c r="I115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$11,250,0)</f>
@@ -7327,15 +7327,15 @@
       </c>
       <c r="J115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$11,250,0)</f>
-        <v>841197.17484501598</v>
+        <v>841197.17484501703</v>
       </c>
       <c r="K115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$11,250,0)</f>
-        <v>8038612.5324764298</v>
+        <v>8038612.5392574696</v>
       </c>
       <c r="L115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$11,250,0)</f>
-        <v>9515360.2692175899</v>
+        <v>9515360.2692176104</v>
       </c>
       <c r="M115" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$11,250,0)</f>
@@ -7360,15 +7360,15 @@
       </c>
       <c r="F116" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$6,250,0)</f>
-        <v>16813560.190920599</v>
+        <v>16813560.1969002</v>
       </c>
       <c r="G116" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$6,250,0)</f>
-        <v>3711509.2247112999</v>
+        <v>3711509.2247112901</v>
       </c>
       <c r="H116" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$6,250,0)</f>
-        <v>10595062.422571</v>
+        <v>10595062.428550599</v>
       </c>
       <c r="I116" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$6,250,0)</f>
@@ -7380,11 +7380,11 @@
       </c>
       <c r="K116" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$6,250,0)</f>
-        <v>6613462.1291576596</v>
+        <v>6613462.1351372097</v>
       </c>
       <c r="L116" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,250,0)</f>
-        <v>7884510.4254621696</v>
+        <v>7884510.4254621305</v>
       </c>
       <c r="M116" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,250,0)</f>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="F117" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$48,250,0)</f>
-        <v>510627.16153280501</v>
+        <v>510627.16180955898</v>
       </c>
       <c r="G117" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$48,250,0)</f>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="H117" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$48,250,0)</f>
-        <v>317992.09507444099</v>
+        <v>317992.095351191</v>
       </c>
       <c r="I117" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$48,250,0)</f>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="K117" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$48,250,0)</f>
-        <v>200916.667170373</v>
+        <v>200916.66744712301</v>
       </c>
       <c r="L117" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,250,0)</f>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="G118" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$8,250,0)</f>
-        <v>772335.27496852505</v>
+        <v>772335.27496852295</v>
       </c>
       <c r="H118" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$8,250,0)</f>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="K118" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$8,250,0)</f>
-        <v>1182090.2584317301</v>
+        <v>1182090.2584317401</v>
       </c>
       <c r="L118" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$8,250,0)</f>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="M118" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$8,250,0)</f>
-        <v>519527.88920630002</v>
+        <v>519527.88920629898</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
@@ -7556,11 +7556,11 @@
       </c>
       <c r="F120" s="1">
         <f ca="1">F111-F112</f>
-        <v>349797.59628293011</v>
+        <v>349797.59628292033</v>
       </c>
       <c r="G120" s="1">
         <f t="shared" ref="G120:M120" ca="1" si="23">G111-G112</f>
-        <v>110113.59863578004</v>
+        <v>110113.598635779</v>
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="23"/>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>21575.097188583983</v>
+        <v>21575.097188584972</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" ca="1" si="23"/>
@@ -7580,11 +7580,11 @@
       </c>
       <c r="L120" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>124312.37922910997</v>
+        <v>124312.37922909996</v>
       </c>
       <c r="M120" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>126928.221657002</v>
+        <v>126928.22165700095</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
@@ -7605,11 +7605,11 @@
       </c>
       <c r="F121" s="1">
         <f ca="1">F112-F113</f>
-        <v>1082318.6951531901</v>
+        <v>1082318.6951531998</v>
       </c>
       <c r="G121" s="1">
         <f t="shared" ref="G121:M121" ca="1" si="24">G112-G113</f>
-        <v>294980.149751827</v>
+        <v>294980.14975182695</v>
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>92327.391644569987</v>
+        <v>92327.391644568997</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -7625,11 +7625,11 @@
       </c>
       <c r="K121" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>369371.43029890792</v>
+        <v>369371.43029891793</v>
       </c>
       <c r="L121" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>507706.54203118209</v>
+        <v>507706.5420311921</v>
       </c>
       <c r="M121" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -7654,27 +7654,27 @@
       </c>
       <c r="F122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$39,250,0)-OFFSET([1]aggregated_flows_energy!B$38,250,0)</f>
-        <v>3878522.9388030991</v>
+        <v>3878735.7231201977</v>
       </c>
       <c r="G122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$39,250,0)-OFFSET([1]aggregated_flows_energy!C$38,250,0)</f>
-        <v>883274.62694246974</v>
+        <v>883471.26348649058</v>
       </c>
       <c r="H122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$39,250,0)-OFFSET([1]aggregated_flows_energy!D$38,250,0)</f>
-        <v>2428482.6370425001</v>
+        <v>2428483.7744844966</v>
       </c>
       <c r="I122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$39,250,0)-OFFSET([1]aggregated_flows_energy!E$38,250,0)</f>
-        <v>414089.18256660039</v>
+        <v>414101.98540673032</v>
       </c>
       <c r="J122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$39,250,0)-OFFSET([1]aggregated_flows_energy!F$38,250,0)</f>
-        <v>152676.492251758</v>
+        <v>152678.69974248705</v>
       </c>
       <c r="K122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$39,250,0)-OFFSET([1]aggregated_flows_energy!G$38,250,0)</f>
-        <v>1532490.308120301</v>
+        <v>1532490.1386972014</v>
       </c>
       <c r="L122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$39,250,0)-OFFSET([1]aggregated_flows_energy!H$38,250,0)</f>
@@ -7682,7 +7682,7 @@
       </c>
       <c r="M122" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$39,250,0)-OFFSET([1]aggregated_flows_energy!I$38,250,0)</f>
-        <v>531148.68444732018</v>
+        <v>531361.63818757003</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
@@ -7703,27 +7703,27 @@
       </c>
       <c r="F123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$36,250,0)</f>
-        <v>3878522.9388031699</v>
+        <v>3878735.7231201599</v>
       </c>
       <c r="G123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$36,250,0)</f>
-        <v>883274.626942473</v>
+        <v>883471.26348648698</v>
       </c>
       <c r="H123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,250,0)</f>
-        <v>2428482.6370423101</v>
+        <v>2428483.77448445</v>
       </c>
       <c r="I123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$36,250,0)</f>
-        <v>414089.182566592</v>
+        <v>414101.98540672899</v>
       </c>
       <c r="J123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$36,250,0)</f>
-        <v>152676.492251761</v>
+        <v>152678.69974249299</v>
       </c>
       <c r="K123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$36,250,0)</f>
-        <v>1532490.3081203699</v>
+        <v>1532490.1386971499</v>
       </c>
       <c r="L123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$36,250,0)</f>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="M123" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$36,250,0)</f>
-        <v>531148.68444732297</v>
+        <v>531361.63818756398</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
@@ -7752,27 +7752,27 @@
       </c>
       <c r="F124" s="1">
         <f ca="1">F123</f>
-        <v>3878522.9388031699</v>
+        <v>3878735.7231201599</v>
       </c>
       <c r="G124" s="1">
         <f t="shared" ref="G124:M124" ca="1" si="25">G123</f>
-        <v>883274.626942473</v>
+        <v>883471.26348648698</v>
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>2428482.6370423101</v>
+        <v>2428483.77448445</v>
       </c>
       <c r="I124" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>414089.182566592</v>
+        <v>414101.98540672899</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>152676.492251761</v>
+        <v>152678.69974249299</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>1532490.3081203699</v>
+        <v>1532490.1386971499</v>
       </c>
       <c r="L124" s="1">
         <f t="shared" ca="1" si="25"/>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="M124" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>531148.68444732297</v>
+        <v>531361.63818756398</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
@@ -7801,27 +7801,27 @@
       </c>
       <c r="F125" s="1">
         <f ca="1">F122</f>
-        <v>3878522.9388030991</v>
+        <v>3878735.7231201977</v>
       </c>
       <c r="G125" s="1">
         <f t="shared" ref="G125:M125" ca="1" si="26">G122</f>
-        <v>883274.62694246974</v>
+        <v>883471.26348649058</v>
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>2428482.6370425001</v>
+        <v>2428483.7744844966</v>
       </c>
       <c r="I125" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>414089.18256660039</v>
+        <v>414101.98540673032</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>152676.492251758</v>
+        <v>152678.69974248705</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>1532490.308120301</v>
+        <v>1532490.1386972014</v>
       </c>
       <c r="L125" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="M125" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>531148.68444732018</v>
+        <v>531361.63818757003</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
@@ -7850,35 +7850,35 @@
       </c>
       <c r="F126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,250,0)</f>
-        <v>411598.79999991198</v>
+        <v>411598.8</v>
       </c>
       <c r="G126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,250,0)</f>
-        <v>83048.400000001202</v>
+        <v>83048.399999999994</v>
       </c>
       <c r="H126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,250,0)</f>
-        <v>263000.40000003797</v>
+        <v>263000.40000000002</v>
       </c>
       <c r="I126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,250,0)</f>
-        <v>51777.599999998201</v>
+        <v>51777.599999999999</v>
       </c>
       <c r="J126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,250,0)</f>
-        <v>13772.4000000001</v>
+        <v>13772.4</v>
       </c>
       <c r="K126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,250,0)</f>
-        <v>160328.40000001699</v>
+        <v>160328.4</v>
       </c>
       <c r="L126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,250,0)</f>
-        <v>200569.200000026</v>
+        <v>200569.2</v>
       </c>
       <c r="M126" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,250,0)</f>
-        <v>50701.199999998302</v>
+        <v>50701.2</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
@@ -7899,15 +7899,15 @@
       </c>
       <c r="F127" s="1">
         <f ca="1">F116-F128</f>
-        <v>4798426.3273647986</v>
+        <v>4798426.3281229008</v>
       </c>
       <c r="G127" s="1">
         <f t="shared" ref="G127:M127" ca="1" si="27">G116-G128</f>
-        <v>1001856.4516989901</v>
+        <v>1001856.4516989803</v>
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>3052297.0252610799</v>
+        <v>3052297.0260192193</v>
       </c>
       <c r="I127" s="1">
         <f t="shared" ca="1" si="27"/>
@@ -7919,11 +7919,11 @@
       </c>
       <c r="K127" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>1905683.1660698699</v>
+        <v>1905683.1668279693</v>
       </c>
       <c r="L127" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>2293042.9047660697</v>
+        <v>2293042.9047660204</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" ca="1" si="27"/>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="F128" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$97,203,0)</f>
-        <v>12015133.8635558</v>
+        <v>12015133.868777299</v>
       </c>
       <c r="G128" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$97,203,0)</f>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="H128" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$97,203,0)</f>
-        <v>7542765.3973099198</v>
+        <v>7542765.4025313798</v>
       </c>
       <c r="I128" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$97,203,0)</f>
@@ -7968,11 +7968,11 @@
       </c>
       <c r="K128" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$97,203,0)</f>
-        <v>4707778.9630877897</v>
+        <v>4707778.9683092404</v>
       </c>
       <c r="L128" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$97,203,0)</f>
-        <v>5591467.5206960998</v>
+        <v>5591467.5206961101</v>
       </c>
       <c r="M128" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$97,203,0)</f>
@@ -8001,11 +8001,11 @@
       </c>
       <c r="G129" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$54,250,0)</f>
-        <v>3991353.9382588998</v>
+        <v>3991353.9382589101</v>
       </c>
       <c r="H129" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$54,250,0)</f>
-        <v>10275714.153757101</v>
+        <v>10275714.1537572</v>
       </c>
       <c r="I129" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$54,250,0)</f>
@@ -8013,11 +8013,11 @@
       </c>
       <c r="J129" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$54,250,0)</f>
-        <v>740370.081825261</v>
+        <v>740370.08182525996</v>
       </c>
       <c r="K129" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$54,250,0)</f>
-        <v>6492525.8124993704</v>
+        <v>6492525.8124993602</v>
       </c>
       <c r="L129" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$54,250,0)</f>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="F130" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$55,250,0)</f>
-        <v>947049.62856812601</v>
+        <v>947049.62856812996</v>
       </c>
       <c r="G130" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$55,250,0)</f>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="H130" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$55,250,0)</f>
-        <v>605696.73637390905</v>
+        <v>605696.73637390998</v>
       </c>
       <c r="I130" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$55,250,0)</f>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="L130" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$55,250,0)</f>
-        <v>457717.32567963301</v>
+        <v>457717.32567963499</v>
       </c>
       <c r="M130" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$55,250,0)</f>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="F131" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$33,250,0)</f>
-        <v>43749180.180714197</v>
+        <v>43749180.180714302</v>
       </c>
       <c r="G131" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$33,250,0)</f>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="M131" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$33,250,0)</f>
-        <v>6352048.8068926297</v>
+        <v>6352048.80689264</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
@@ -8144,35 +8144,35 @@
       </c>
       <c r="F132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$32,250,0)</f>
-        <v>183306.189064576</v>
+        <v>183731.76367820299</v>
       </c>
       <c r="G132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$32,250,0)</f>
-        <v>41925.047666534003</v>
+        <v>42318.320754562097</v>
       </c>
       <c r="H132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$32,250,0)</f>
-        <v>114966.66469603901</v>
+        <v>114968.945559899</v>
       </c>
       <c r="I132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$32,250,0)</f>
-        <v>19104.677413455502</v>
+        <v>19130.283093731199</v>
       </c>
       <c r="J132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$32,250,0)</f>
-        <v>7309.7992885481699</v>
+        <v>7314.2142700111799</v>
       </c>
       <c r="K132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$32,250,0)</f>
-        <v>75948.153731257902</v>
+        <v>75947.820864401307</v>
       </c>
       <c r="L132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$32,250,0)</f>
-        <v>83942.755020163095</v>
+        <v>83942.755020163298</v>
       </c>
       <c r="M132" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$32,250,0)</f>
-        <v>23415.280313155999</v>
+        <v>23841.187793639099</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
@@ -8193,11 +8193,11 @@
       </c>
       <c r="F133" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$2,304,0)</f>
-        <v>79911.363329079904</v>
+        <v>79911.363329079599</v>
       </c>
       <c r="G133" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$2,304,0)</f>
-        <v>69326.338596251095</v>
+        <v>69326.338596251197</v>
       </c>
       <c r="H133" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$2,304,0)</f>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="I133" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$2,304,0)</f>
-        <v>7931.8071079966803</v>
+        <v>7931.8071079966903</v>
       </c>
       <c r="J133" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$2,304,0)</f>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="F134" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$9,304,0)</f>
-        <v>1770456.7734063601</v>
+        <v>1770456.7734063501</v>
       </c>
       <c r="G134" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$9,304,0)</f>
@@ -8262,11 +8262,11 @@
       </c>
       <c r="K134" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$9,304,0)</f>
-        <v>680637.378637605</v>
+        <v>680637.37863760395</v>
       </c>
       <c r="L134" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$9,304,0)</f>
-        <v>742118.39127344696</v>
+        <v>742118.39127344801</v>
       </c>
       <c r="M134" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$9,304,0)</f>
@@ -8299,11 +8299,11 @@
       </c>
       <c r="H135" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$18,304,0)</f>
-        <v>73152.430669185196</v>
+        <v>73152.430669185298</v>
       </c>
       <c r="I135" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$18,304,0)</f>
-        <v>101579.488355551</v>
+        <v>101579.48835555201</v>
       </c>
       <c r="J135" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$18,304,0)</f>
@@ -8311,11 +8311,11 @@
       </c>
       <c r="K135" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$18,304,0)</f>
-        <v>587951.96981859906</v>
+        <v>587951.96981859801</v>
       </c>
       <c r="L135" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$18,304,0)</f>
-        <v>657786.98630231398</v>
+        <v>657786.98630231502</v>
       </c>
       <c r="M135" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$18,304,0)</f>
@@ -8340,11 +8340,11 @@
       </c>
       <c r="F136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$22,304,0)</f>
-        <v>885218.33303055202</v>
+        <v>885218.33303055097</v>
       </c>
       <c r="G136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$22,304,0)</f>
-        <v>735053.20980085002</v>
+        <v>735053.20980084897</v>
       </c>
       <c r="H136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$22,304,0)</f>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="I136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$22,304,0)</f>
-        <v>85856.920802108303</v>
+        <v>85856.920802108405</v>
       </c>
       <c r="J136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$22,304,0)</f>
@@ -8360,11 +8360,11 @@
       </c>
       <c r="K136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$22,304,0)</f>
-        <v>365041.01440179802</v>
+        <v>365041.01440179697</v>
       </c>
       <c r="L136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$22,304,0)</f>
-        <v>390455.27811607899</v>
+        <v>390455.27811607998</v>
       </c>
       <c r="M136" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$22,304,0)</f>
@@ -8393,15 +8393,15 @@
       </c>
       <c r="G137" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$4,304,0)</f>
-        <v>1520213.5781942499</v>
+        <v>1520213.5781942599</v>
       </c>
       <c r="H137" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$4,304,0)</f>
-        <v>71475.676706033002</v>
+        <v>71475.6767060329</v>
       </c>
       <c r="I137" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$4,304,0)</f>
-        <v>98157.194340030401</v>
+        <v>98157.194340030503</v>
       </c>
       <c r="J137" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$4,304,0)</f>
@@ -8409,15 +8409,15 @@
       </c>
       <c r="K137" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$4,304,0)</f>
-        <v>639113.097823138</v>
+        <v>639113.09782313602</v>
       </c>
       <c r="L137" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$4,304,0)</f>
-        <v>721734.99989960599</v>
+        <v>721734.99989960401</v>
       </c>
       <c r="M137" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$4,304,0)</f>
-        <v>329697.31235453702</v>
+        <v>329697.31235453801</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
@@ -8442,11 +8442,11 @@
       </c>
       <c r="G138" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,304,0)</f>
-        <v>9348501.6718419194</v>
+        <v>9348501.6718419306</v>
       </c>
       <c r="H138" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$11,304,0)</f>
-        <v>757432.30781384697</v>
+        <v>757432.30781384802</v>
       </c>
       <c r="I138" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$11,304,0)</f>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="L138" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$11,304,0)</f>
-        <v>5200948.2160873404</v>
+        <v>5200948.2160873301</v>
       </c>
       <c r="M138" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$11,304,0)</f>
@@ -8487,11 +8487,11 @@
       </c>
       <c r="F139" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$6,304,0)</f>
-        <v>8661976.8267005794</v>
+        <v>8661976.8267005999</v>
       </c>
       <c r="G139" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$6,304,0)</f>
-        <v>7312631.3164127199</v>
+        <v>7312631.3164127301</v>
       </c>
       <c r="H139" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$6,304,0)</f>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="K139" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$6,304,0)</f>
-        <v>3033560.3642432</v>
+        <v>3033560.3642432098</v>
       </c>
       <c r="L139" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,304,0)</f>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="M139" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,304,0)</f>
-        <v>1510501.7485684401</v>
+        <v>1510501.7485684301</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="K140" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$48,304,0)</f>
-        <v>108894.60073090901</v>
+        <v>108894.60073091</v>
       </c>
       <c r="L140" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,304,0)</f>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F141" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$8,304,0)</f>
-        <v>1770456.7734063601</v>
+        <v>1770456.7734063501</v>
       </c>
       <c r="G141" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$8,304,0)</f>
@@ -8605,11 +8605,11 @@
       </c>
       <c r="K141" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$8,304,0)</f>
-        <v>680637.378637605</v>
+        <v>680637.37863760395</v>
       </c>
       <c r="L141" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$8,304,0)</f>
-        <v>742118.39127344696</v>
+        <v>742118.39127344801</v>
       </c>
       <c r="M141" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$8,304,0)</f>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="F143" s="1">
         <f ca="1">F134-F135</f>
-        <v>271621.51117842016</v>
+        <v>271621.51117841015</v>
       </c>
       <c r="G143" s="1">
         <f t="shared" ref="G143:M143" ca="1" si="28">G134-G135</f>
@@ -8691,11 +8691,11 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>939.56445008730225</v>
+        <v>939.56445008720038</v>
       </c>
       <c r="I143" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>4509.5130924760015</v>
+        <v>4509.5130924749974</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ca="1" si="28"/>
@@ -8732,19 +8732,19 @@
       </c>
       <c r="F144" s="1">
         <f ca="1">F135-F136</f>
-        <v>613616.92919738789</v>
+        <v>613616.92919738893</v>
       </c>
       <c r="G144" s="1">
         <f t="shared" ref="G144:M144" ca="1" si="29">G135-G136</f>
-        <v>588345.24483314005</v>
+        <v>588345.2448331411</v>
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>9442.4307207643942</v>
+        <v>9442.4307207644961</v>
       </c>
       <c r="I144" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>15722.567553442699</v>
+        <v>15722.567553443601</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" ca="1" si="29"/>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="L144" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>267331.70818623499</v>
+        <v>267331.70818623505</v>
       </c>
       <c r="M144" s="1">
         <f t="shared" ca="1" si="29"/>
@@ -8781,19 +8781,19 @@
       </c>
       <c r="F145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$39,304,0)-OFFSET([1]aggregated_flows_energy!B$38,304,0)</f>
-        <v>2981499.9121269006</v>
+        <v>2981508.1528362986</v>
       </c>
       <c r="G145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$39,304,0)-OFFSET([1]aggregated_flows_energy!C$38,304,0)</f>
-        <v>2351174.7955409996</v>
+        <v>2351182.1939151995</v>
       </c>
       <c r="H145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$39,304,0)-OFFSET([1]aggregated_flows_energy!D$38,304,0)</f>
-        <v>256557.40537925018</v>
+        <v>256557.73921173997</v>
       </c>
       <c r="I145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$39,304,0)-OFFSET([1]aggregated_flows_energy!E$38,304,0)</f>
-        <v>371740.64148064004</v>
+        <v>371741.14998330036</v>
       </c>
       <c r="J145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$39,304,0)-OFFSET([1]aggregated_flows_energy!F$38,304,0)</f>
@@ -8801,11 +8801,11 @@
       </c>
       <c r="K145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$39,304,0)-OFFSET([1]aggregated_flows_energy!G$38,304,0)</f>
-        <v>1005940.1967673395</v>
+        <v>1005947.19467944</v>
       </c>
       <c r="L145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$39,304,0)-OFFSET([1]aggregated_flows_energy!H$38,304,0)</f>
-        <v>1474882.0255179303</v>
+        <v>1474883.2683151588</v>
       </c>
       <c r="M145" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$39,304,0)-OFFSET([1]aggregated_flows_energy!I$38,304,0)</f>
@@ -8830,19 +8830,19 @@
       </c>
       <c r="F146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$36,304,0)</f>
-        <v>2981499.91212697</v>
+        <v>2981508.1528362902</v>
       </c>
       <c r="G146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$36,304,0)</f>
-        <v>2351174.7955409801</v>
+        <v>2351182.1939151702</v>
       </c>
       <c r="H146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,304,0)</f>
-        <v>256557.40537924299</v>
+        <v>256557.73921173601</v>
       </c>
       <c r="I146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$36,304,0)</f>
-        <v>371740.64148063998</v>
+        <v>371741.14998329</v>
       </c>
       <c r="J146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$36,304,0)</f>
@@ -8850,15 +8850,15 @@
       </c>
       <c r="K146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$36,304,0)</f>
-        <v>1005940.1967673301</v>
+        <v>1005947.19467943</v>
       </c>
       <c r="L146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$36,304,0)</f>
-        <v>1474882.02551793</v>
+        <v>1474883.2683151499</v>
       </c>
       <c r="M146" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$36,304,0)</f>
-        <v>500677.68984169699</v>
+        <v>500677.689841696</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
@@ -8879,19 +8879,19 @@
       </c>
       <c r="F147" s="1">
         <f ca="1">F146</f>
-        <v>2981499.91212697</v>
+        <v>2981508.1528362902</v>
       </c>
       <c r="G147" s="1">
         <f t="shared" ref="G147:M147" ca="1" si="30">G146</f>
-        <v>2351174.7955409801</v>
+        <v>2351182.1939151702</v>
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>256557.40537924299</v>
+        <v>256557.73921173601</v>
       </c>
       <c r="I147" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>371740.64148063998</v>
+        <v>371741.14998329</v>
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="30"/>
@@ -8899,15 +8899,15 @@
       </c>
       <c r="K147" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1005940.1967673301</v>
+        <v>1005947.19467943</v>
       </c>
       <c r="L147" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>1474882.02551793</v>
+        <v>1474883.2683151499</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>500677.68984169699</v>
+        <v>500677.689841696</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
@@ -8928,19 +8928,19 @@
       </c>
       <c r="F148" s="1">
         <f ca="1">F145</f>
-        <v>2981499.9121269006</v>
+        <v>2981508.1528362986</v>
       </c>
       <c r="G148" s="1">
         <f t="shared" ref="G148:M148" ca="1" si="31">G145</f>
-        <v>2351174.7955409996</v>
+        <v>2351182.1939151995</v>
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>256557.40537925018</v>
+        <v>256557.73921173997</v>
       </c>
       <c r="I148" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>371740.64148064004</v>
+        <v>371741.14998330036</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" ca="1" si="31"/>
@@ -8948,11 +8948,11 @@
       </c>
       <c r="K148" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>1005940.1967673395</v>
+        <v>1005947.19467944</v>
       </c>
       <c r="L148" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>1474882.0255179303</v>
+        <v>1474883.2683151588</v>
       </c>
       <c r="M148" s="1">
         <f t="shared" ca="1" si="31"/>
@@ -8977,35 +8977,35 @@
       </c>
       <c r="F149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,304,0)</f>
-        <v>211333.20000002801</v>
+        <v>211333.19999999899</v>
       </c>
       <c r="G149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,304,0)</f>
-        <v>154836.00000001601</v>
+        <v>154836</v>
       </c>
       <c r="H149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,304,0)</f>
-        <v>24481.199999999699</v>
+        <v>24481.200000000001</v>
       </c>
       <c r="I149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,304,0)</f>
-        <v>31767.5999999993</v>
+        <v>31767.599999999999</v>
       </c>
       <c r="J149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,304,0)</f>
-        <v>248.39999999999901</v>
+        <v>248.4</v>
       </c>
       <c r="K149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,304,0)</f>
-        <v>70379.999999998501</v>
+        <v>70380</v>
       </c>
       <c r="L149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,304,0)</f>
-        <v>107557.20000000601</v>
+        <v>107557.2</v>
       </c>
       <c r="M149" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,304,0)</f>
-        <v>33395.9999999992</v>
+        <v>33396</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
@@ -9026,19 +9026,19 @@
       </c>
       <c r="F150" s="1">
         <f ca="1">F139-F151</f>
-        <v>3061340.1736848289</v>
+        <v>3061340.1736848596</v>
       </c>
       <c r="G150" s="1">
         <f t="shared" ref="G150:M150" ca="1" si="32">G139-G151</f>
-        <v>2527614.9881635401</v>
+        <v>2527614.9881635597</v>
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>257775.77873048605</v>
+        <v>257775.77873048704</v>
       </c>
       <c r="I150" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>273633.75651386799</v>
+        <v>273633.756513867</v>
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="32"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="K150" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>1022879.65801247</v>
+        <v>1022879.6580124898</v>
       </c>
       <c r="L150" s="1">
         <f t="shared" ca="1" si="32"/>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="M150" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>516512.41015600413</v>
+        <v>516512.41015599412</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
@@ -9075,19 +9075,19 @@
       </c>
       <c r="F151" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$97,257,0)</f>
-        <v>5600636.6530157505</v>
+        <v>5600636.6530157402</v>
       </c>
       <c r="G151" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$97,257,0)</f>
-        <v>4785016.3282491798</v>
+        <v>4785016.3282491704</v>
       </c>
       <c r="H151" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$97,257,0)</f>
-        <v>354721.15470956499</v>
+        <v>354721.154709564</v>
       </c>
       <c r="I151" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$97,257,0)</f>
-        <v>457647.63601151702</v>
+        <v>457647.63601151801</v>
       </c>
       <c r="J151" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$97,257,0)</f>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="K151" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$97,257,0)</f>
-        <v>2010680.7062307301</v>
+        <v>2010680.70623072</v>
       </c>
       <c r="L151" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$97,257,0)</f>
@@ -9144,7 +9144,7 @@
       </c>
       <c r="K152" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$54,304,0)</f>
-        <v>3729217.8599907099</v>
+        <v>3729217.8599907001</v>
       </c>
       <c r="L152" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$54,304,0)</f>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="M152" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$54,304,0)</f>
-        <v>1925160.8996734901</v>
+        <v>1925160.8996734801</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="F153" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$55,304,0)</f>
-        <v>501245.77445084503</v>
+        <v>501245.77445084602</v>
       </c>
       <c r="G153" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$55,304,0)</f>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="I153" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$55,304,0)</f>
-        <v>68420.828721511396</v>
+        <v>68420.828721511498</v>
       </c>
       <c r="J153" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$55,304,0)</f>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="M153" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$55,304,0)</f>
-        <v>82244.277835486893</v>
+        <v>82244.277835486995</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
@@ -9222,15 +9222,15 @@
       </c>
       <c r="F154" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$33,304,0)</f>
-        <v>26772534.1312964</v>
+        <v>26772534.131296299</v>
       </c>
       <c r="G154" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$33,304,0)</f>
-        <v>22456140.5780349</v>
+        <v>22456140.5780348</v>
       </c>
       <c r="H154" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$33,304,0)</f>
-        <v>1856496.9080241299</v>
+        <v>1856496.9080241199</v>
       </c>
       <c r="I154" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$33,304,0)</f>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="M154" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$33,304,0)</f>
-        <v>4748366.8111943305</v>
+        <v>4748366.8111943398</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
@@ -9271,19 +9271,19 @@
       </c>
       <c r="F155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$32,304,0)</f>
-        <v>33974.8900981732</v>
+        <v>33991.371516823601</v>
       </c>
       <c r="G155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$32,304,0)</f>
-        <v>25128.701538386402</v>
+        <v>25143.4982867488</v>
       </c>
       <c r="H155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$32,304,0)</f>
-        <v>5613.1279546512496</v>
+        <v>5613.7956196390196</v>
       </c>
       <c r="I155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$32,304,0)</f>
-        <v>3194.9868795293801</v>
+        <v>3196.0038848296399</v>
       </c>
       <c r="J155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$32,304,0)</f>
@@ -9291,11 +9291,11 @@
       </c>
       <c r="K155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$32,304,0)</f>
-        <v>11689.3183606558</v>
+        <v>11703.3141848573</v>
       </c>
       <c r="L155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$32,304,0)</f>
-        <v>18662.476062818201</v>
+        <v>18664.961657267198</v>
       </c>
       <c r="M155" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$32,304,0)</f>
@@ -9320,15 +9320,15 @@
       </c>
       <c r="F156" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$2,358,0)</f>
-        <v>91428.867364981794</v>
+        <v>91428.867364980601</v>
       </c>
       <c r="G156" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$2,358,0)</f>
-        <v>16764.0339473561</v>
+        <v>16764.033947356202</v>
       </c>
       <c r="H156" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$2,358,0)</f>
-        <v>61041.6848485136</v>
+        <v>61041.684848513403</v>
       </c>
       <c r="I156" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$2,358,0)</f>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="K156" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$2,358,0)</f>
-        <v>55193.733746096499</v>
+        <v>55193.733746096601</v>
       </c>
       <c r="L156" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$2,358,0)</f>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="F157" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$9,358,0)</f>
-        <v>1958502.7769524099</v>
+        <v>1958502.7769524199</v>
       </c>
       <c r="G157" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$9,358,0)</f>
@@ -9381,23 +9381,23 @@
       </c>
       <c r="I157" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$9,358,0)</f>
-        <v>204476.790485643</v>
+        <v>204476.79048564401</v>
       </c>
       <c r="J157" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$9,358,0)</f>
-        <v>52895.631257681402</v>
+        <v>52895.6312576813</v>
       </c>
       <c r="K157" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$9,358,0)</f>
-        <v>949504.460226667</v>
+        <v>949504.46022666898</v>
       </c>
       <c r="L157" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$9,358,0)</f>
-        <v>709625.48448137601</v>
+        <v>709625.48448137799</v>
       </c>
       <c r="M157" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$9,358,0)</f>
-        <v>299372.83224438003</v>
+        <v>299372.83224438102</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="H158" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$18,358,0)</f>
-        <v>1109608.7527099</v>
+        <v>1109608.75270991</v>
       </c>
       <c r="I158" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$18,358,0)</f>
@@ -9438,11 +9438,11 @@
       </c>
       <c r="K158" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$18,358,0)</f>
-        <v>898369.80852947605</v>
+        <v>898369.80852947698</v>
       </c>
       <c r="L158" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$18,358,0)</f>
-        <v>677386.09983312595</v>
+        <v>677386.09983312897</v>
       </c>
       <c r="M158" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$18,358,0)</f>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="H159" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$22,358,0)</f>
-        <v>771876.60455308401</v>
+        <v>771876.60455308505</v>
       </c>
       <c r="I159" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$22,358,0)</f>
@@ -9487,11 +9487,11 @@
       </c>
       <c r="K159" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$22,358,0)</f>
-        <v>633774.273314188</v>
+        <v>633774.27331418905</v>
       </c>
       <c r="L159" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$22,358,0)</f>
-        <v>451819.90238511399</v>
+        <v>451819.90238511201</v>
       </c>
       <c r="M159" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$22,358,0)</f>
@@ -9520,11 +9520,11 @@
       </c>
       <c r="G160" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$4,358,0)</f>
-        <v>502203.14259355201</v>
+        <v>502203.14259355102</v>
       </c>
       <c r="H160" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$4,358,0)</f>
-        <v>1121121.4938196701</v>
+        <v>1121121.4938196801</v>
       </c>
       <c r="I160" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$4,358,0)</f>
@@ -9565,35 +9565,35 @@
       </c>
       <c r="F161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$11,358,0)</f>
-        <v>15267687.927271301</v>
+        <v>15267281.324080599</v>
       </c>
       <c r="G161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$11,358,0)</f>
-        <v>3287038.2845513001</v>
+        <v>3286924.6349975299</v>
       </c>
       <c r="H161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$11,358,0)</f>
-        <v>9813925.2501892895</v>
+        <v>9813659.48375329</v>
       </c>
       <c r="I161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$11,358,0)</f>
-        <v>1813988.7060843499</v>
+        <v>1813963.1199111999</v>
       </c>
       <c r="J161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$11,358,0)</f>
-        <v>352735.68644644902</v>
+        <v>352734.08541861601</v>
       </c>
       <c r="K161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$11,358,0)</f>
-        <v>7103794.4226186797</v>
+        <v>7103794.4226186704</v>
       </c>
       <c r="L161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$11,358,0)</f>
-        <v>6187785.7544595497</v>
+        <v>6187785.7544595404</v>
       </c>
       <c r="M161" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$11,358,0)</f>
-        <v>1976107.75019317</v>
+        <v>1975701.1470024299</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
@@ -9614,35 +9614,35 @@
       </c>
       <c r="F162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$6,358,0)</f>
-        <v>12387499.654645</v>
+        <v>12387182.500959599</v>
       </c>
       <c r="G162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$6,358,0)</f>
-        <v>2591156.4328137701</v>
+        <v>2591068.18823796</v>
       </c>
       <c r="H162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$6,358,0)</f>
-        <v>8045436.4648761703</v>
+        <v>8045229.5330902003</v>
       </c>
       <c r="I162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$6,358,0)</f>
-        <v>1470696.3491696401</v>
+        <v>1470675.35722702</v>
       </c>
       <c r="J162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$6,358,0)</f>
-        <v>280210.40778542799</v>
+        <v>280209.42240446899</v>
       </c>
       <c r="K162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$6,358,0)</f>
-        <v>5748268.1762492703</v>
+        <v>5748268.1762492601</v>
       </c>
       <c r="L162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$6,358,0)</f>
-        <v>5071888.0369560504</v>
+        <v>5071888.0369560597</v>
       </c>
       <c r="M162" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$6,358,0)</f>
-        <v>1567343.4414396801</v>
+        <v>1567026.2877543301</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
@@ -9663,27 +9663,27 @@
       </c>
       <c r="F163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$48,358,0)</f>
-        <v>411190.77067001699</v>
+        <v>411181.46201026998</v>
       </c>
       <c r="G163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$48,358,0)</f>
-        <v>85033.147195058104</v>
+        <v>85030.587206756405</v>
       </c>
       <c r="H163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$48,358,0)</f>
-        <v>259536.75895441699</v>
+        <v>259530.947766386</v>
       </c>
       <c r="I163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$48,358,0)</f>
-        <v>57573.0452012389</v>
+        <v>57572.270364729797</v>
       </c>
       <c r="J163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$48,358,0)</f>
-        <v>9047.8193193035204</v>
+        <v>9047.6566723974502</v>
       </c>
       <c r="K163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$48,358,0)</f>
-        <v>188244.207103647</v>
+        <v>188244.20710364799</v>
       </c>
       <c r="L163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$48,358,0)</f>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="M163" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$48,358,0)</f>
-        <v>51656.622846498401</v>
+        <v>51647.314186750104</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="F164" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$8,358,0)</f>
-        <v>1958502.7769524099</v>
+        <v>1958502.7769524199</v>
       </c>
       <c r="G164" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$8,358,0)</f>
@@ -9724,23 +9724,23 @@
       </c>
       <c r="I164" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$8,358,0)</f>
-        <v>204476.790485643</v>
+        <v>204476.79048564401</v>
       </c>
       <c r="J164" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$8,358,0)</f>
-        <v>52895.631257681402</v>
+        <v>52895.6312576813</v>
       </c>
       <c r="K164" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$8,358,0)</f>
-        <v>949504.460226667</v>
+        <v>949504.46022666898</v>
       </c>
       <c r="L164" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$8,358,0)</f>
-        <v>709625.48448137601</v>
+        <v>709625.48448137799</v>
       </c>
       <c r="M164" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$8,358,0)</f>
-        <v>299372.83224438003</v>
+        <v>299372.83224438102</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="F166" s="1">
         <f ca="1">F157-F158</f>
-        <v>135186.04469466</v>
+        <v>135186.04469467001</v>
       </c>
       <c r="G166" s="1">
         <f t="shared" ref="G166:M166" ca="1" si="33">G157-G158</f>
@@ -9818,27 +9818,27 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>72554.425958289998</v>
+        <v>72554.425958279986</v>
       </c>
       <c r="I166" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>12053.783361274982</v>
+        <v>12053.783361276001</v>
       </c>
       <c r="J166" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>6687.0978474670046</v>
+        <v>6687.0978474669027</v>
       </c>
       <c r="K166" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>51134.651697190944</v>
+        <v>51134.651697191992</v>
       </c>
       <c r="L166" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>32239.384648250067</v>
+        <v>32239.384648249019</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>51812.008349235024</v>
+        <v>51812.008349236014</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="34"/>
-        <v>337732.14815681602</v>
+        <v>337732.14815682499</v>
       </c>
       <c r="I167" s="1">
         <f t="shared" ca="1" si="34"/>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="K167" s="1">
         <f t="shared" ca="1" si="34"/>
-        <v>264595.53521528805</v>
+        <v>264595.53521528793</v>
       </c>
       <c r="L167" s="1">
         <f t="shared" ca="1" si="34"/>
-        <v>225566.19744801195</v>
+        <v>225566.19744801696</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" ca="1" si="34"/>
@@ -9908,23 +9908,23 @@
       </c>
       <c r="F168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$39,358,0)-OFFSET([1]aggregated_flows_energy!B$38,358,0)</f>
-        <v>4485897.2165674977</v>
+        <v>4491847.5363081023</v>
       </c>
       <c r="G168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$39,358,0)-OFFSET([1]aggregated_flows_energy!C$38,358,0)</f>
-        <v>913400.92117945012</v>
+        <v>915050.53253960051</v>
       </c>
       <c r="H168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$39,358,0)-OFFSET([1]aggregated_flows_energy!D$38,358,0)</f>
-        <v>2914879.0455348007</v>
+        <v>2918765.7786116004</v>
       </c>
       <c r="I168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$39,358,0)-OFFSET([1]aggregated_flows_energy!E$38,358,0)</f>
-        <v>556269.14106711</v>
+        <v>556671.6809526803</v>
       </c>
       <c r="J168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$39,358,0)-OFFSET([1]aggregated_flows_energy!F$38,358,0)</f>
-        <v>101348.10878606595</v>
+        <v>101359.544204153</v>
       </c>
       <c r="K168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$39,358,0)-OFFSET([1]aggregated_flows_energy!G$38,358,0)</f>
@@ -9932,11 +9932,11 @@
       </c>
       <c r="L168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$39,358,0)-OFFSET([1]aggregated_flows_energy!H$38,358,0)</f>
-        <v>1879121.2750949003</v>
+        <v>1879121.2750947997</v>
       </c>
       <c r="M168" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$39,358,0)-OFFSET([1]aggregated_flows_energy!I$38,358,0)</f>
-        <v>564167.95031171991</v>
+        <v>570118.27005237015</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
@@ -9957,23 +9957,23 @@
       </c>
       <c r="F169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$36,358,0)</f>
-        <v>4485897.2165673897</v>
+        <v>4491847.5363080502</v>
       </c>
       <c r="G169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$36,358,0)</f>
-        <v>913400.92117945605</v>
+        <v>915050.532539604</v>
       </c>
       <c r="H169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$36,358,0)</f>
-        <v>2914879.0455347602</v>
+        <v>2918765.7786116102</v>
       </c>
       <c r="I169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$36,358,0)</f>
-        <v>556269.14106712001</v>
+        <v>556671.68095268297</v>
       </c>
       <c r="J169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$36,358,0)</f>
-        <v>101348.108786066</v>
+        <v>101359.544204153</v>
       </c>
       <c r="K169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$36,358,0)</f>
@@ -9981,11 +9981,11 @@
       </c>
       <c r="L169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$36,358,0)</f>
-        <v>1879121.2750947999</v>
+        <v>1879121.2750947899</v>
       </c>
       <c r="M169" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$36,358,0)</f>
-        <v>564167.950311722</v>
+        <v>570118.270052379</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
@@ -10006,23 +10006,23 @@
       </c>
       <c r="F170" s="1">
         <f ca="1">F169</f>
-        <v>4485897.2165673897</v>
+        <v>4491847.5363080502</v>
       </c>
       <c r="G170" s="1">
         <f t="shared" ref="G170:M170" ca="1" si="35">G169</f>
-        <v>913400.92117945605</v>
+        <v>915050.532539604</v>
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>2914879.0455347602</v>
+        <v>2918765.7786116102</v>
       </c>
       <c r="I170" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>556269.14106712001</v>
+        <v>556671.68095268297</v>
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>101348.108786066</v>
+        <v>101359.544204153</v>
       </c>
       <c r="K170" s="1">
         <f t="shared" ca="1" si="35"/>
@@ -10030,11 +10030,11 @@
       </c>
       <c r="L170" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>1879121.2750947999</v>
+        <v>1879121.2750947899</v>
       </c>
       <c r="M170" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>564167.950311722</v>
+        <v>570118.270052379</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
@@ -10055,23 +10055,23 @@
       </c>
       <c r="F171" s="1">
         <f ca="1">F168</f>
-        <v>4485897.2165674977</v>
+        <v>4491847.5363081023</v>
       </c>
       <c r="G171" s="1">
         <f t="shared" ref="G171:M171" ca="1" si="36">G168</f>
-        <v>913400.92117945012</v>
+        <v>915050.53253960051</v>
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>2914879.0455348007</v>
+        <v>2918765.7786116004</v>
       </c>
       <c r="I171" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>556269.14106711</v>
+        <v>556671.6809526803</v>
       </c>
       <c r="J171" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>101348.10878606595</v>
+        <v>101359.544204153</v>
       </c>
       <c r="K171" s="1">
         <f t="shared" ca="1" si="36"/>
@@ -10079,11 +10079,11 @@
       </c>
       <c r="L171" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>1879121.2750949003</v>
+        <v>1879121.2750947997</v>
       </c>
       <c r="M171" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>564167.95031171991</v>
+        <v>570118.27005237015</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
@@ -10104,35 +10104,35 @@
       </c>
       <c r="F172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$37,358,0)</f>
-        <v>362691.59999995399</v>
+        <v>362691.6</v>
       </c>
       <c r="G172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$37,358,0)</f>
-        <v>67178.399999997899</v>
+        <v>67178.399999999994</v>
       </c>
       <c r="H172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$37,358,0)</f>
-        <v>237691.20000003299</v>
+        <v>237691.2</v>
       </c>
       <c r="I172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$37,358,0)</f>
-        <v>50369.999999998297</v>
+        <v>50370</v>
       </c>
       <c r="J172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$37,358,0)</f>
-        <v>7452.00000000003</v>
+        <v>7452</v>
       </c>
       <c r="K172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$37,358,0)</f>
-        <v>162398.40000001699</v>
+        <v>162398.39999999999</v>
       </c>
       <c r="L172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$37,358,0)</f>
-        <v>157761.600000017</v>
+        <v>157761.60000000001</v>
       </c>
       <c r="M172" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$37,358,0)</f>
-        <v>42531.599999998703</v>
+        <v>42531.6</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
@@ -10153,35 +10153,35 @@
       </c>
       <c r="F173" s="1">
         <f ca="1">F162-F174</f>
-        <v>4106639.2071326897</v>
+        <v>4106535.8499159198</v>
       </c>
       <c r="G173" s="1">
         <f t="shared" ref="G173:M173" ca="1" si="37">G162-G174</f>
-        <v>809406.55163576012</v>
+        <v>809377.96603048989</v>
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>2713372.6897895299</v>
+        <v>2713306.8704605298</v>
       </c>
       <c r="I173" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>490644.42956084409</v>
+        <v>490635.89423029392</v>
       </c>
       <c r="J173" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>93215.536146541999</v>
+        <v>93215.119194657978</v>
       </c>
       <c r="K173" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>1998862.6261813105</v>
+        <v>1998862.62618129</v>
       </c>
       <c r="L173" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>1523631.3250916204</v>
+        <v>1523631.3250916298</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>584145.25585973402</v>
+        <v>584041.89864304906</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
@@ -10202,27 +10202,27 @@
       </c>
       <c r="F174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$97,311,0)</f>
-        <v>8280860.44751231</v>
+        <v>8280646.6510436796</v>
       </c>
       <c r="G174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$97,311,0)</f>
-        <v>1781749.88117801</v>
+        <v>1781690.2222074701</v>
       </c>
       <c r="H174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$97,311,0)</f>
-        <v>5332063.7750866404</v>
+        <v>5331922.6626296705</v>
       </c>
       <c r="I174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$97,311,0)</f>
-        <v>980051.91960879602</v>
+        <v>980039.46299672604</v>
       </c>
       <c r="J174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$97,311,0)</f>
-        <v>186994.87163888599</v>
+        <v>186994.30320981101</v>
       </c>
       <c r="K174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$97,311,0)</f>
-        <v>3749405.5500679598</v>
+        <v>3749405.5500679701</v>
       </c>
       <c r="L174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$97,311,0)</f>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="M174" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$97,311,0)</f>
-        <v>983198.18557994603</v>
+        <v>982984.38911128102</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="H175" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$54,358,0)</f>
-        <v>8930038.3976592999</v>
+        <v>8930038.3976592701</v>
       </c>
       <c r="I175" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$54,358,0)</f>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="K175" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$54,358,0)</f>
-        <v>6491056.8701360598</v>
+        <v>6491056.8701360496</v>
       </c>
       <c r="L175" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$54,358,0)</f>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="F176" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$55,358,0)</f>
-        <v>828872.02680973697</v>
+        <v>828872.02680973301</v>
       </c>
       <c r="G176" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$55,358,0)</f>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="H176" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$55,358,0)</f>
-        <v>544679.81427283899</v>
+        <v>544679.81427284004</v>
       </c>
       <c r="I176" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$55,358,0)</f>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="K176" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$55,358,0)</f>
-        <v>372920.613449155</v>
+        <v>372920.61344915401</v>
       </c>
       <c r="L176" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$55,358,0)</f>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="K177" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$33,358,0)</f>
-        <v>17042368.8623836</v>
+        <v>17042368.862383701</v>
       </c>
       <c r="L177" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$33,358,0)</f>
@@ -10398,23 +10398,23 @@
       </c>
       <c r="F178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!B$32,358,0)</f>
-        <v>149098.381267733</v>
+        <v>160681.86706370299</v>
       </c>
       <c r="G178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!C$32,358,0)</f>
-        <v>31619.514541678102</v>
+        <v>34830.492686157697</v>
       </c>
       <c r="H178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!D$32,358,0)</f>
-        <v>96026.238059339696</v>
+        <v>103592.77242711</v>
       </c>
       <c r="I178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!E$32,358,0)</f>
-        <v>17827.692596342498</v>
+        <v>18611.7804248459</v>
       </c>
       <c r="J178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!F$32,358,0)</f>
-        <v>3624.9360703730799</v>
+        <v>3646.82152558901</v>
       </c>
       <c r="K178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!G$32,358,0)</f>
@@ -10422,11 +10422,11 @@
       </c>
       <c r="L178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!H$32,358,0)</f>
-        <v>64123.396919730498</v>
+        <v>64123.396919730701</v>
       </c>
       <c r="M178" s="1">
         <f ca="1">OFFSET([1]aggregated_flows_energy!I$32,358,0)</f>
-        <v>7104.2069472417697</v>
+        <v>18687.692743211301</v>
       </c>
     </row>
   </sheetData>
@@ -10550,8 +10550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F53" sqref="A50:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10625,27 +10625,27 @@
       </c>
       <c r="F2" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B2,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D2,'Engines indvidual'!$E$1:$E$85,$E2)*0.000001</f>
-        <v>4.5687828088850901</v>
+        <v>4.5687828088850795</v>
       </c>
       <c r="G2" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B2,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D2,'Engines indvidual'!$E$1:$E$85,$E2)*0.000001</f>
-        <v>5.3072245153304703E-3</v>
+        <v>5.307224515330479E-3</v>
       </c>
       <c r="H2" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B2,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D2,'Engines indvidual'!$E$1:$E$85,$E2)*0.000001</f>
-        <v>3.8186849639378764</v>
+        <v>3.818684963937879</v>
       </c>
       <c r="I2" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B2,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D2,'Engines indvidual'!$E$1:$E$85,$E2)*0.000001</f>
-        <v>0.38533720468713301</v>
+        <v>0.38533720468713328</v>
       </c>
       <c r="J2" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B2,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D2,'Engines indvidual'!$E$1:$E$85,$E2)*0.000001</f>
-        <v>0.35945341574475448</v>
+        <v>0.35945341574475431</v>
       </c>
       <c r="K2" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B2,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D2,'Engines indvidual'!$E$1:$E$85,$E2)*0.000001</f>
-        <v>2.3269694229407469</v>
+        <v>2.3269694229407509</v>
       </c>
       <c r="L2" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B2,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D2,'Engines indvidual'!$E$1:$E$85,$E2)*0.000001</f>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="F3" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
-        <v>19.27474708783631</v>
+        <v>19.274747087836278</v>
       </c>
       <c r="G3" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="H3" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
-        <v>14.411902740166939</v>
+        <v>14.41190274016693</v>
       </c>
       <c r="I3" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
@@ -10690,19 +10690,19 @@
       </c>
       <c r="J3" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
-        <v>3.2077105851059531</v>
+        <v>3.2077105851059522</v>
       </c>
       <c r="K3" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
-        <v>7.4944256489777406</v>
+        <v>7.4944256489777201</v>
       </c>
       <c r="L3" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
-        <v>7.8219189948426102</v>
+        <v>7.82191899484262</v>
       </c>
       <c r="M3" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B3,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D3,'Engines indvidual'!$E$1:$E$85,$E3)*0.000001</f>
-        <v>3.9584024440159116</v>
+        <v>3.9584024440159125</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="F4" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
-        <v>13.984801195887769</v>
+        <v>13.984801195887719</v>
       </c>
       <c r="G4" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
@@ -10731,27 +10731,27 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
-        <v>10.899907844980898</v>
+        <v>10.899907844980889</v>
       </c>
       <c r="I4" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
-        <v>1.190496003063817</v>
+        <v>1.1904960030638179</v>
       </c>
       <c r="J4" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
-        <v>1.884573658502805</v>
+        <v>1.884573658502803</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
-        <v>5.7165092244997897</v>
+        <v>5.7165092244998013</v>
       </c>
       <c r="L4" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
-        <v>5.7276924307294994</v>
+        <v>5.7276924307295101</v>
       </c>
       <c r="M4" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B4,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D4,'Engines indvidual'!$E$1:$E$85,$E4)*0.000001</f>
-        <v>2.5405995406583988</v>
+        <v>2.5405995406583979</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="F5" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B5,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D5,'Engines indvidual'!$E$1:$E$85,$E5)*0.000001</f>
-        <v>7.3521964542817795</v>
+        <v>7.3521964542817999</v>
       </c>
       <c r="G5" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B5,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D5,'Engines indvidual'!$E$1:$E$85,$E5)*0.000001</f>
@@ -10796,11 +10796,11 @@
       </c>
       <c r="L5" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B5,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D5,'Engines indvidual'!$E$1:$E$85,$E5)*0.000001</f>
-        <v>2.9692706215550388</v>
+        <v>2.9692706215550357</v>
       </c>
       <c r="M5" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B5,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D5,'Engines indvidual'!$E$1:$E$85,$E5)*0.000001</f>
-        <v>1.0433206966776589</v>
+        <v>1.04332069667766</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -10829,15 +10829,15 @@
       </c>
       <c r="H6" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B6,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D6,'Engines indvidual'!$E$1:$E$85,$E6)*0.000001</f>
-        <v>15.28748599812274</v>
+        <v>15.287485998122719</v>
       </c>
       <c r="I6" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B6,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D6,'Engines indvidual'!$E$1:$E$85,$E6)*0.000001</f>
-        <v>1.6594663559578018</v>
+        <v>1.6594663559578009</v>
       </c>
       <c r="J6" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B6,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D6,'Engines indvidual'!$E$1:$E$85,$E6)*0.000001</f>
-        <v>3.2074940392546418</v>
+        <v>3.2074940392546409</v>
       </c>
       <c r="K6" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B6,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D6,'Engines indvidual'!$E$1:$E$85,$E6)*0.000001</f>
@@ -10845,11 +10845,11 @@
       </c>
       <c r="L6" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B6,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D6,'Engines indvidual'!$E$1:$E$85,$E6)*0.000001</f>
-        <v>8.5227643390825492</v>
+        <v>8.5227643390825385</v>
       </c>
       <c r="M6" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B6,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D6,'Engines indvidual'!$E$1:$E$85,$E6)*0.000001</f>
-        <v>4.0982864983773073</v>
+        <v>4.0982864983773064</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="F7" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
-        <v>103.8460785731404</v>
+        <v>103.8460785731408</v>
       </c>
       <c r="G7" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="H7" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
-        <v>82.544462791089089</v>
+        <v>82.544462791089202</v>
       </c>
       <c r="I7" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
@@ -10886,15 +10886,15 @@
       </c>
       <c r="J7" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
-        <v>11.92414305910583</v>
+        <v>11.92414305910582</v>
       </c>
       <c r="K7" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
-        <v>41.276244251705641</v>
+        <v>41.276244251705663</v>
       </c>
       <c r="L7" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
-        <v>43.973094014658194</v>
+        <v>43.973094014658294</v>
       </c>
       <c r="M7" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B7,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D7,'Engines indvidual'!$E$1:$E$85,$E7)*0.000001</f>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F8" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B8,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D8,'Engines indvidual'!$E$1:$E$85,$E8)*0.000001</f>
-        <v>44.769230013914999</v>
+        <v>44.769230013914893</v>
       </c>
       <c r="G8" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B8,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D8,'Engines indvidual'!$E$1:$E$85,$E8)*0.000001</f>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="H8" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B8,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D8,'Engines indvidual'!$E$1:$E$85,$E8)*0.000001</f>
-        <v>36.434009572587499</v>
+        <v>36.434009572587591</v>
       </c>
       <c r="I8" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B8,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D8,'Engines indvidual'!$E$1:$E$85,$E8)*0.000001</f>
@@ -10935,11 +10935,11 @@
       </c>
       <c r="J8" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B8,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D8,'Engines indvidual'!$E$1:$E$85,$E8)*0.000001</f>
-        <v>4.3176902808638502</v>
+        <v>4.3176902808638395</v>
       </c>
       <c r="K8" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B8,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D8,'Engines indvidual'!$E$1:$E$85,$E8)*0.000001</f>
-        <v>18.383220103829178</v>
+        <v>18.383220103829188</v>
       </c>
       <c r="L8" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B8,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D8,'Engines indvidual'!$E$1:$E$85,$E8)*0.000001</f>
@@ -10968,15 +10968,15 @@
       </c>
       <c r="F9" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
-        <v>3.3211840640170132</v>
+        <v>3.321184064017018</v>
       </c>
       <c r="G9" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
-        <v>2.6181218004582558E-3</v>
+        <v>2.6181218004582524E-3</v>
       </c>
       <c r="H9" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
-        <v>2.6517651213343223</v>
+        <v>2.6517651213343276</v>
       </c>
       <c r="I9" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
@@ -10984,19 +10984,19 @@
       </c>
       <c r="J9" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
-        <v>0.37818153199393778</v>
+        <v>0.37818153199393767</v>
       </c>
       <c r="K9" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
-        <v>1.3065364761934359</v>
+        <v>1.3065364761934386</v>
       </c>
       <c r="L9" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
-        <v>1.424543649615198</v>
+        <v>1.4245436496151969</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B9,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D9,'Engines indvidual'!$E$1:$E$85,$E9)*0.000001</f>
-        <v>0.59010393820837603</v>
+        <v>0.59010393820837692</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="F10" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
-        <v>24.729256831121102</v>
+        <v>24.729256831121056</v>
       </c>
       <c r="G10" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
@@ -11025,27 +11025,27 @@
       </c>
       <c r="H10" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
-        <v>19.106170962060609</v>
+        <v>19.106170962060599</v>
       </c>
       <c r="I10" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
-        <v>2.0448035606449348</v>
+        <v>2.0448035606449371</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
-        <v>3.5669474549993945</v>
+        <v>3.5669474549993949</v>
       </c>
       <c r="K10" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
-        <v>9.8663926077168504</v>
+        <v>9.8663926077168398</v>
       </c>
       <c r="L10" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
-        <v>10.193936349376949</v>
+        <v>10.193936349376971</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B10,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D10,'Engines indvidual'!$E$1:$E$85,$E10)*0.000001</f>
-        <v>4.6689278740272391</v>
+        <v>4.6689278740272293</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -11074,15 +11074,15 @@
       </c>
       <c r="H11" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B11,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D11,'Engines indvidual'!$E$1:$E$85,$E11)*0.000001</f>
-        <v>4.6942682218936698</v>
+        <v>4.69426822189366</v>
       </c>
       <c r="I11" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B11,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D11,'Engines indvidual'!$E$1:$E$85,$E11)*0.000001</f>
-        <v>0.39949348742175006</v>
+        <v>0.39949348742174889</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B11,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D11,'Engines indvidual'!$E$1:$E$85,$E11)*0.000001</f>
-        <v>0.35923686989344261</v>
+        <v>0.35923686989344267</v>
       </c>
       <c r="K11" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B11,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D11,'Engines indvidual'!$E$1:$E$85,$E11)*0.000001</f>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="L11" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B11,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D11,'Engines indvidual'!$E$1:$E$85,$E11)*0.000001</f>
-        <v>2.3720173545343379</v>
+        <v>2.3720173545343401</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B11,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D11,'Engines indvidual'!$E$1:$E$85,$E11)*0.000001</f>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="F12" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
-        <v>5.2899458919485394</v>
+        <v>5.2899458919485598</v>
       </c>
       <c r="G12" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
@@ -11123,19 +11123,19 @@
       </c>
       <c r="H12" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
-        <v>3.51199489518604</v>
+        <v>3.5119948951860405</v>
       </c>
       <c r="I12" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
-        <v>0.45481407015936803</v>
+        <v>0.45481407015936703</v>
       </c>
       <c r="J12" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
-        <v>1.3231369266031481</v>
+        <v>1.323136926603149</v>
       </c>
       <c r="K12" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
-        <v>1.7779164244779497</v>
+        <v>1.7779164244779198</v>
       </c>
       <c r="L12" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="M12" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B12,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D12,'Engines indvidual'!$E$1:$E$85,$E12)*0.000001</f>
-        <v>1.4178029033575128</v>
+        <v>1.417802903357515</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="F13" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
-        <v>6.6326047416059906</v>
+        <v>6.6326047416059195</v>
       </c>
       <c r="G13" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
@@ -11172,27 +11172,27 @@
       </c>
       <c r="H13" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
-        <v>4.9493224457767502</v>
+        <v>4.9493224457767395</v>
       </c>
       <c r="I13" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
-        <v>0.53522686195769498</v>
+        <v>0.53522686195769598</v>
       </c>
       <c r="J13" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
-        <v>1.1473027030208227</v>
+        <v>1.1473027030208207</v>
       </c>
       <c r="K13" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
-        <v>2.3769040884506762</v>
+        <v>2.376904088450686</v>
       </c>
       <c r="L13" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
-        <v>2.7584218091744606</v>
+        <v>2.7584218091744739</v>
       </c>
       <c r="M13" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B13,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D13,'Engines indvidual'!$E$1:$E$85,$E13)*0.000001</f>
-        <v>1.4972788439807401</v>
+        <v>1.4972788439807379</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -11213,27 +11213,27 @@
       </c>
       <c r="F14" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
-        <v>24.363818692793295</v>
+        <v>24.363818692793096</v>
       </c>
       <c r="G14" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
-        <v>6.6643945955485479E-2</v>
+        <v>6.6643945955485395E-2</v>
       </c>
       <c r="H14" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
-        <v>19.869209025430898</v>
+        <v>19.869209025431097</v>
       </c>
       <c r="I14" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
-        <v>2.6649559979756199</v>
+        <v>2.6649559979756301</v>
       </c>
       <c r="J14" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
-        <v>1.7630097234307296</v>
+        <v>1.7630097234307398</v>
       </c>
       <c r="K14" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
-        <v>9.835480229713399</v>
+        <v>9.8354802297132995</v>
       </c>
       <c r="L14" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="M14" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B14,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D14,'Engines indvidual'!$E$1:$E$85,$E14)*0.000001</f>
-        <v>3.7931316737477294</v>
+        <v>3.7931316737477099</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -11266,31 +11266,31 @@
       </c>
       <c r="G15" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B15,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D15,'Engines indvidual'!$E$1:$E$85,$E15)*0.000001</f>
-        <v>6.6643945955485492E-2</v>
+        <v>6.6643945955485395E-2</v>
       </c>
       <c r="H15" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B15,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D15,'Engines indvidual'!$E$1:$E$85,$E15)*0.000001</f>
-        <v>19.869209025431179</v>
+        <v>19.869209025431172</v>
       </c>
       <c r="I15" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B15,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D15,'Engines indvidual'!$E$1:$E$85,$E15)*0.000001</f>
-        <v>2.664955997975619</v>
+        <v>2.6649559979756172</v>
       </c>
       <c r="J15" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B15,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D15,'Engines indvidual'!$E$1:$E$85,$E15)*0.000001</f>
-        <v>1.763009723430732</v>
+        <v>1.7630097234307331</v>
       </c>
       <c r="K15" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B15,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D15,'Engines indvidual'!$E$1:$E$85,$E15)*0.000001</f>
-        <v>9.8354802297134807</v>
+        <v>9.83548022971347</v>
       </c>
       <c r="L15" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B15,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D15,'Engines indvidual'!$E$1:$E$85,$E15)*0.000001</f>
-        <v>10.735206789331802</v>
+        <v>10.73520678933181</v>
       </c>
       <c r="M15" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B15,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D15,'Engines indvidual'!$E$1:$E$85,$E15)*0.000001</f>
-        <v>3.7931316737477028</v>
+        <v>3.7931316737477045</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -11315,31 +11315,31 @@
       </c>
       <c r="G16" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B16,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D16,'Engines indvidual'!$E$1:$E$85,$E16)*0.000001</f>
-        <v>6.6643945955485492E-2</v>
+        <v>6.6643945955485395E-2</v>
       </c>
       <c r="H16" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B16,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D16,'Engines indvidual'!$E$1:$E$85,$E16)*0.000001</f>
-        <v>19.869209025431179</v>
+        <v>19.869209025431172</v>
       </c>
       <c r="I16" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B16,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D16,'Engines indvidual'!$E$1:$E$85,$E16)*0.000001</f>
-        <v>2.664955997975619</v>
+        <v>2.6649559979756172</v>
       </c>
       <c r="J16" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B16,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D16,'Engines indvidual'!$E$1:$E$85,$E16)*0.000001</f>
-        <v>1.763009723430732</v>
+        <v>1.7630097234307331</v>
       </c>
       <c r="K16" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B16,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D16,'Engines indvidual'!$E$1:$E$85,$E16)*0.000001</f>
-        <v>9.8354802297134807</v>
+        <v>9.83548022971347</v>
       </c>
       <c r="L16" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B16,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D16,'Engines indvidual'!$E$1:$E$85,$E16)*0.000001</f>
-        <v>10.735206789331802</v>
+        <v>10.73520678933181</v>
       </c>
       <c r="M16" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B16,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D16,'Engines indvidual'!$E$1:$E$85,$E16)*0.000001</f>
-        <v>3.7931316737477028</v>
+        <v>3.7931316737477045</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -11360,27 +11360,27 @@
       </c>
       <c r="F17" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
-        <v>24.363818692793295</v>
+        <v>24.363818692793096</v>
       </c>
       <c r="G17" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
-        <v>6.6643945955485479E-2</v>
+        <v>6.6643945955485395E-2</v>
       </c>
       <c r="H17" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
-        <v>19.869209025430898</v>
+        <v>19.869209025431097</v>
       </c>
       <c r="I17" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
-        <v>2.6649559979756199</v>
+        <v>2.6649559979756301</v>
       </c>
       <c r="J17" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
-        <v>1.7630097234307296</v>
+        <v>1.7630097234307398</v>
       </c>
       <c r="K17" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
-        <v>9.835480229713399</v>
+        <v>9.8354802297132995</v>
       </c>
       <c r="L17" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="M17" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B17,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D17,'Engines indvidual'!$E$1:$E$85,$E17)*0.000001</f>
-        <v>3.7931316737477294</v>
+        <v>3.7931316737477099</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="F18" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
-        <v>2.5923657000005345</v>
+        <v>2.5923656999999976</v>
       </c>
       <c r="G18" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
@@ -11417,27 +11417,27 @@
       </c>
       <c r="H18" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
-        <v>2.1333580000003538</v>
+        <v>2.1333579999999959</v>
       </c>
       <c r="I18" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
-        <v>0.27965720000000266</v>
+        <v>0.27965719999999988</v>
       </c>
       <c r="J18" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
-        <v>0.1724592000000022</v>
+        <v>0.17245919999999967</v>
       </c>
       <c r="K18" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
-        <v>1.0538387999999359</v>
+        <v>1.053838799999999</v>
       </c>
       <c r="L18" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
-        <v>1.1427777999999629</v>
+        <v>1.1427777999999988</v>
       </c>
       <c r="M18" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B18,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D18,'Engines indvidual'!$E$1:$E$85,$E18)*0.000001</f>
-        <v>0.39574909999999036</v>
+        <v>0.39574909999999891</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="F19" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
-        <v>13.411750811776598</v>
+        <v>13.411750811776498</v>
       </c>
       <c r="G19" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="H19" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
-        <v>11.129843061932798</v>
+        <v>11.129843061932899</v>
       </c>
       <c r="I19" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
@@ -11474,15 +11474,15 @@
       </c>
       <c r="J19" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
-        <v>0.98669339007420021</v>
+        <v>0.98669339007418999</v>
       </c>
       <c r="K19" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
-        <v>5.8101275945075885</v>
+        <v>5.8101275945076098</v>
       </c>
       <c r="L19" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
-        <v>5.4385693005997089</v>
+        <v>5.4385693005997</v>
       </c>
       <c r="M19" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B19,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D19,'Engines indvidual'!$E$1:$E$85,$E19)*0.000001</f>
@@ -11527,11 +11527,11 @@
       </c>
       <c r="K20" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B20,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D20,'Engines indvidual'!$E$1:$E$85,$E20)*0.000001</f>
-        <v>12.573092509321588</v>
+        <v>12.57309250932158</v>
       </c>
       <c r="L20" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B20,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D20,'Engines indvidual'!$E$1:$E$85,$E20)*0.000001</f>
-        <v>13.40167162115957</v>
+        <v>13.401671621159579</v>
       </c>
       <c r="M20" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B20,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D20,'Engines indvidual'!$E$1:$E$85,$E20)*0.000001</f>
@@ -11556,15 +11556,15 @@
       </c>
       <c r="F21" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B21,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D21,'Engines indvidual'!$E$1:$E$85,$E21)*0.000001</f>
-        <v>107.3860783611231</v>
+        <v>107.38607836112301</v>
       </c>
       <c r="G21" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B21,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D21,'Engines indvidual'!$E$1:$E$85,$E21)*0.000001</f>
-        <v>0.14080811555711298</v>
+        <v>0.14080811555711309</v>
       </c>
       <c r="H21" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B21,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D21,'Engines indvidual'!$E$1:$E$85,$E21)*0.000001</f>
-        <v>85.15762600797359</v>
+        <v>85.157626007973505</v>
       </c>
       <c r="I21" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B21,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D21,'Engines indvidual'!$E$1:$E$85,$E21)*0.000001</f>
@@ -11572,11 +11572,11 @@
       </c>
       <c r="J21" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B21,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D21,'Engines indvidual'!$E$1:$E$85,$E21)*0.000001</f>
-        <v>11.946781064489919</v>
+        <v>11.946781064489921</v>
       </c>
       <c r="K21" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B21,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D21,'Engines indvidual'!$E$1:$E$85,$E21)*0.000001</f>
-        <v>42.237598987237305</v>
+        <v>42.237598987237284</v>
       </c>
       <c r="L21" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B21,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D21,'Engines indvidual'!$E$1:$E$85,$E21)*0.000001</f>
@@ -11605,27 +11605,27 @@
       </c>
       <c r="F22" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
-        <v>250.61634676233868</v>
+        <v>250.6163467623384</v>
       </c>
       <c r="G22" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
-        <v>0.36027313629553354</v>
+        <v>0.36027313629553365</v>
       </c>
       <c r="H22" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
-        <v>199.94885841833201</v>
+        <v>199.94885841833158</v>
       </c>
       <c r="I22" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
-        <v>23.976503415079414</v>
+        <v>23.976503415079435</v>
       </c>
       <c r="J22" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!J$1:J$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
-        <v>26.330711792631639</v>
+        <v>26.33071179263165</v>
       </c>
       <c r="K22" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!K$1:K$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
-        <v>99.058617092449992</v>
+        <v>99.058617092449893</v>
       </c>
       <c r="L22" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="M22" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B22,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D22,'Engines indvidual'!$E$1:$E$85,$E22)*0.000001</f>
-        <v>43.972791217206698</v>
+        <v>43.972791217206598</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="F23" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$1:F$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B23,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D23,'Engines indvidual'!$E$1:$E$85,$E23)*0.000001</f>
-        <v>1.087283222557935</v>
+        <v>1.087283222557931</v>
       </c>
       <c r="G23" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!G$1:G$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B23,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D23,'Engines indvidual'!$E$1:$E$85,$E23)*0.000001</f>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="H23" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!H$1:H$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B23,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D23,'Engines indvidual'!$E$1:$E$85,$E23)*0.000001</f>
-        <v>0.87495030907514504</v>
+        <v>0.87495030907514293</v>
       </c>
       <c r="I23" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!I$1:I$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B23,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D23,'Engines indvidual'!$E$1:$E$85,$E23)*0.000001</f>
@@ -11678,11 +11678,11 @@
       </c>
       <c r="L23" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!L$1:L$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B23,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D23,'Engines indvidual'!$E$1:$E$85,$E23)*0.000001</f>
-        <v>0.45767118950785396</v>
+        <v>0.45767118950785296</v>
       </c>
       <c r="M23" s="3">
         <f ca="1">SUMIFS('Engines indvidual'!M$1:M$85,'Engines indvidual'!$B$1:$B$85,'Full system - simplified'!$B23,'Engines indvidual'!$D$1:$D$85,'Full system - simplified'!$D23,'Engines indvidual'!$E$1:$E$85,$E23)*0.000001</f>
-        <v>0.17447475996506639</v>
+        <v>0.17447475996506626</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -11703,19 +11703,19 @@
       </c>
       <c r="F25" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B25,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D25,'Engines indvidual'!$E$87:$E$178,$E25)*0.000001</f>
-        <v>0.4189868460704797</v>
+        <v>0.41898684607047715</v>
       </c>
       <c r="G25" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B25,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D25,'Engines indvidual'!$E$87:$E$178,$E25)*0.000001</f>
-        <v>0.13196139457252951</v>
+        <v>0.1319613945725297</v>
       </c>
       <c r="H25" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B25,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D25,'Engines indvidual'!$E$87:$E$178,$E25)*0.000001</f>
-        <v>0.2296675475816827</v>
+        <v>0.22966754758168251</v>
       </c>
       <c r="I25" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B25,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D25,'Engines indvidual'!$E$87:$E$178,$E25)*0.000001</f>
-        <v>5.0158950982279078E-2</v>
+        <v>5.0158950982279085E-2</v>
       </c>
       <c r="J25" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B25,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D25,'Engines indvidual'!$E$87:$E$178,$E25)*0.000001</f>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="K25" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B25,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D25,'Engines indvidual'!$E$87:$E$178,$E25)*0.000001</f>
-        <v>0.25047817443514397</v>
+        <v>0.25047817443514381</v>
       </c>
       <c r="L25" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B25,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D25,'Engines indvidual'!$E$87:$E$178,$E25)*0.000001</f>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="F26" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B26,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D26,'Engines indvidual'!$E$87:$E$178,$E26)*0.000001</f>
-        <v>9.9554045188631601</v>
+        <v>9.955404518863169</v>
       </c>
       <c r="G26" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B26,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D26,'Engines indvidual'!$E$87:$E$178,$E26)*0.000001</f>
@@ -11764,23 +11764,23 @@
       </c>
       <c r="I26" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B26,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D26,'Engines indvidual'!$E$87:$E$178,$E26)*0.000001</f>
-        <v>0.89114449389215589</v>
+        <v>0.891144493892157</v>
       </c>
       <c r="J26" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B26,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D26,'Engines indvidual'!$E$87:$E$178,$E26)*0.000001</f>
-        <v>0.34534025430226012</v>
+        <v>0.34534025430226001</v>
       </c>
       <c r="K26" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B26,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D26,'Engines indvidual'!$E$87:$E$178,$E26)*0.000001</f>
-        <v>4.3377066576543815</v>
+        <v>4.337706657654393</v>
       </c>
       <c r="L26" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B26,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D26,'Engines indvidual'!$E$87:$E$178,$E26)*0.000001</f>
-        <v>3.8535080521131531</v>
+        <v>3.8535080521131664</v>
       </c>
       <c r="M26" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B26,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D26,'Engines indvidual'!$E$87:$E$178,$E26)*0.000001</f>
-        <v>1.7641898090956221</v>
+        <v>1.764189809095623</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -11801,19 +11801,19 @@
       </c>
       <c r="F27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
-        <v>8.9106441449100089</v>
+        <v>8.9106441449100391</v>
       </c>
       <c r="G27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
-        <v>3.1300181318431526</v>
+        <v>3.1300181318431508</v>
       </c>
       <c r="H27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
-        <v>4.6770313587541654</v>
+        <v>4.6770313587541743</v>
       </c>
       <c r="I27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
-        <v>0.83146524543604095</v>
+        <v>0.83146524543604083</v>
       </c>
       <c r="J27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
@@ -11821,11 +11821,11 @@
       </c>
       <c r="K27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
-        <v>3.9934826967635653</v>
+        <v>3.993482696763575</v>
       </c>
       <c r="L27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
-        <v>3.5417071712430697</v>
+        <v>3.5417071712430843</v>
       </c>
       <c r="M27" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B27,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D27,'Engines indvidual'!$E$87:$E$178,$E27)*0.000001</f>
@@ -11854,27 +11854,27 @@
       </c>
       <c r="G28" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B28,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D28,'Engines indvidual'!$E$87:$E$178,$E28)*0.000001</f>
-        <v>1.7574563969121582</v>
+        <v>1.7574563969121557</v>
       </c>
       <c r="H28" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B28,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D28,'Engines indvidual'!$E$87:$E$178,$E28)*0.000001</f>
-        <v>3.1290711349065594</v>
+        <v>3.1290711349065612</v>
       </c>
       <c r="I28" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B28,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D28,'Engines indvidual'!$E$87:$E$178,$E28)*0.000001</f>
-        <v>0.59409761640006631</v>
+        <v>0.59409761640006642</v>
       </c>
       <c r="J28" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B28,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D28,'Engines indvidual'!$E$87:$E$178,$E28)*0.000001</f>
-        <v>0.14432993413094244</v>
+        <v>0.14432993413094256</v>
       </c>
       <c r="K28" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B28,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D28,'Engines indvidual'!$E$87:$E$178,$E28)*0.000001</f>
-        <v>2.7529155248191381</v>
+        <v>2.7529155248191279</v>
       </c>
       <c r="L28" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B28,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D28,'Engines indvidual'!$E$87:$E$178,$E28)*0.000001</f>
-        <v>2.1999881563680161</v>
+        <v>2.1999881563680157</v>
       </c>
       <c r="M28" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B28,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D28,'Engines indvidual'!$E$87:$E$178,$E28)*0.000001</f>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="G29" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B29,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D29,'Engines indvidual'!$E$87:$E$178,$E29)*0.000001</f>
-        <v>3.5039868770766796</v>
+        <v>3.5039868770766893</v>
       </c>
       <c r="H29" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B29,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D29,'Engines indvidual'!$E$87:$E$178,$E29)*0.000001</f>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="I29" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B29,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D29,'Engines indvidual'!$E$87:$E$178,$E29)*0.000001</f>
-        <v>0.84098554290987837</v>
+        <v>0.84098554290987748</v>
       </c>
       <c r="J29" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B29,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D29,'Engines indvidual'!$E$87:$E$178,$E29)*0.000001</f>
@@ -11919,15 +11919,15 @@
       </c>
       <c r="K29" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B29,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D29,'Engines indvidual'!$E$87:$E$178,$E29)*0.000001</f>
-        <v>4.0872284832192607</v>
+        <v>4.0872284832192589</v>
       </c>
       <c r="L29" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B29,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D29,'Engines indvidual'!$E$87:$E$178,$E29)*0.000001</f>
-        <v>3.7618290347118957</v>
+        <v>3.7618290347118934</v>
       </c>
       <c r="M29" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B29,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D29,'Engines indvidual'!$E$87:$E$178,$E29)*0.000001</f>
-        <v>1.6873601548615587</v>
+        <v>1.6873601548615591</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -11948,35 +11948,35 @@
       </c>
       <c r="F30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>70.685935747045804</v>
+        <v>70.685529150636384</v>
       </c>
       <c r="G30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>21.895732972407181</v>
+        <v>21.895619322853406</v>
       </c>
       <c r="H30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>39.331052626767431</v>
+        <v>39.330786867112536</v>
       </c>
       <c r="I30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>7.4577301815875998</v>
+        <v>7.4577045954144499</v>
       </c>
       <c r="J30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>2.0014199662839371</v>
+        <v>2.0014183652561042</v>
       </c>
       <c r="K30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>30.33228878632497</v>
+        <v>30.332288793105995</v>
       </c>
       <c r="L30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>29.779810362217997</v>
+        <v>29.779810362218011</v>
       </c>
       <c r="M30" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B30,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D30,'Engines indvidual'!$E$87:$E$178,$E30)*0.000001</f>
-        <v>10.573836598503268</v>
+        <v>10.573429995312521</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -11997,35 +11997,35 @@
       </c>
       <c r="F31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>56.898913014863979</v>
+        <v>56.898595867158299</v>
       </c>
       <c r="G31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>17.206177905817341</v>
+        <v>17.206089661241531</v>
       </c>
       <c r="H31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>32.127025533129022</v>
+        <v>32.126818607322647</v>
       </c>
       <c r="I31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>5.9988718867336548</v>
+        <v>5.9988508947910351</v>
       </c>
       <c r="J31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>1.5668376891840965</v>
+        <v>1.5668367038031377</v>
       </c>
       <c r="K31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>24.419063814279976</v>
+        <v>24.419063820259517</v>
       </c>
       <c r="L31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>24.175314205604916</v>
+        <v>24.175314205604881</v>
       </c>
       <c r="M31" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B31,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D31,'Engines indvidual'!$E$87:$E$178,$E31)*0.000001</f>
-        <v>8.3045349949793295</v>
+        <v>8.3042178412939709</v>
       </c>
       <c r="O31" s="2"/>
     </row>
@@ -12047,35 +12047,35 @@
       </c>
       <c r="F32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>1.88878602984845</v>
+        <v>1.8887767214654609</v>
       </c>
       <c r="G32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>0.53680229885298802</v>
+        <v>0.53679973886468635</v>
       </c>
       <c r="H32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>1.0544678839683548</v>
+        <v>1.0544620730570737</v>
       </c>
       <c r="I32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>0.24790861680730572</v>
+        <v>0.24790784197079668</v>
       </c>
       <c r="J32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>4.9607230219808299E-2</v>
+        <v>4.960706757290223E-2</v>
       </c>
       <c r="K32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>0.80129168206211809</v>
+        <v>0.80129168233886994</v>
       </c>
       <c r="L32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>0.81816626514220303</v>
+        <v>0.81816626514220392</v>
       </c>
       <c r="M32" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B32,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D32,'Engines indvidual'!$E$87:$E$178,$E32)*0.000001</f>
-        <v>0.26932808264413438</v>
+        <v>0.26931877398438608</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -12096,7 +12096,7 @@
       </c>
       <c r="F33" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B33,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D33,'Engines indvidual'!$E$87:$E$178,$E33)*0.000001</f>
-        <v>9.9554045188631601</v>
+        <v>9.955404518863169</v>
       </c>
       <c r="G33" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B33,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D33,'Engines indvidual'!$E$87:$E$178,$E33)*0.000001</f>
@@ -12108,23 +12108,23 @@
       </c>
       <c r="I33" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B33,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D33,'Engines indvidual'!$E$87:$E$178,$E33)*0.000001</f>
-        <v>0.89114449389215589</v>
+        <v>0.891144493892157</v>
       </c>
       <c r="J33" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B33,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D33,'Engines indvidual'!$E$87:$E$178,$E33)*0.000001</f>
-        <v>0.34534025430226012</v>
+        <v>0.34534025430226001</v>
       </c>
       <c r="K33" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B33,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D33,'Engines indvidual'!$E$87:$E$178,$E33)*0.000001</f>
-        <v>4.3377066576543815</v>
+        <v>4.337706657654393</v>
       </c>
       <c r="L33" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B33,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D33,'Engines indvidual'!$E$87:$E$178,$E33)*0.000001</f>
-        <v>3.8535080521131531</v>
+        <v>3.8535080521131664</v>
       </c>
       <c r="M33" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B33,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D33,'Engines indvidual'!$E$87:$E$178,$E33)*0.000001</f>
-        <v>1.7641898090956221</v>
+        <v>1.764189809095623</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -12194,35 +12194,35 @@
       </c>
       <c r="F35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>1.0447603739531501</v>
+        <v>1.0447603739531302</v>
       </c>
       <c r="G35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>0.50593013980606605</v>
+        <v>0.50593013980606805</v>
       </c>
       <c r="H35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>0.40594014026536729</v>
+        <v>0.40594014026535713</v>
       </c>
       <c r="I35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>5.9679248456114956E-2</v>
+        <v>5.9679248456115962E-2</v>
       </c>
       <c r="J35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>7.3210845425599566E-2</v>
+        <v>7.3210845425599483E-2</v>
       </c>
       <c r="K35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>0.34422396089081686</v>
+        <v>0.34422396089081791</v>
       </c>
       <c r="L35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>0.31180088087008301</v>
+        <v>0.31180088087008195</v>
       </c>
       <c r="M35" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B35,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D35,'Engines indvidual'!$E$87:$E$178,$E35)*0.000001</f>
-        <v>0.38873553219224211</v>
+        <v>0.38873553219224288</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="F36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
-        <v>3.2856890625602877</v>
+        <v>3.2856890625603183</v>
       </c>
       <c r="G36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
@@ -12251,23 +12251,23 @@
       </c>
       <c r="H36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
-        <v>1.5479602238476051</v>
+        <v>1.5479602238476142</v>
       </c>
       <c r="I36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
-        <v>0.23736762903597469</v>
+        <v>0.23736762903597461</v>
       </c>
       <c r="J36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
-        <v>0.12779947474571812</v>
+        <v>0.12779947474571801</v>
       </c>
       <c r="K36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
-        <v>1.2405671719444271</v>
+        <v>1.2405671719444469</v>
       </c>
       <c r="L36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
-        <v>1.341719014875054</v>
+        <v>1.3417190148750682</v>
       </c>
       <c r="M36" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B36,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D36,'Engines indvidual'!$E$87:$E$178,$E36)*0.000001</f>
@@ -12292,35 +12292,35 @@
       </c>
       <c r="F37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>17.467893307033599</v>
+        <v>17.474745891300795</v>
       </c>
       <c r="G37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>5.2967060922857589</v>
+        <v>5.2990168279612906</v>
       </c>
       <c r="H37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>9.7484591443717505</v>
+        <v>9.7524732349352359</v>
       </c>
       <c r="I37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>1.9784215988175602</v>
+        <v>1.9789197451183214</v>
       </c>
       <c r="J37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>0.44430647155881053</v>
+        <v>0.44433608328596758</v>
       </c>
       <c r="K37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>7.4878819999351389</v>
+        <v>7.4878888284242402</v>
       </c>
       <c r="L37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>7.4839973163305302</v>
+        <v>7.4846494491605569</v>
       </c>
       <c r="M37" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B37,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D37,'Engines indvidual'!$E$87:$E$178,$E37)*0.000001</f>
-        <v>2.4960139907679504</v>
+        <v>2.5022076137160201</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -12341,35 +12341,35 @@
       </c>
       <c r="F38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>17.467893307033609</v>
+        <v>17.474745891300742</v>
       </c>
       <c r="G38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>5.2967060922857288</v>
+        <v>5.2990168279612613</v>
       </c>
       <c r="H38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>9.7484591443715125</v>
+        <v>9.7524732349351861</v>
       </c>
       <c r="I38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>1.978421598817546</v>
+        <v>1.9789197451183129</v>
       </c>
       <c r="J38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>0.44430647155881353</v>
+        <v>0.44433608328597346</v>
       </c>
       <c r="K38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>7.4878819999352002</v>
+        <v>7.4878888284240794</v>
       </c>
       <c r="L38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>7.4839973163304094</v>
+        <v>7.4846494491605995</v>
       </c>
       <c r="M38" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B38,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D38,'Engines indvidual'!$E$87:$E$178,$E38)*0.000001</f>
-        <v>2.4960139907679468</v>
+        <v>2.5022076137160125</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -12390,35 +12390,35 @@
       </c>
       <c r="F39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>17.467893307033609</v>
+        <v>17.474745891300742</v>
       </c>
       <c r="G39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>5.2967060922857288</v>
+        <v>5.2990168279612613</v>
       </c>
       <c r="H39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>9.7484591443715125</v>
+        <v>9.7524732349351861</v>
       </c>
       <c r="I39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>1.978421598817546</v>
+        <v>1.9789197451183129</v>
       </c>
       <c r="J39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>0.44430647155881353</v>
+        <v>0.44433608328597346</v>
       </c>
       <c r="K39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>7.4878819999352002</v>
+        <v>7.4878888284240794</v>
       </c>
       <c r="L39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>7.4839973163304094</v>
+        <v>7.4846494491605995</v>
       </c>
       <c r="M39" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B39,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D39,'Engines indvidual'!$E$87:$E$178,$E39)*0.000001</f>
-        <v>2.4960139907679468</v>
+        <v>2.5022076137160125</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -12439,35 +12439,35 @@
       </c>
       <c r="F40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>17.467893307033599</v>
+        <v>17.474745891300795</v>
       </c>
       <c r="G40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>5.2967060922857589</v>
+        <v>5.2990168279612906</v>
       </c>
       <c r="H40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>9.7484591443717505</v>
+        <v>9.7524732349352359</v>
       </c>
       <c r="I40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>1.9784215988175602</v>
+        <v>1.9789197451183214</v>
       </c>
       <c r="J40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>0.44430647155881053</v>
+        <v>0.44433608328596758</v>
       </c>
       <c r="K40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>7.4878819999351389</v>
+        <v>7.4878888284242402</v>
       </c>
       <c r="L40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>7.4839973163305302</v>
+        <v>7.4846494491605569</v>
       </c>
       <c r="M40" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B40,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D40,'Engines indvidual'!$E$87:$E$178,$E40)*0.000001</f>
-        <v>2.4960139907679504</v>
+        <v>2.5022076137160201</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -12488,35 +12488,35 @@
       </c>
       <c r="F41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>1.5049451999997161</v>
+        <v>1.5049451999999988</v>
       </c>
       <c r="G41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>0.39205800000001712</v>
+        <v>0.39205799999999996</v>
       </c>
       <c r="H41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>0.88273080000002868</v>
+        <v>0.88273080000000004</v>
       </c>
       <c r="I41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>0.19444199999999359</v>
+        <v>0.19444199999999989</v>
       </c>
       <c r="J41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>3.5714400000000222E-2</v>
+        <v>3.57144E-2</v>
       </c>
       <c r="K41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>0.63620760000006749</v>
+        <v>0.63620759999999998</v>
       </c>
       <c r="L41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>0.670321200000075</v>
+        <v>0.67032120000000006</v>
       </c>
       <c r="M41" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B41,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D41,'Engines indvidual'!$E$87:$E$178,$E41)*0.000001</f>
-        <v>0.198416399999995</v>
+        <v>0.19841639999999999</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -12537,35 +12537,35 @@
       </c>
       <c r="F42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>18.301136202541915</v>
+        <v>18.301032846083281</v>
       </c>
       <c r="G42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>5.4273581512351807</v>
+        <v>5.4273295656299201</v>
       </c>
       <c r="H42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>10.432361132011486</v>
+        <v>10.432295313440635</v>
       </c>
       <c r="I42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>1.989531457195012</v>
+        <v>1.989522921864461</v>
       </c>
       <c r="J42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>0.45188546210015629</v>
+        <v>0.45188504514827227</v>
       </c>
       <c r="K42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>8.0816283317762796</v>
+        <v>8.0816283325343772</v>
       </c>
       <c r="L42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>7.4923918699613896</v>
+        <v>7.4923918699613505</v>
       </c>
       <c r="M42" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B42,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D42,'Engines indvidual'!$E$87:$E$178,$E42)*0.000001</f>
-        <v>2.7271160008042683</v>
+        <v>2.7270126435875728</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -12586,27 +12586,27 @@
       </c>
       <c r="F43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
-        <v>38.597776812322067</v>
+        <v>38.597563021075025</v>
       </c>
       <c r="G43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
-        <v>11.778819754582159</v>
+        <v>11.778760095611611</v>
       </c>
       <c r="H43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
-        <v>21.694664401117532</v>
+        <v>21.694523293882014</v>
       </c>
       <c r="I43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
-        <v>4.0093404295386428</v>
+        <v>4.0093279729265738</v>
       </c>
       <c r="J43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
-        <v>1.1149522270839403</v>
+        <v>1.1149516586548653</v>
       </c>
       <c r="K43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
-        <v>16.337435482503697</v>
+        <v>16.337435487725141</v>
       </c>
       <c r="L43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="M43" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B43,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D43,'Engines indvidual'!$E$87:$E$178,$E43)*0.000001</f>
-        <v>5.577418994175062</v>
+        <v>5.5772051977063972</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -12639,11 +12639,11 @@
       </c>
       <c r="G44" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B44,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D44,'Engines indvidual'!$E$87:$E$178,$E44)*0.000001</f>
-        <v>20.781102004670501</v>
+        <v>20.781102004670522</v>
       </c>
       <c r="H44" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B44,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D44,'Engines indvidual'!$E$87:$E$178,$E44)*0.000001</f>
-        <v>34.328062288766255</v>
+        <v>34.328062288766326</v>
       </c>
       <c r="I44" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B44,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D44,'Engines indvidual'!$E$87:$E$178,$E44)*0.000001</f>
@@ -12651,19 +12651,19 @@
       </c>
       <c r="J44" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B44,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D44,'Engines indvidual'!$E$87:$E$178,$E44)*0.000001</f>
-        <v>1.8514970157839417</v>
+        <v>1.8514970157839403</v>
       </c>
       <c r="K44" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B44,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D44,'Engines indvidual'!$E$87:$E$178,$E44)*0.000001</f>
-        <v>26.971293296935141</v>
+        <v>26.971293296935109</v>
       </c>
       <c r="L44" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B44,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D44,'Engines indvidual'!$E$87:$E$178,$E44)*0.000001</f>
-        <v>26.344290974584506</v>
+        <v>26.344290974584517</v>
       </c>
       <c r="M44" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B44,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D44,'Engines indvidual'!$E$87:$E$178,$E44)*0.000001</f>
-        <v>9.8942963339961096</v>
+        <v>9.8942963339960972</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="F45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
-        <v>3.4719873220576183</v>
+        <v>3.4719873220576289</v>
       </c>
       <c r="G45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
@@ -12692,11 +12692,11 @@
       </c>
       <c r="H45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
-        <v>2.0250212252754767</v>
+        <v>2.0250212252754798</v>
       </c>
       <c r="I45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
-        <v>0.43174284615005837</v>
+        <v>0.43174284615005848</v>
       </c>
       <c r="J45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
@@ -12704,15 +12704,15 @@
       </c>
       <c r="K45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
-        <v>1.4703585779402502</v>
+        <v>1.4703585779402499</v>
       </c>
       <c r="L45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
-        <v>1.5299585726325138</v>
+        <v>1.529958572632516</v>
       </c>
       <c r="M45" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B45,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D45,'Engines indvidual'!$E$87:$E$178,$E45)*0.000001</f>
-        <v>0.47167017148485935</v>
+        <v>0.47167017148485946</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -12733,15 +12733,15 @@
       </c>
       <c r="F46" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B46,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D46,'Engines indvidual'!$E$87:$E$178,$E46)*0.000001</f>
-        <v>162.1291445125172</v>
+        <v>162.12914451251697</v>
       </c>
       <c r="G46" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B46,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D46,'Engines indvidual'!$E$87:$E$178,$E46)*0.000001</f>
-        <v>51.299618128922489</v>
+        <v>51.299618128922383</v>
       </c>
       <c r="H46" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B46,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D46,'Engines indvidual'!$E$87:$E$178,$E46)*0.000001</f>
-        <v>89.382728989590532</v>
+        <v>89.382728989590518</v>
       </c>
       <c r="I46" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B46,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D46,'Engines indvidual'!$E$87:$E$178,$E46)*0.000001</f>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="K46" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B46,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D46,'Engines indvidual'!$E$87:$E$178,$E46)*0.000001</f>
-        <v>68.961227463619068</v>
+        <v>68.961227463619252</v>
       </c>
       <c r="L46" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B46,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D46,'Engines indvidual'!$E$87:$E$178,$E46)*0.000001</f>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="M46" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B46,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D46,'Engines indvidual'!$E$87:$E$178,$E46)*0.000001</f>
-        <v>24.635941983069337</v>
+        <v>24.635941983069358</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -12782,35 +12782,35 @@
       </c>
       <c r="F47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!F$87:F$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>0.60394333404540612</v>
+        <v>0.61733135487396062</v>
       </c>
       <c r="G47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!G$87:G$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>0.1446663581049252</v>
+        <v>0.14919958488015408</v>
       </c>
       <c r="H47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!H$87:H$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>0.37693849343656499</v>
+        <v>0.38475974875761199</v>
       </c>
       <c r="I47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!I$87:I$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>6.3616383139379576E-2</v>
+        <v>6.4591683798293539E-2</v>
       </c>
       <c r="J47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!J$87:J$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>1.87220993645386E-2</v>
+        <v>1.8780337437900453E-2</v>
       </c>
       <c r="K47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!K$87:K$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>0.28427413230340676</v>
+        <v>0.28428779526075165</v>
       </c>
       <c r="L47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!L$87:L$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>0.25125912042368731</v>
+        <v>0.2525633860840989</v>
       </c>
       <c r="M47" s="2">
         <f ca="1">SUMIFS('Engines indvidual'!M$87:M$178,'Engines indvidual'!$B$87:$B$178,'Full system - simplified'!$B47,'Engines indvidual'!$D$87:$D$178,'Full system - simplified'!$D47,'Engines indvidual'!$E$87:$E$178,$E47)*0.000001</f>
-        <v>6.8410081318315219E-2</v>
+        <v>8.0480173529110438E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -12831,35 +12831,35 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" ref="F50:M50" ca="1" si="0">F12+F16+F35+F39-F51</f>
-        <v>31.838105112742277</v>
+        <v>31.842717401006428</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4802682336300714</v>
+        <v>3.4815773734879065</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.937898706236098</v>
+        <v>21.940757978579754</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5678535710238473</v>
+        <v>3.5682702393939141</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8520846018488433</v>
+        <v>2.8521118095442151</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.294694038761454</v>
+        <v>12.29469778632528</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.619022693812809</v>
+        <v>13.619422259330307</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9243883801649035</v>
+        <v>5.9285973553497744</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -12880,35 +12880,35 @@
       </c>
       <c r="F51" s="2">
         <f>([1]aggregated_flows_energy!B$479-[1]aggregated_flows_energy!B$482)*0.000001</f>
-        <v>16.32831315298602</v>
+        <v>16.330553448989004</v>
       </c>
       <c r="G51" s="2">
         <f>([1]aggregated_flows_energy!C$479-[1]aggregated_flows_energy!C$482)*0.000001</f>
-        <v>2.3890119444172084</v>
+        <v>2.3900135402349085</v>
       </c>
       <c r="H51" s="2">
         <f>([1]aggregated_flows_energy!D$479-[1]aggregated_flows_energy!D$482)*0.000001</f>
-        <v>11.597704499017999</v>
+        <v>11.598859317238002</v>
       </c>
       <c r="I51" s="2">
         <f>([1]aggregated_flows_energy!E$479-[1]aggregated_flows_energy!E$482)*0.000001</f>
-        <v>1.5900173443848005</v>
+        <v>1.590098822315499</v>
       </c>
       <c r="J51" s="2">
         <f>([1]aggregated_flows_energy!F$479-[1]aggregated_flows_energy!F$482)*0.000001</f>
-        <v>0.75157936516945012</v>
+        <v>0.75158176920123998</v>
       </c>
       <c r="K51" s="2">
         <f>([1]aggregated_flows_energy!G$479-[1]aggregated_flows_energy!G$482)*0.000001</f>
-        <v>7.1508085762559919</v>
+        <v>7.1508116571810092</v>
       </c>
       <c r="L51" s="2">
         <f>([1]aggregated_flows_energy!H$479-[1]aggregated_flows_energy!H$482)*0.000001</f>
-        <v>7.0062088568325933</v>
+        <v>7.0064614241452956</v>
       </c>
       <c r="M51" s="2">
         <f>([1]aggregated_flows_energy!I$479-[1]aggregated_flows_energy!I$482)*0.000001</f>
-        <v>2.1712957199004999</v>
+        <v>2.1732803676637</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -12929,35 +12929,35 @@
       </c>
       <c r="F52" s="2">
         <f>([1]aggregated_flows_energy!B$498-[1]aggregated_flows_energy!B$499)*0.000001</f>
-        <v>31.05966252140302</v>
+        <v>31.057422225402288</v>
       </c>
       <c r="G52" s="2">
         <f>([1]aggregated_flows_energy!C$498-[1]aggregated_flows_energy!C$499)*0.000001</f>
-        <v>14.148042272031519</v>
+        <v>14.147040676213617</v>
       </c>
       <c r="H52" s="2">
         <f>([1]aggregated_flows_energy!D$498-[1]aggregated_flows_energy!D$499)*0.000001</f>
-        <v>14.49735326368055</v>
+        <v>14.496198445460548</v>
       </c>
       <c r="I52" s="2">
         <f>([1]aggregated_flows_energy!E$498-[1]aggregated_flows_energy!E$499)*0.000001</f>
-        <v>2.1546139088152461</v>
+        <v>2.154532430884526</v>
       </c>
       <c r="J52" s="2">
         <f>([1]aggregated_flows_energy!F$498-[1]aggregated_flows_energy!F$499)*0.000001</f>
-        <v>0.25965307687533168</v>
+        <v>0.2596506728435552</v>
       </c>
       <c r="K52" s="2">
         <f>([1]aggregated_flows_energy!G$498-[1]aggregated_flows_energy!G$499)*0.000001</f>
-        <v>18.156373184140197</v>
+        <v>18.156370103216059</v>
       </c>
       <c r="L52" s="2">
         <f>([1]aggregated_flows_energy!H$498-[1]aggregated_flows_energy!H$499)*0.000001</f>
-        <v>11.245641690322149</v>
+        <v>11.24538912300898</v>
       </c>
       <c r="M52" s="2">
         <f>([1]aggregated_flows_energy!I$498-[1]aggregated_flows_energy!I$499)*0.000001</f>
-        <v>1.6576476469404362</v>
+        <v>1.6556629991772789</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -12978,35 +12978,35 @@
       </c>
       <c r="F53" s="2">
         <f>([1]aggregated_flows_energy!B$510-[1]aggregated_flows_energy!B$509-SUM([1]aggregated_flows_energy!B$511:'[1]aggregated_flows_energy'!B$516))*0.000001</f>
-        <v>16.223689498073899</v>
+        <v>16.223690272330252</v>
       </c>
       <c r="G53" s="2">
         <f>([1]aggregated_flows_energy!C$510-[1]aggregated_flows_energy!C$509-SUM([1]aggregated_flows_energy!C$511:'[1]aggregated_flows_energy'!C$516))*0.000001</f>
-        <v>13.564514394067455</v>
+        <v>13.563276030734464</v>
       </c>
       <c r="H53" s="2">
         <f>([1]aggregated_flows_energy!D$510-[1]aggregated_flows_energy!D$509-SUM([1]aggregated_flows_energy!D$511:'[1]aggregated_flows_energy'!D$516))*0.000001</f>
-        <v>2.3207068922933116</v>
+        <v>2.3216699536762238</v>
       </c>
       <c r="I53" s="2">
         <f>([1]aggregated_flows_energy!E$510-[1]aggregated_flows_energy!E$509-SUM([1]aggregated_flows_energy!E$511:'[1]aggregated_flows_energy'!E$516))*0.000001</f>
-        <v>0.4308742097303504</v>
+        <v>0.43114938954398313</v>
       </c>
       <c r="J53" s="2">
         <f>([1]aggregated_flows_energy!F$510-[1]aggregated_flows_energy!F$509-SUM([1]aggregated_flows_energy!F$511:'[1]aggregated_flows_energy'!F$516))*0.000001</f>
-        <v>-9.2405998017871985E-2</v>
+        <v>-9.2405101624479041E-2</v>
       </c>
       <c r="K53" s="2">
         <f>([1]aggregated_flows_energy!G$510-[1]aggregated_flows_energy!G$509-SUM([1]aggregated_flows_energy!G$511:'[1]aggregated_flows_energy'!G$516))*0.000001</f>
-        <v>10.502661937346</v>
+        <v>10.502661932241816</v>
       </c>
       <c r="L53" s="2">
         <f>([1]aggregated_flows_energy!H$510-[1]aggregated_flows_energy!H$509-SUM([1]aggregated_flows_energy!H$511:'[1]aggregated_flows_energy'!H$516))*0.000001</f>
-        <v>5.4240741368454692</v>
+        <v>5.4240741450265864</v>
       </c>
       <c r="M53" s="2">
         <f>([1]aggregated_flows_energy!I$510-[1]aggregated_flows_energy!I$509-SUM([1]aggregated_flows_energy!I$511:'[1]aggregated_flows_energy'!I$516))*0.000001</f>
-        <v>0.29695342388197965</v>
+        <v>0.29695419506181309</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -13047,7 +13047,7 @@
       </c>
       <c r="K54" s="2">
         <f>[1]aggregated_flows_energy!G$506*0.000001</f>
-        <v>2.62376887907311</v>
+        <v>2.6237688790731202</v>
       </c>
       <c r="L54" s="2">
         <f>[1]aggregated_flows_energy!H$506*0.000001</f>
@@ -13076,19 +13076,19 @@
       </c>
       <c r="F55" s="2">
         <f>([1]aggregated_flows_energy!B$507+[1]aggregated_flows_energy!B$508)*0.000001</f>
-        <v>20.31597092528796</v>
+        <v>20.315970925287161</v>
       </c>
       <c r="G55" s="2">
         <f>([1]aggregated_flows_energy!C$507+[1]aggregated_flows_energy!C$508)*0.000001</f>
-        <v>14.191641435866529</v>
+        <v>14.191641435866229</v>
       </c>
       <c r="H55" s="2">
         <f>([1]aggregated_flows_energy!D$507+[1]aggregated_flows_energy!D$508)*0.000001</f>
-        <v>5.0360450930869591</v>
+        <v>5.0360450930869494</v>
       </c>
       <c r="I55" s="2">
         <f>([1]aggregated_flows_energy!E$507+[1]aggregated_flows_energy!E$508)*0.000001</f>
-        <v>1.0818464831405854</v>
+        <v>1.0818464831405954</v>
       </c>
       <c r="J55" s="2">
         <f>([1]aggregated_flows_energy!F$507+[1]aggregated_flows_energy!F$508)*0.000001</f>
@@ -13096,15 +13096,15 @@
       </c>
       <c r="K55" s="2">
         <f>([1]aggregated_flows_energy!G$507+[1]aggregated_flows_energy!G$508)*0.000001</f>
-        <v>13.129694433488279</v>
+        <v>13.12969443348808</v>
       </c>
       <c r="L55" s="2">
         <f>([1]aggregated_flows_energy!H$507+[1]aggregated_flows_energy!H$508)*0.000001</f>
-        <v>6.8132951140948705</v>
+        <v>6.8132951140949807</v>
       </c>
       <c r="M55" s="2">
         <f>([1]aggregated_flows_energy!I$507+[1]aggregated_flows_energy!I$508)*0.000001</f>
-        <v>0.37298137770409889</v>
+        <v>0.37298137770409989</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -13125,19 +13125,19 @@
       </c>
       <c r="F56" s="2">
         <f>[1]aggregated_flows_energy!B$571*0.000001</f>
-        <v>34.510539841249198</v>
+        <v>34.510539841250598</v>
       </c>
       <c r="G56" s="2">
         <f>[1]aggregated_flows_energy!C$571*0.000001</f>
-        <v>12.332886626736199</v>
+        <v>12.3328866267361</v>
       </c>
       <c r="H56" s="2">
         <f>[1]aggregated_flows_energy!D$571*0.000001</f>
-        <v>19.115776251477101</v>
+        <v>19.1157762514773</v>
       </c>
       <c r="I56" s="2">
         <f>[1]aggregated_flows_energy!E$571*0.000001</f>
-        <v>2.5571531809157197</v>
+        <v>2.55715318091571</v>
       </c>
       <c r="J56" s="2">
         <f>[1]aggregated_flows_energy!F$571*0.000001</f>
@@ -13145,11 +13145,11 @@
       </c>
       <c r="K56" s="2">
         <f>[1]aggregated_flows_energy!G$571*0.000001</f>
-        <v>21.019102243966501</v>
+        <v>21.019102243966799</v>
       </c>
       <c r="L56" s="2">
         <f>[1]aggregated_flows_energy!H$571*0.000001</f>
-        <v>13.491437597283699</v>
+        <v>13.491437597283799</v>
       </c>
       <c r="M56" s="2">
         <f>[1]aggregated_flows_energy!I$571*0.000001</f>
@@ -13174,15 +13174,15 @@
       </c>
       <c r="F57" s="2">
         <f>[1]aggregated_flows_energy!B$572*0.000001</f>
-        <v>1.8309407060685099</v>
+        <v>1.8309407060685399</v>
       </c>
       <c r="G57" s="2">
         <f>[1]aggregated_flows_energy!C$572*0.000001</f>
-        <v>0.60064600925331291</v>
+        <v>0.60064600925331502</v>
       </c>
       <c r="H57" s="2">
         <f>[1]aggregated_flows_energy!D$572*0.000001</f>
-        <v>0.86407324941675501</v>
+        <v>0.86407324941675401</v>
       </c>
       <c r="I57" s="2">
         <f>[1]aggregated_flows_energy!E$572*0.000001</f>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="M57" s="2">
         <f>[1]aggregated_flows_energy!I$572*0.000001</f>
-        <v>1.8309407060685099</v>
+        <v>1.8309407060685399</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -13223,31 +13223,31 @@
       </c>
       <c r="F58" s="2">
         <f>[1]aggregated_flows_energy!B$570*0.000001</f>
-        <v>11.046835138506699</v>
+        <v>11.046835138508598</v>
       </c>
       <c r="G58" s="2">
         <f>[1]aggregated_flows_energy!C$570*0.000001</f>
-        <v>3.6035215804589997</v>
+        <v>3.6035215804590401</v>
       </c>
       <c r="H58" s="2">
         <f>[1]aggregated_flows_energy!D$570*0.000001</f>
-        <v>6.1153315482555195</v>
+        <v>6.1153315482547299</v>
       </c>
       <c r="I58" s="2">
         <f>[1]aggregated_flows_energy!E$570*0.000001</f>
-        <v>1.00153250685008</v>
+        <v>1.00153250685009</v>
       </c>
       <c r="J58" s="2">
         <f>[1]aggregated_flows_energy!F$570*0.000001</f>
-        <v>0.32644950294474601</v>
+        <v>0.32644950294474695</v>
       </c>
       <c r="K58" s="2">
         <f>[1]aggregated_flows_energy!G$570*0.000001</f>
-        <v>4.2880795164293497</v>
+        <v>4.2880795164297902</v>
       </c>
       <c r="L58" s="2">
         <f>[1]aggregated_flows_energy!H$570*0.000001</f>
-        <v>4.7606042632643799</v>
+        <v>4.7606042632646295</v>
       </c>
       <c r="M58" s="2">
         <f>[1]aggregated_flows_energy!I$570*0.000001</f>
@@ -13272,11 +13272,11 @@
       </c>
       <c r="F59" s="2">
         <f>[1]aggregated_flows_energy!B$576*0.000001</f>
-        <v>1.9881900243970099</v>
+        <v>1.9881900243969899</v>
       </c>
       <c r="G59" s="2">
         <f>[1]aggregated_flows_energy!C$576*0.000001</f>
-        <v>0.69301697008956797</v>
+        <v>0.69301697008956598</v>
       </c>
       <c r="H59" s="2">
         <f>[1]aggregated_flows_energy!D$576*0.000001</f>
@@ -13288,15 +13288,15 @@
       </c>
       <c r="J59" s="2">
         <f>[1]aggregated_flows_energy!F$576*0.000001</f>
-        <v>5.6971848311679694E-2</v>
+        <v>5.6971848311679597E-2</v>
       </c>
       <c r="K59" s="2">
         <f>[1]aggregated_flows_energy!G$576*0.000001</f>
-        <v>0.81446652722349289</v>
+        <v>0.81446652722350099</v>
       </c>
       <c r="L59" s="2">
         <f>[1]aggregated_flows_energy!H$576*0.000001</f>
-        <v>0.89597255867470094</v>
+        <v>0.89597255867469994</v>
       </c>
       <c r="M59" s="2">
         <f>[1]aggregated_flows_energy!I$576*0.000001</f>
@@ -13321,15 +13321,15 @@
       </c>
       <c r="F60" s="2">
         <f>[1]aggregated_flows_energy!B$575*0.000001</f>
-        <v>1.91718323781139</v>
+        <v>1.91718323781138</v>
       </c>
       <c r="G60" s="2">
         <f>[1]aggregated_flows_energy!C$575*0.000001</f>
-        <v>0.66826636401494</v>
+        <v>0.668266364014939</v>
       </c>
       <c r="H60" s="2">
         <f>[1]aggregated_flows_energy!D$575*0.000001</f>
-        <v>1.03186337804797</v>
+        <v>1.03186337804796</v>
       </c>
       <c r="I60" s="2">
         <f>[1]aggregated_flows_energy!E$575*0.000001</f>
@@ -13341,11 +13341,11 @@
       </c>
       <c r="K60" s="2">
         <f>[1]aggregated_flows_energy!G$575*0.000001</f>
-        <v>0.78537843696552589</v>
+        <v>0.7853784369655189</v>
       </c>
       <c r="L60" s="2">
         <f>[1]aggregated_flows_energy!H$575*0.000001</f>
-        <v>0.86397353872203997</v>
+        <v>0.86397353872203198</v>
       </c>
       <c r="M60" s="2">
         <f>[1]aggregated_flows_energy!I$575*0.000001</f>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="N60" s="2">
         <f>F59+F60+F61+F62+F63+F64</f>
-        <v>15.28257332092033</v>
+        <v>15.282608104433359</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -13374,27 +13374,27 @@
       </c>
       <c r="F61" s="2">
         <f>[1]aggregated_flows_energy!B$577*0.000001</f>
-        <v>1.2885165519838699</v>
+        <v>1.2885513354963198</v>
       </c>
       <c r="G61" s="2">
         <f>[1]aggregated_flows_energy!C$577*0.000001</f>
-        <v>0.16126754491599499</v>
+        <v>0.161277163018272</v>
       </c>
       <c r="H61" s="2">
         <f>[1]aggregated_flows_energy!D$577*0.000001</f>
-        <v>0.90324251169260694</v>
+        <v>0.90326511430619993</v>
       </c>
       <c r="I61" s="2">
         <f>[1]aggregated_flows_energy!E$577*0.000001</f>
-        <v>0.12754257948967798</v>
+        <v>0.127544930659064</v>
       </c>
       <c r="J61" s="2">
         <f>[1]aggregated_flows_energy!F$577*0.000001</f>
-        <v>9.6463915885605808E-2</v>
+        <v>9.6464127512790904E-2</v>
       </c>
       <c r="K61" s="2">
         <f>[1]aggregated_flows_energy!G$577*0.000001</f>
-        <v>0.52454163666947895</v>
+        <v>0.52454163563093992</v>
       </c>
       <c r="L61" s="2">
         <f>[1]aggregated_flows_energy!H$577*0.000001</f>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="M61" s="2">
         <f>[1]aggregated_flows_energy!I$577*0.000001</f>
-        <v>0.21415501681757798</v>
+        <v>0.21418980136855298</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -13427,11 +13427,11 @@
       </c>
       <c r="G62" s="2">
         <f>[1]aggregated_flows_energy!C$573*0.000001</f>
-        <v>0.51976272756717201</v>
+        <v>0.51976272756717501</v>
       </c>
       <c r="H62" s="2">
         <f>[1]aggregated_flows_energy!D$573*0.000001</f>
-        <v>0.80256040514841498</v>
+        <v>0.80256040514841898</v>
       </c>
       <c r="I62" s="2">
         <f>[1]aggregated_flows_energy!E$573*0.000001</f>
@@ -13439,15 +13439,15 @@
       </c>
       <c r="J62" s="2">
         <f>[1]aggregated_flows_energy!F$573*0.000001</f>
-        <v>4.2728886233759596E-2</v>
+        <v>4.27288862337597E-2</v>
       </c>
       <c r="K62" s="2">
         <f>[1]aggregated_flows_energy!G$573*0.000001</f>
-        <v>0.61084989541761991</v>
+        <v>0.61084989541762602</v>
       </c>
       <c r="L62" s="2">
         <f>[1]aggregated_flows_energy!H$573*0.000001</f>
-        <v>0.67197941900601987</v>
+        <v>0.67197941900602487</v>
       </c>
       <c r="M62" s="2">
         <f>[1]aggregated_flows_energy!I$573*0.000001</f>
@@ -13472,35 +13472,35 @@
       </c>
       <c r="F63" s="2">
         <f>[1]aggregated_flows_energy!B$578*0.000001</f>
-        <v>7.1063984701325795</v>
+        <v>7.1063984701331897</v>
       </c>
       <c r="G63" s="2">
         <f>[1]aggregated_flows_energy!C$578*0.000001</f>
-        <v>1.9627877482805998</v>
+        <v>1.9627877482806499</v>
       </c>
       <c r="H63" s="2">
         <f>[1]aggregated_flows_energy!D$578*0.000001</f>
-        <v>4.3319417265643096</v>
+        <v>4.3319417265646099</v>
       </c>
       <c r="I63" s="2">
         <f>[1]aggregated_flows_energy!E$578*0.000001</f>
-        <v>0.64237359257190696</v>
+        <v>0.64237359257189897</v>
       </c>
       <c r="J63" s="2">
         <f>[1]aggregated_flows_energy!F$578*0.000001</f>
-        <v>0.169295402716022</v>
+        <v>0.16929540271601898</v>
       </c>
       <c r="K63" s="2">
         <f>[1]aggregated_flows_energy!G$578*0.000001</f>
-        <v>2.9671483700953698</v>
+        <v>2.9671483700955501</v>
       </c>
       <c r="L63" s="2">
         <f>[1]aggregated_flows_energy!H$578*0.000001</f>
-        <v>3.18524044240311</v>
+        <v>3.1852404424033098</v>
       </c>
       <c r="M63" s="2">
         <f>[1]aggregated_flows_energy!I$578*0.000001</f>
-        <v>0.95400965763433598</v>
+        <v>0.95400965763431989</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -13525,11 +13525,11 @@
       </c>
       <c r="G64" s="2">
         <f>[1]aggregated_flows_energy!C$573*0.000001</f>
-        <v>0.51976272756717201</v>
+        <v>0.51976272756717501</v>
       </c>
       <c r="H64" s="2">
         <f>[1]aggregated_flows_energy!D$573*0.000001</f>
-        <v>0.80256040514841498</v>
+        <v>0.80256040514841898</v>
       </c>
       <c r="I64" s="2">
         <f>[1]aggregated_flows_energy!E$573*0.000001</f>
@@ -13537,15 +13537,15 @@
       </c>
       <c r="J64" s="2">
         <f>[1]aggregated_flows_energy!F$573*0.000001</f>
-        <v>4.2728886233759596E-2</v>
+        <v>4.27288862337597E-2</v>
       </c>
       <c r="K64" s="2">
         <f>[1]aggregated_flows_energy!G$573*0.000001</f>
-        <v>0.61084989541761991</v>
+        <v>0.61084989541762602</v>
       </c>
       <c r="L64" s="2">
         <f>[1]aggregated_flows_energy!H$573*0.000001</f>
-        <v>0.67197941900601987</v>
+        <v>0.67197941900602487</v>
       </c>
       <c r="M64" s="2">
         <f>[1]aggregated_flows_energy!I$573*0.000001</f>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="F65" s="2">
         <f>[1]aggregated_flows_energy!B$563*0.000001</f>
-        <v>0.93750587795543494</v>
+        <v>0.93750587795543594</v>
       </c>
       <c r="G65" s="2">
         <f>[1]aggregated_flows_energy!C$563*0.000001</f>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="I65" s="2">
         <f>[1]aggregated_flows_energy!E$563*0.000001</f>
-        <v>0.93750587795543494</v>
+        <v>0.93750587795543594</v>
       </c>
       <c r="J65" s="2">
         <f>[1]aggregated_flows_energy!F$563*0.000001</f>
@@ -13619,7 +13619,7 @@
       </c>
       <c r="F66" s="2">
         <f>[1]aggregated_flows_energy!B$564*0.000001</f>
-        <v>1.79104433624467</v>
+        <v>1.79104433624468</v>
       </c>
       <c r="G66" s="2">
         <f>[1]aggregated_flows_energy!C$564*0.000001</f>
@@ -13627,11 +13627,11 @@
       </c>
       <c r="H66" s="2">
         <f>[1]aggregated_flows_energy!D$564*0.000001</f>
-        <v>0.84524501221639803</v>
+        <v>0.84524501221640302</v>
       </c>
       <c r="I66" s="2">
         <f>[1]aggregated_flows_energy!E$564*0.000001</f>
-        <v>0.181935036356171</v>
+        <v>0.181935036356172</v>
       </c>
       <c r="J66" s="2">
         <f>[1]aggregated_flows_energy!F$564*0.000001</f>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="F67" s="2">
         <f>[1]aggregated_flows_energy!B$565*0.000001</f>
-        <v>59.286510499086603</v>
+        <v>59.286510499086795</v>
       </c>
       <c r="G67" s="2">
         <f>[1]aggregated_flows_energy!C$565*0.000001</f>
@@ -13692,11 +13692,11 @@
       </c>
       <c r="L67" s="2">
         <f>[1]aggregated_flows_energy!H$565*0.000001</f>
-        <v>25.448506615958099</v>
+        <v>25.448506615957999</v>
       </c>
       <c r="M67" s="2">
         <f>[1]aggregated_flows_energy!I$565*0.000001</f>
-        <v>7.7827787823608201</v>
+        <v>7.7827787823607899</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -13717,11 +13717,11 @@
       </c>
       <c r="F68" s="2">
         <f>([1]aggregated_flows_energy!B$567+[1]aggregated_flows_energy!B$568)*0.000001</f>
-        <v>104.1859732259615</v>
+        <v>104.18597322596159</v>
       </c>
       <c r="G68" s="2">
         <f>([1]aggregated_flows_energy!C$567+[1]aggregated_flows_energy!C$568)*0.000001</f>
-        <v>0.13661203371351111</v>
+        <v>0.13661203371351119</v>
       </c>
       <c r="H68" s="2">
         <f>([1]aggregated_flows_energy!D$567+[1]aggregated_flows_energy!D$568)*0.000001</f>
@@ -13729,19 +13729,19 @@
       </c>
       <c r="I68" s="2">
         <f>([1]aggregated_flows_energy!E$567+[1]aggregated_flows_energy!E$568)*0.000001</f>
-        <v>9.8386654505439513</v>
+        <v>9.838665450543969</v>
       </c>
       <c r="J68" s="2">
         <f>([1]aggregated_flows_energy!F$567+[1]aggregated_flows_energy!F$568)*0.000001</f>
-        <v>11.590766988768118</v>
+        <v>11.590766988768131</v>
       </c>
       <c r="K68" s="2">
         <f>([1]aggregated_flows_energy!G$567+[1]aggregated_flows_energy!G$568)*0.000001</f>
-        <v>40.978918537417599</v>
+        <v>40.978918537417691</v>
       </c>
       <c r="L68" s="2">
         <f>([1]aggregated_flows_energy!H$567+[1]aggregated_flows_energy!H$568)*0.000001</f>
-        <v>44.547670643066894</v>
+        <v>44.547670643066802</v>
       </c>
       <c r="M68" s="2">
         <f>([1]aggregated_flows_energy!I$567+[1]aggregated_flows_energy!I$568)*0.000001</f>
@@ -13766,31 +13766,31 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" ref="F69:M69" ca="1" si="1">F21-F68</f>
-        <v>3.2001051351615928</v>
+        <v>3.2001051351614223</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1960818436018732E-3</v>
+        <v>4.196081843601901E-3</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5376972550375854</v>
+        <v>2.5376972550375001</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30219772255845889</v>
+        <v>0.30219772255844113</v>
       </c>
       <c r="J69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35601407572180044</v>
+        <v>0.35601407572178978</v>
       </c>
       <c r="K69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2586804498197068</v>
+        <v>1.2586804498195932</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3682958000033096</v>
+        <v>1.368295800003402</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ca="1" si="1"/>
